--- a/util_matrizCRUD2.xlsx
+++ b/util_matrizCRUD2.xlsx
@@ -1904,7 +1904,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla1" displayName="Tabla1" ref="A1:S300" headerRowCount="1" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla1" displayName="Tabla1" ref="$A$1:$S$315" headerRowCount="1" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="A1:S301">
     <filterColumn colId="4" hiddenButton="0" showButton="1">
       <filters>
@@ -3667,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S300"/>
+  <dimension ref="A1:S315"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E113" sqref="E113"/>
@@ -3939,11 +3939,6 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="G4" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CATALOGOPQ_TBL</t>
-        </is>
-      </c>
       <c r="I4" s="14" t="inlineStr">
         <is>
           <t>SELECT</t>
@@ -3986,7 +3981,7 @@
       </c>
       <c r="G5" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>CRE_CATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I5" s="14" t="inlineStr">
@@ -4021,7 +4016,7 @@
       </c>
       <c r="E6" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACATALOGO_P</t>
+          <t>CRE_CONSULTACATALOGO_P</t>
         </is>
       </c>
       <c r="F6" s="14" t="inlineStr">
@@ -4029,18 +4024,13 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="G6" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
-        </is>
-      </c>
       <c r="I6" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J6" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" hidden="1" ht="11.25" customHeight="1">
@@ -4066,7 +4056,7 @@
       </c>
       <c r="E7" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACATALOGO_P</t>
+          <t>CRE_CONSULTACATALOGO_P</t>
         </is>
       </c>
       <c r="F7" s="14" t="inlineStr">
@@ -4081,7 +4071,7 @@
       </c>
       <c r="I7" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J7" s="15" t="n">
@@ -4111,26 +4101,26 @@
       </c>
       <c r="E8" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
+          <t>CRE_ACTUALIZACATALOGO_P</t>
         </is>
       </c>
       <c r="F8" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G8" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I8" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J8" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" hidden="1" ht="11.25" customHeight="1">
@@ -4156,7 +4146,7 @@
       </c>
       <c r="E9" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
+          <t>CRE_ACTUALIZACATALOGO_P</t>
         </is>
       </c>
       <c r="F9" s="14" t="inlineStr">
@@ -4166,7 +4156,7 @@
       </c>
       <c r="G9" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I9" s="14" t="inlineStr">
@@ -4211,17 +4201,12 @@
       </c>
       <c r="G10" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H10" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I10" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J10" s="15" t="n">
@@ -4251,22 +4236,22 @@
       </c>
       <c r="E11" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESDEB_P</t>
+          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
         </is>
       </c>
       <c r="F11" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G11" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I11" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J11" s="15" t="n">
@@ -4296,26 +4281,31 @@
       </c>
       <c r="E12" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESDEB_P</t>
+          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
         </is>
       </c>
       <c r="F12" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G12" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H12" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I12" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J12" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" hidden="1" ht="11.25" customHeight="1">
@@ -4396,12 +4386,12 @@
       </c>
       <c r="G14" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTREGCIV</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I14" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J14" s="15" t="n">
@@ -4446,11 +4436,11 @@
       </c>
       <c r="I15" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J15" s="15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" hidden="1" ht="11.25" customHeight="1">
@@ -4486,7 +4476,7 @@
       </c>
       <c r="G16" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>KSPCOTREGCIV</t>
         </is>
       </c>
       <c r="I16" s="14" t="inlineStr">
@@ -4526,12 +4516,7 @@
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G17" s="14" t="inlineStr">
-        <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="I17" s="14" t="inlineStr">
@@ -4540,7 +4525,7 @@
         </is>
       </c>
       <c r="J17" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" hidden="1" ht="11.25" customHeight="1">
@@ -4571,26 +4556,16 @@
       </c>
       <c r="F18" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G18" s="14" t="inlineStr">
-        <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H18" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="I18" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J18" s="15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" hidden="1" ht="11.25" customHeight="1">
@@ -4621,21 +4596,21 @@
       </c>
       <c r="F19" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H19" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G19" s="14" t="inlineStr">
+        <is>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I19" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J19" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" hidden="1" ht="11.25" customHeight="1">
@@ -4661,7 +4636,7 @@
       </c>
       <c r="E20" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESCES_P</t>
+          <t>CRE_EXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="F20" s="14" t="inlineStr">
@@ -4671,12 +4646,12 @@
       </c>
       <c r="G20" s="14" t="inlineStr">
         <is>
-          <t>KSAFITCESANTIAS</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I20" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J20" s="15" t="n">
@@ -4706,26 +4681,26 @@
       </c>
       <c r="E21" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESCES_P</t>
+          <t>CRE_EXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="F21" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G21" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I21" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J21" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" hidden="1" ht="11.25" customHeight="1">
@@ -4751,22 +4726,22 @@
       </c>
       <c r="E22" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESCES_P</t>
+          <t>CRE_EXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="F22" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G22" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETBITPRO</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H22" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
         </is>
       </c>
       <c r="I22" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J22" s="15" t="n">
@@ -4796,7 +4771,7 @@
       </c>
       <c r="E23" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESCES_P</t>
+          <t>CRE_EXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="F23" s="14" t="inlineStr">
@@ -4806,16 +4781,21 @@
       </c>
       <c r="G23" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H23" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I23" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J23" s="15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" hidden="1" ht="11.25" customHeight="1">
@@ -4846,12 +4826,12 @@
       </c>
       <c r="F24" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G24" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I24" s="14" t="inlineStr">
@@ -4860,7 +4840,7 @@
         </is>
       </c>
       <c r="J24" s="15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" hidden="1" ht="11.25" customHeight="1">
@@ -4896,7 +4876,7 @@
       </c>
       <c r="G25" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>KSAFITCESANTIAS</t>
         </is>
       </c>
       <c r="I25" s="14" t="inlineStr">
@@ -4905,7 +4885,7 @@
         </is>
       </c>
       <c r="J25" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" hidden="1" ht="11.25" customHeight="1">
@@ -4941,16 +4921,16 @@
       </c>
       <c r="G26" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTREGCIV</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I26" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J26" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" hidden="1" ht="11.25" customHeight="1">
@@ -4986,12 +4966,12 @@
       </c>
       <c r="G27" s="14" t="inlineStr">
         <is>
-          <t>KSAFITCESANTIAS</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I27" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J27" s="15" t="n">
@@ -5026,21 +5006,21 @@
       </c>
       <c r="F28" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G28" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I28" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J28" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" hidden="1" ht="11.25" customHeight="1">
@@ -5071,17 +5051,17 @@
       </c>
       <c r="F29" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G29" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I29" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J29" s="15" t="n">
@@ -5116,12 +5096,12 @@
       </c>
       <c r="F30" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G30" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>KSPCOTREGCIV</t>
         </is>
       </c>
       <c r="I30" s="14" t="inlineStr">
@@ -5130,7 +5110,7 @@
         </is>
       </c>
       <c r="J30" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" hidden="1" ht="11.25" customHeight="1">
@@ -5161,12 +5141,7 @@
       </c>
       <c r="F31" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G31" s="14" t="inlineStr">
-        <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="I31" s="14" t="inlineStr">
@@ -5175,7 +5150,7 @@
         </is>
       </c>
       <c r="J31" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" hidden="1" ht="11.25" customHeight="1">
@@ -5211,7 +5186,7 @@
       </c>
       <c r="G32" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I32" s="14" t="inlineStr">
@@ -5256,21 +5231,16 @@
       </c>
       <c r="G33" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H33" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>KSAFITCESANTIAS</t>
         </is>
       </c>
       <c r="I33" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J33" s="15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" hidden="1" ht="11.25" customHeight="1">
@@ -5301,21 +5271,21 @@
       </c>
       <c r="F34" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H34" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G34" s="14" t="inlineStr">
+        <is>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I34" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J34" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" hidden="1" ht="11.25" customHeight="1">
@@ -5341,7 +5311,7 @@
       </c>
       <c r="E35" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
+          <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F35" s="14" t="inlineStr">
@@ -5351,12 +5321,12 @@
       </c>
       <c r="G35" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I35" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J35" s="15" t="n">
@@ -5386,7 +5356,7 @@
       </c>
       <c r="E36" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
+          <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F36" s="14" t="inlineStr">
@@ -5396,16 +5366,16 @@
       </c>
       <c r="G36" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I36" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J36" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" hidden="1" ht="11.25" customHeight="1">
@@ -5431,7 +5401,7 @@
       </c>
       <c r="E37" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
+          <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F37" s="14" t="inlineStr">
@@ -5439,14 +5409,9 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="H37" s="14" t="inlineStr">
-        <is>
-          <t>CRE_EXCLUSIONESCES_P</t>
-        </is>
-      </c>
       <c r="I37" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J37" s="15" t="n">
@@ -5476,31 +5441,26 @@
       </c>
       <c r="E38" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
+          <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F38" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G38" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H38" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I38" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J38" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" hidden="1" ht="11.25" customHeight="1">
@@ -5526,22 +5486,22 @@
       </c>
       <c r="E39" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
+          <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F39" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G39" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETBITPRO</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H39" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
         </is>
       </c>
       <c r="I39" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J39" s="15" t="n">
@@ -5571,26 +5531,31 @@
       </c>
       <c r="E40" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
+          <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F40" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G40" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H40" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I40" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J40" s="15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" hidden="1" ht="11.25" customHeight="1">
@@ -5616,22 +5581,22 @@
       </c>
       <c r="E41" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
+          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F41" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H41" s="14" t="inlineStr">
-        <is>
-          <t>CRE_EXCLUSIONESDEB_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G41" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I41" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J41" s="15" t="n">
@@ -5661,31 +5626,26 @@
       </c>
       <c r="E42" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
+          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F42" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G42" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H42" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I42" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J42" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" hidden="1" ht="11.25" customHeight="1">
@@ -5711,7 +5671,7 @@
       </c>
       <c r="E43" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVOCESANTIA_P</t>
+          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F43" s="14" t="inlineStr">
@@ -5721,16 +5681,21 @@
       </c>
       <c r="G43" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H43" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I43" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J43" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" hidden="1" ht="11.25" customHeight="1">
@@ -5756,7 +5721,7 @@
       </c>
       <c r="E44" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVOCESANTIA_P</t>
+          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F44" s="14" t="inlineStr">
@@ -5764,14 +5729,14 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="G44" s="14" t="inlineStr">
-        <is>
-          <t>CES_BITCUENTAINDIVIDUAL_TBL</t>
+      <c r="H44" s="14" t="inlineStr">
+        <is>
+          <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="I44" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J44" s="15" t="n">
@@ -5801,22 +5766,22 @@
       </c>
       <c r="E45" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVOCESANTIA_P</t>
+          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="F45" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G45" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I45" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J45" s="15" t="n">
@@ -5846,7 +5811,7 @@
       </c>
       <c r="E46" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVOCESANTIA_P</t>
+          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="F46" s="14" t="inlineStr">
@@ -5856,12 +5821,12 @@
       </c>
       <c r="G46" s="14" t="inlineStr">
         <is>
-          <t>CES_BITCUENTAINDIVIDUAL_TBL</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I46" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J46" s="15" t="n">
@@ -5891,22 +5856,17 @@
       </c>
       <c r="E47" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVOCESANTIA_P</t>
+          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="F47" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G47" s="14" t="inlineStr">
-        <is>
-          <t>HLCREKPROGEN</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="H47" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_EXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="I47" s="14" t="inlineStr">
@@ -5915,7 +5875,7 @@
         </is>
       </c>
       <c r="J47" s="15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" hidden="1" ht="11.25" customHeight="1">
@@ -5941,7 +5901,7 @@
       </c>
       <c r="E48" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERAACTUALIZA_P</t>
+          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="F48" s="14" t="inlineStr">
@@ -5951,16 +5911,21 @@
       </c>
       <c r="G48" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H48" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I48" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J48" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" hidden="1" ht="11.25" customHeight="1">
@@ -5986,22 +5951,22 @@
       </c>
       <c r="E49" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERAACTUALIZA_P</t>
+          <t>CRE_ARCHIVOCESANTIA_P</t>
         </is>
       </c>
       <c r="F49" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G49" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I49" s="14" t="inlineStr">
         <is>
-          <t>INSERT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J49" s="15" t="n">
@@ -6031,7 +5996,7 @@
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERAACTUALIZA_P</t>
+          <t>CRE_ARCHIVOCESANTIA_P</t>
         </is>
       </c>
       <c r="F50" s="14" t="inlineStr">
@@ -6041,12 +6006,12 @@
       </c>
       <c r="G50" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>CES_BITCUENTAINDIVIDUAL_TBL</t>
         </is>
       </c>
       <c r="I50" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J50" s="15" t="n">
@@ -6076,27 +6041,22 @@
       </c>
       <c r="E51" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERAACTUALIZA_P</t>
+          <t>CRE_ARCHIVOCESANTIA_P</t>
         </is>
       </c>
       <c r="F51" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G51" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H51" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I51" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J51" s="15" t="n">
@@ -6126,22 +6086,22 @@
       </c>
       <c r="E52" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
+          <t>CRE_ARCHIVOCESANTIA_P</t>
         </is>
       </c>
       <c r="F52" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G52" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CES_BITCUENTAINDIVIDUAL_TBL</t>
         </is>
       </c>
       <c r="I52" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J52" s="15" t="n">
@@ -6171,26 +6131,31 @@
       </c>
       <c r="E53" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
+          <t>CRE_ARCHIVOCESANTIA_P</t>
         </is>
       </c>
       <c r="F53" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G53" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H53" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I53" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J53" s="15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" hidden="1" ht="11.25" customHeight="1">
@@ -6216,26 +6181,26 @@
       </c>
       <c r="E54" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
+          <t>CRE_GENERAACTUALIZA_P</t>
         </is>
       </c>
       <c r="F54" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G54" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I54" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J54" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" hidden="1" ht="11.25" customHeight="1">
@@ -6261,7 +6226,7 @@
       </c>
       <c r="E55" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
+          <t>CRE_GENERAACTUALIZA_P</t>
         </is>
       </c>
       <c r="F55" s="14" t="inlineStr">
@@ -6271,17 +6236,12 @@
       </c>
       <c r="G55" s="14" t="inlineStr">
         <is>
-          <t>CRE_PROCESOSDEBAUTOMATICO_PKG</t>
-        </is>
-      </c>
-      <c r="H55" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZARCESANTIAS_PRC</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I55" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>INSERT</t>
         </is>
       </c>
       <c r="J55" s="15" t="n">
@@ -6311,31 +6271,26 @@
       </c>
       <c r="E56" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
+          <t>CRE_GENERAACTUALIZA_P</t>
         </is>
       </c>
       <c r="F56" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G56" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H56" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I56" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J56" s="15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" hidden="1" ht="11.25" customHeight="1">
@@ -6361,17 +6316,22 @@
       </c>
       <c r="E57" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
+          <t>CRE_GENERAACTUALIZA_P</t>
         </is>
       </c>
       <c r="F57" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G57" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
         </is>
       </c>
       <c r="H57" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERAACTUALIZA_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I57" s="14" t="inlineStr">
@@ -6406,17 +6366,17 @@
       </c>
       <c r="E58" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTAACTUALIZACION_P</t>
+          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
       <c r="F58" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G58" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I58" s="14" t="inlineStr">
@@ -6451,22 +6411,22 @@
       </c>
       <c r="E59" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTAACTUALIZACION_P</t>
+          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
       <c r="F59" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G59" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I59" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J59" s="15" t="n">
@@ -6496,7 +6456,7 @@
       </c>
       <c r="E60" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTAACTUALIZACION_P</t>
+          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
       <c r="F60" s="14" t="inlineStr">
@@ -6506,16 +6466,16 @@
       </c>
       <c r="G60" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I60" s="14" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J60" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" hidden="1" ht="11.25" customHeight="1">
@@ -6541,22 +6501,22 @@
       </c>
       <c r="E61" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTAACTUALIZACION_P</t>
+          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
       <c r="F61" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G61" s="14" t="inlineStr">
         <is>
-          <t>CRE_PROCESOSGENERICOS_PKG</t>
+          <t>CRE_PROCESOSDEBAUTOMATICO_PKG</t>
         </is>
       </c>
       <c r="H61" s="14" t="inlineStr">
         <is>
-          <t>CRE_ENVIOMAILS_PRC</t>
+          <t>CRE_ACTUALIZARCESANTIAS_PRC</t>
         </is>
       </c>
       <c r="I61" s="14" t="inlineStr">
@@ -6591,17 +6551,22 @@
       </c>
       <c r="E62" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTAACTUALIZACION_P</t>
+          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
       <c r="F62" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G62" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
         </is>
       </c>
       <c r="H62" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVOCESANTIA_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I62" s="14" t="inlineStr">
@@ -6610,7 +6575,7 @@
         </is>
       </c>
       <c r="J62" s="15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" hidden="1" ht="11.25" customHeight="1">
@@ -6636,7 +6601,7 @@
       </c>
       <c r="E63" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTAACTUALIZACION_P</t>
+          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
       <c r="F63" s="14" t="inlineStr">
@@ -6646,7 +6611,7 @@
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
+          <t>CRE_GENERAACTUALIZA_P</t>
         </is>
       </c>
       <c r="I63" s="14" t="inlineStr">
@@ -6691,21 +6656,16 @@
       </c>
       <c r="G64" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H64" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I64" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J64" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" hidden="1" ht="11.25" customHeight="1">
@@ -6736,26 +6696,21 @@
       </c>
       <c r="F65" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G65" s="14" t="inlineStr">
         <is>
-          <t>GEN_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H65" s="14" t="inlineStr">
-        <is>
-          <t>GEN_DURACIONPROCESO_FUN</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I65" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J65" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" hidden="1" ht="11.25" customHeight="1">
@@ -6781,22 +6736,22 @@
       </c>
       <c r="E66" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTACES_P</t>
+          <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
       <c r="F66" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G66" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I66" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>DELETE</t>
         </is>
       </c>
       <c r="J66" s="15" t="n">
@@ -6826,7 +6781,7 @@
       </c>
       <c r="E67" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTACES_P</t>
+          <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
       <c r="F67" s="14" t="inlineStr">
@@ -6836,16 +6791,21 @@
       </c>
       <c r="G67" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>GEN_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H67" s="14" t="inlineStr">
+        <is>
+          <t>GEN_DURACIONPROCESO_FUN</t>
         </is>
       </c>
       <c r="I67" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J67" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" hidden="1" ht="11.25" customHeight="1">
@@ -6871,26 +6831,31 @@
       </c>
       <c r="E68" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTACES_P</t>
+          <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
       <c r="F68" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G68" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H68" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I68" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J68" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" hidden="1" ht="11.25" customHeight="1">
@@ -6916,7 +6881,7 @@
       </c>
       <c r="E69" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTACES_P</t>
+          <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
       <c r="F69" s="14" t="inlineStr">
@@ -6926,7 +6891,7 @@
       </c>
       <c r="H69" s="14" t="inlineStr">
         <is>
-          <t>CRE_CONSULTACATALOGO_P</t>
+          <t>CRE_ARCHIVOCESANTIA_P</t>
         </is>
       </c>
       <c r="I69" s="14" t="inlineStr">
@@ -6961,7 +6926,7 @@
       </c>
       <c r="E70" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTACES_P</t>
+          <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
       <c r="F70" s="14" t="inlineStr">
@@ -6971,12 +6936,12 @@
       </c>
       <c r="G70" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
+          <t>CRE_PROCESOSGENERICOS_PKG</t>
         </is>
       </c>
       <c r="H70" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_ENVIOMAILS_PRC</t>
         </is>
       </c>
       <c r="I70" s="14" t="inlineStr">
@@ -6985,7 +6950,7 @@
         </is>
       </c>
       <c r="J70" s="15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" hidden="1" ht="11.25" customHeight="1">
@@ -7011,7 +6976,7 @@
       </c>
       <c r="E71" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTACES_P</t>
+          <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
       <c r="F71" s="14" t="inlineStr">
@@ -7021,7 +6986,7 @@
       </c>
       <c r="H71" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTAACTUALIZACION_P</t>
+          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
       <c r="I71" s="14" t="inlineStr">
@@ -7056,7 +7021,7 @@
       </c>
       <c r="E72" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>CRE_VALIDAEJECUTACES_P</t>
         </is>
       </c>
       <c r="F72" s="14" t="inlineStr">
@@ -7066,16 +7031,16 @@
       </c>
       <c r="G72" s="14" t="inlineStr">
         <is>
-          <t>KSAFITCESANTIAS</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I72" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J72" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" hidden="1" ht="11.25" customHeight="1">
@@ -7101,7 +7066,7 @@
       </c>
       <c r="E73" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>CRE_VALIDAEJECUTACES_P</t>
         </is>
       </c>
       <c r="F73" s="14" t="inlineStr">
@@ -7111,7 +7076,7 @@
       </c>
       <c r="G73" s="14" t="inlineStr">
         <is>
-          <t>KSAFITCESANTIAS</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I73" s="14" t="inlineStr">
@@ -7120,7 +7085,7 @@
         </is>
       </c>
       <c r="J73" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" hidden="1" ht="11.25" customHeight="1">
@@ -7146,22 +7111,22 @@
       </c>
       <c r="E74" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>CRE_VALIDAEJECUTACES_P</t>
         </is>
       </c>
       <c r="F74" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G74" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I74" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J74" s="15" t="n">
@@ -7191,22 +7156,22 @@
       </c>
       <c r="E75" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>CRE_VALIDAEJECUTACES_P</t>
         </is>
       </c>
       <c r="F75" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G75" s="14" t="inlineStr">
-        <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H75" s="14" t="inlineStr">
+        <is>
+          <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
       <c r="I75" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J75" s="15" t="n">
@@ -7236,7 +7201,7 @@
       </c>
       <c r="E76" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>CRE_VALIDAEJECUTACES_P</t>
         </is>
       </c>
       <c r="F76" s="14" t="inlineStr">
@@ -7246,16 +7211,21 @@
       </c>
       <c r="G76" s="14" t="inlineStr">
         <is>
-          <t>KSAFITCESANTIAS</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H76" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I76" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J76" s="15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" hidden="1" ht="11.25" customHeight="1">
@@ -7281,22 +7251,22 @@
       </c>
       <c r="E77" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>CRE_VALIDAEJECUTACES_P</t>
         </is>
       </c>
       <c r="F77" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G77" s="14" t="inlineStr">
-        <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H77" s="14" t="inlineStr">
+        <is>
+          <t>CRE_CONSULTACATALOGO_P</t>
         </is>
       </c>
       <c r="I77" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J77" s="15" t="n">
@@ -7336,16 +7306,16 @@
       </c>
       <c r="G78" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>KSAFITCESANTIAS</t>
         </is>
       </c>
       <c r="I78" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J78" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" hidden="1" ht="11.25" customHeight="1">
@@ -7381,12 +7351,12 @@
       </c>
       <c r="G79" s="14" t="inlineStr">
         <is>
-          <t>KSAFITCESANTIAS</t>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I79" s="14" t="inlineStr">
         <is>
-          <t>INSERT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J79" s="15" t="n">
@@ -7431,7 +7401,7 @@
       </c>
       <c r="I80" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J80" s="15" t="n">
@@ -7461,7 +7431,7 @@
       </c>
       <c r="E81" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="F81" s="14" t="inlineStr">
@@ -7471,12 +7441,12 @@
       </c>
       <c r="G81" s="14" t="inlineStr">
         <is>
-          <t>HLPROTTIPOPE</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I81" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J81" s="15" t="n">
@@ -7506,7 +7476,7 @@
       </c>
       <c r="E82" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="F82" s="14" t="inlineStr">
@@ -7516,16 +7486,16 @@
       </c>
       <c r="G82" s="14" t="inlineStr">
         <is>
-          <t>HLPROTBITOPE</t>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I82" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J82" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" hidden="1" ht="11.25" customHeight="1">
@@ -7551,7 +7521,7 @@
       </c>
       <c r="E83" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="F83" s="14" t="inlineStr">
@@ -7561,12 +7531,12 @@
       </c>
       <c r="G83" s="14" t="inlineStr">
         <is>
-          <t>HLPROTBITOPE</t>
+          <t>KSAFITCESANTIAS</t>
         </is>
       </c>
       <c r="I83" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J83" s="15" t="n">
@@ -7596,7 +7566,7 @@
       </c>
       <c r="E84" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="F84" s="14" t="inlineStr">
@@ -7606,7 +7576,7 @@
       </c>
       <c r="G84" s="14" t="inlineStr">
         <is>
-          <t>HLPROTBITOPE</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I84" s="14" t="inlineStr">
@@ -7641,7 +7611,7 @@
       </c>
       <c r="E85" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="F85" s="14" t="inlineStr">
@@ -7651,7 +7621,7 @@
       </c>
       <c r="G85" s="14" t="inlineStr">
         <is>
-          <t>HLPROTBITOPE</t>
+          <t>KSAFITCESANTIAS</t>
         </is>
       </c>
       <c r="I85" s="14" t="inlineStr">
@@ -7660,7 +7630,7 @@
         </is>
       </c>
       <c r="J85" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" hidden="1" ht="11.25" customHeight="1">
@@ -7686,7 +7656,7 @@
       </c>
       <c r="E86" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="F86" s="14" t="inlineStr">
@@ -7696,7 +7666,7 @@
       </c>
       <c r="G86" s="14" t="inlineStr">
         <is>
-          <t>HLPROTBITOPE</t>
+          <t>KSAFITCESANTIAS</t>
         </is>
       </c>
       <c r="I86" s="14" t="inlineStr">
@@ -7741,16 +7711,16 @@
       </c>
       <c r="G87" s="14" t="inlineStr">
         <is>
-          <t>HLPROSBITOPE</t>
+          <t>HLPROTBITOPE</t>
         </is>
       </c>
       <c r="I87" s="14" t="inlineStr">
         <is>
-          <t>NEXTVAL</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J87" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" hidden="1" ht="11.25" customHeight="1">
@@ -7776,17 +7746,17 @@
       </c>
       <c r="E88" s="14" t="inlineStr">
         <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="F88" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G88" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>HLPROTTIPOPE</t>
         </is>
       </c>
       <c r="I88" s="14" t="inlineStr">
@@ -7821,26 +7791,26 @@
       </c>
       <c r="E89" s="14" t="inlineStr">
         <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="F89" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G89" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>HLPROTBITOPE</t>
         </is>
       </c>
       <c r="I89" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J89" s="15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" hidden="1" ht="11.25" customHeight="1">
@@ -7866,7 +7836,7 @@
       </c>
       <c r="E90" s="14" t="inlineStr">
         <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="F90" s="14" t="inlineStr">
@@ -7876,16 +7846,16 @@
       </c>
       <c r="G90" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>HLPROTBITOPE</t>
         </is>
       </c>
       <c r="I90" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J90" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" hidden="1" ht="11.25" customHeight="1">
@@ -7911,26 +7881,26 @@
       </c>
       <c r="E91" s="14" t="inlineStr">
         <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="F91" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G91" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>HLPROTBITOPE</t>
         </is>
       </c>
       <c r="I91" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>INSERT</t>
         </is>
       </c>
       <c r="J91" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" hidden="1" ht="11.25" customHeight="1">
@@ -7956,26 +7926,26 @@
       </c>
       <c r="E92" s="14" t="inlineStr">
         <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="F92" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G92" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITINDINTFONRES</t>
+          <t>HLPROTBITOPE</t>
         </is>
       </c>
       <c r="I92" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J92" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" hidden="1" ht="11.25" customHeight="1">
@@ -8001,26 +7971,26 @@
       </c>
       <c r="E93" s="14" t="inlineStr">
         <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="F93" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G93" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>HLPROSBITOPE</t>
         </is>
       </c>
       <c r="I93" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>NEXTVAL</t>
         </is>
       </c>
       <c r="J93" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" hidden="1" ht="11.25" customHeight="1">
@@ -8051,21 +8021,21 @@
       </c>
       <c r="F94" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G94" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I94" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J94" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" hidden="1" ht="11.25" customHeight="1">
@@ -8096,21 +8066,21 @@
       </c>
       <c r="F95" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G95" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTPOLCOR</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I95" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J95" s="15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" hidden="1" ht="11.25" customHeight="1">
@@ -8141,17 +8111,17 @@
       </c>
       <c r="F96" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G96" s="14" t="inlineStr">
         <is>
-          <t>PCO_DETALLE_CATALOGOS_TBL</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I96" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J96" s="15" t="n">
@@ -8191,12 +8161,12 @@
       </c>
       <c r="G97" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I97" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J97" s="15" t="n">
@@ -8231,21 +8201,21 @@
       </c>
       <c r="F98" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G98" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>KSPCOTPOLCOR</t>
         </is>
       </c>
       <c r="I98" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J98" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" hidden="1" ht="11.25" customHeight="1">
@@ -8281,17 +8251,12 @@
       </c>
       <c r="G99" s="14" t="inlineStr">
         <is>
-          <t>FR_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H99" s="14" t="inlineStr">
-        <is>
-          <t>FR_INSREGCRURESCTAIND_PRC</t>
+          <t>FRSAFITINDINTFONRES</t>
         </is>
       </c>
       <c r="I99" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J99" s="15" t="n">
@@ -8326,22 +8291,17 @@
       </c>
       <c r="F100" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G100" s="14" t="inlineStr">
         <is>
-          <t>KSPCOKPOLCOR</t>
-        </is>
-      </c>
-      <c r="H100" s="14" t="inlineStr">
-        <is>
-          <t>OBTVALNUMPOLCOR</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I100" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J100" s="15" t="n">
@@ -8381,17 +8341,12 @@
       </c>
       <c r="G101" s="14" t="inlineStr">
         <is>
-          <t>FR_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H101" s="14" t="inlineStr">
-        <is>
-          <t>FR_VALEXISTEINTERESAPORT_FUN</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I101" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J101" s="15" t="n">
@@ -8431,17 +8386,12 @@
       </c>
       <c r="G102" s="14" t="inlineStr">
         <is>
-          <t>FRSAFIKCARGOSPROCESO</t>
-        </is>
-      </c>
-      <c r="H102" s="14" t="inlineStr">
-        <is>
-          <t>CALCULARINTERESPORT2</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I102" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J102" s="15" t="n">
@@ -8471,7 +8421,7 @@
       </c>
       <c r="E103" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVODEBITO_P</t>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="F103" s="14" t="inlineStr">
@@ -8481,12 +8431,12 @@
       </c>
       <c r="G103" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>PCO_DETALLE_CATALOGOS_TBL</t>
         </is>
       </c>
       <c r="I103" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J103" s="15" t="n">
@@ -8516,22 +8466,22 @@
       </c>
       <c r="E104" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVODEBITO_P</t>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="F104" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G104" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I104" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J104" s="15" t="n">
@@ -8561,22 +8511,27 @@
       </c>
       <c r="E105" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVODEBITO_P</t>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="F105" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G105" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>FR_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H105" s="14" t="inlineStr">
+        <is>
+          <t>FR_VALEXISTEINTERESAPORT_FUN</t>
         </is>
       </c>
       <c r="I105" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J105" s="15" t="n">
@@ -8606,22 +8561,22 @@
       </c>
       <c r="E106" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVODEBITO_P</t>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="F106" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G106" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
+          <t>FRSAFIKCARGOSPROCESO</t>
         </is>
       </c>
       <c r="H106" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CALCULARINTERESPORT2</t>
         </is>
       </c>
       <c r="I106" s="14" t="inlineStr">
@@ -8630,7 +8585,7 @@
         </is>
       </c>
       <c r="J106" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" hidden="1" ht="11.25" customHeight="1">
@@ -8656,7 +8611,7 @@
       </c>
       <c r="E107" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAESTADOCRE_P</t>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="F107" s="14" t="inlineStr">
@@ -8666,16 +8621,21 @@
       </c>
       <c r="G107" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>KSPCOKPOLCOR</t>
+        </is>
+      </c>
+      <c r="H107" s="14" t="inlineStr">
+        <is>
+          <t>OBTVALNUMPOLCOR</t>
         </is>
       </c>
       <c r="I107" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J107" s="15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" hidden="1" ht="11.25" customHeight="1">
@@ -8701,26 +8661,31 @@
       </c>
       <c r="E108" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAESTADOCRE_P</t>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="F108" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G108" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>FR_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H108" s="14" t="inlineStr">
+        <is>
+          <t>FR_INSREGCRURESCTAIND_PRC</t>
         </is>
       </c>
       <c r="I108" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J108" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" hidden="1" ht="11.25" customHeight="1">
@@ -8746,7 +8711,7 @@
       </c>
       <c r="E109" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAESTADOCRE_P</t>
+          <t>CRE_ARCHIVODEBITO_P</t>
         </is>
       </c>
       <c r="F109" s="14" t="inlineStr">
@@ -8756,17 +8721,12 @@
       </c>
       <c r="G109" s="14" t="inlineStr">
         <is>
-          <t>KSCREKPREESTHIS</t>
-        </is>
-      </c>
-      <c r="H109" s="14" t="inlineStr">
-        <is>
-          <t>ACTREGHISESTPRE</t>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I109" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J109" s="15" t="n">
@@ -8796,7 +8756,7 @@
       </c>
       <c r="E110" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_ARCHIVODEBITO_P</t>
         </is>
       </c>
       <c r="F110" s="14" t="inlineStr">
@@ -8806,12 +8766,12 @@
       </c>
       <c r="G110" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I110" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J110" s="15" t="n">
@@ -8841,7 +8801,7 @@
       </c>
       <c r="E111" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_ARCHIVODEBITO_P</t>
         </is>
       </c>
       <c r="F111" s="14" t="inlineStr">
@@ -8851,16 +8811,16 @@
       </c>
       <c r="G111" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I111" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J111" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" ht="11.25" customHeight="1">
@@ -8886,7 +8846,7 @@
       </c>
       <c r="E112" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_ARCHIVODEBITO_P</t>
         </is>
       </c>
       <c r="F112" s="14" t="inlineStr">
@@ -8896,16 +8856,21 @@
       </c>
       <c r="G112" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H112" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I112" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J112" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" ht="11.25" customHeight="1">
@@ -8931,7 +8896,7 @@
       </c>
       <c r="E113" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_ACTUALIZAESTADOCRE_P</t>
         </is>
       </c>
       <c r="F113" s="14" t="inlineStr">
@@ -8941,16 +8906,16 @@
       </c>
       <c r="G113" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I113" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J113" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" ht="11.25" customHeight="1">
@@ -8976,7 +8941,7 @@
       </c>
       <c r="E114" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_ACTUALIZAESTADOCRE_P</t>
         </is>
       </c>
       <c r="F114" s="14" t="inlineStr">
@@ -8986,12 +8951,12 @@
       </c>
       <c r="G114" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I114" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J114" s="15" t="n">
@@ -9021,7 +8986,7 @@
       </c>
       <c r="E115" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_ACTUALIZAESTADOCRE_P</t>
         </is>
       </c>
       <c r="F115" s="14" t="inlineStr">
@@ -9031,16 +8996,21 @@
       </c>
       <c r="G115" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>KSCREKPREESTHIS</t>
+        </is>
+      </c>
+      <c r="H115" s="14" t="inlineStr">
+        <is>
+          <t>ACTREGHISESTPRE</t>
         </is>
       </c>
       <c r="I115" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J115" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" hidden="1" ht="11.25" customHeight="1">
@@ -9076,12 +9046,12 @@
       </c>
       <c r="G116" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I116" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J116" s="15" t="n">
@@ -9121,16 +9091,16 @@
       </c>
       <c r="G117" s="14" t="inlineStr">
         <is>
-          <t>KSCRETPREEST</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I117" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J117" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" hidden="1" ht="11.25" customHeight="1">
@@ -9171,11 +9141,11 @@
       </c>
       <c r="I118" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J118" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" hidden="1" ht="11.25" customHeight="1">
@@ -9216,11 +9186,11 @@
       </c>
       <c r="I119" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J119" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" hidden="1" ht="11.25" customHeight="1">
@@ -9246,26 +9216,21 @@
       </c>
       <c r="E120" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F120" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G120" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETCREDITOS</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="I120" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J120" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" hidden="1" ht="11.25" customHeight="1">
@@ -9291,7 +9256,7 @@
       </c>
       <c r="E121" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F121" s="14" t="inlineStr">
@@ -9301,16 +9266,16 @@
       </c>
       <c r="G121" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I121" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J121" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" hidden="1" ht="11.25" customHeight="1">
@@ -9336,26 +9301,21 @@
       </c>
       <c r="E122" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F122" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G122" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETCREDITOS</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="I122" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J122" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" hidden="1" ht="11.25" customHeight="1">
@@ -9381,26 +9341,26 @@
       </c>
       <c r="E123" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F123" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H123" s="14" t="inlineStr">
-        <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G123" s="14" t="inlineStr">
+        <is>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I123" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J123" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" hidden="1" ht="11.25" customHeight="1">
@@ -9426,7 +9386,7 @@
       </c>
       <c r="E124" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F124" s="14" t="inlineStr">
@@ -9441,11 +9401,11 @@
       </c>
       <c r="I124" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J124" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" hidden="1" ht="11.25" customHeight="1">
@@ -9471,7 +9431,7 @@
       </c>
       <c r="E125" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F125" s="14" t="inlineStr">
@@ -9481,16 +9441,16 @@
       </c>
       <c r="G125" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>KSCRETPREEST</t>
         </is>
       </c>
       <c r="I125" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J125" s="15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" hidden="1" ht="11.25" customHeight="1">
@@ -9516,22 +9476,17 @@
       </c>
       <c r="E126" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F126" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G126" s="14" t="inlineStr">
-        <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="I126" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J126" s="15" t="n">
@@ -9561,7 +9516,7 @@
       </c>
       <c r="E127" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F127" s="14" t="inlineStr">
@@ -9571,16 +9526,16 @@
       </c>
       <c r="G127" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I127" s="14" t="inlineStr">
         <is>
-          <t>INSERT</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J127" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" hidden="1" ht="11.25" customHeight="1">
@@ -9606,7 +9561,7 @@
       </c>
       <c r="E128" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F128" s="14" t="inlineStr">
@@ -9616,16 +9571,16 @@
       </c>
       <c r="G128" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_SEQ</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I128" s="14" t="inlineStr">
         <is>
-          <t>NEXTVAL</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J128" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" hidden="1" ht="11.25" customHeight="1">
@@ -9651,7 +9606,7 @@
       </c>
       <c r="E129" s="14" t="inlineStr">
         <is>
-          <t>CRE_INSERTABITACORAS_P</t>
+          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
         </is>
       </c>
       <c r="F129" s="14" t="inlineStr">
@@ -9661,7 +9616,7 @@
       </c>
       <c r="G129" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I129" s="14" t="inlineStr">
@@ -9670,7 +9625,7 @@
         </is>
       </c>
       <c r="J129" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" hidden="1" ht="11.25" customHeight="1">
@@ -9696,7 +9651,7 @@
       </c>
       <c r="E130" s="14" t="inlineStr">
         <is>
-          <t>CRE_INSERTABITACORAS_P</t>
+          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
         </is>
       </c>
       <c r="F130" s="14" t="inlineStr">
@@ -9706,12 +9661,12 @@
       </c>
       <c r="G130" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I130" s="14" t="inlineStr">
         <is>
-          <t>INSERT</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J130" s="15" t="n">
@@ -9741,7 +9696,7 @@
       </c>
       <c r="E131" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOREC_P</t>
+          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
         </is>
       </c>
       <c r="F131" s="14" t="inlineStr">
@@ -9751,12 +9706,12 @@
       </c>
       <c r="G131" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I131" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J131" s="15" t="n">
@@ -9786,7 +9741,7 @@
       </c>
       <c r="E132" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOREC_P</t>
+          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
         </is>
       </c>
       <c r="F132" s="14" t="inlineStr">
@@ -9794,18 +9749,18 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="G132" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+      <c r="H132" s="14" t="inlineStr">
+        <is>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="I132" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J132" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" hidden="1" ht="11.25" customHeight="1">
@@ -9831,7 +9786,7 @@
       </c>
       <c r="E133" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOCAN_P</t>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="F133" s="14" t="inlineStr">
@@ -9841,7 +9796,7 @@
       </c>
       <c r="G133" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I133" s="14" t="inlineStr">
@@ -9876,7 +9831,7 @@
       </c>
       <c r="E134" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOCAN_P</t>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="F134" s="14" t="inlineStr">
@@ -9886,16 +9841,16 @@
       </c>
       <c r="G134" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I134" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J134" s="15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" hidden="1" ht="11.25" customHeight="1">
@@ -9921,26 +9876,26 @@
       </c>
       <c r="E135" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOCAN_P</t>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="F135" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G135" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I135" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J135" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" hidden="1" ht="11.25" customHeight="1">
@@ -9966,7 +9921,7 @@
       </c>
       <c r="E136" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOOBS_P</t>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="F136" s="14" t="inlineStr">
@@ -9976,16 +9931,16 @@
       </c>
       <c r="G136" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I136" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>INSERT</t>
         </is>
       </c>
       <c r="J136" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" hidden="1" ht="11.25" customHeight="1">
@@ -10011,22 +9966,22 @@
       </c>
       <c r="E137" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOOBS_P</t>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="F137" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G137" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>REC_TRANSACCION_SEQ</t>
         </is>
       </c>
       <c r="I137" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>NEXTVAL</t>
         </is>
       </c>
       <c r="J137" s="15" t="n">
@@ -10056,7 +10011,7 @@
       </c>
       <c r="E138" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_INSERTABITACORAS_P</t>
         </is>
       </c>
       <c r="F138" s="14" t="inlineStr">
@@ -10066,7 +10021,7 @@
       </c>
       <c r="G138" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I138" s="14" t="inlineStr">
@@ -10101,7 +10056,7 @@
       </c>
       <c r="E139" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_INSERTABITACORAS_P</t>
         </is>
       </c>
       <c r="F139" s="14" t="inlineStr">
@@ -10111,12 +10066,12 @@
       </c>
       <c r="G139" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I139" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>INSERT</t>
         </is>
       </c>
       <c r="J139" s="15" t="n">
@@ -10146,7 +10101,7 @@
       </c>
       <c r="E140" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_ACTUALIZADEBITOREC_P</t>
         </is>
       </c>
       <c r="F140" s="14" t="inlineStr">
@@ -10156,16 +10111,16 @@
       </c>
       <c r="G140" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I140" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J140" s="15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" hidden="1" ht="11.25" customHeight="1">
@@ -10191,26 +10146,26 @@
       </c>
       <c r="E141" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_ACTUALIZADEBITOREC_P</t>
         </is>
       </c>
       <c r="F141" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G141" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I141" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J141" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" hidden="1" ht="11.25" customHeight="1">
@@ -10236,7 +10191,7 @@
       </c>
       <c r="E142" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_ACTUALIZADEBITOCAN_P</t>
         </is>
       </c>
       <c r="F142" s="14" t="inlineStr">
@@ -10246,16 +10201,16 @@
       </c>
       <c r="G142" s="14" t="inlineStr">
         <is>
-          <t>PCO_DETALLE_CATALOGOS_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I142" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J142" s="15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" hidden="1" ht="11.25" customHeight="1">
@@ -10281,7 +10236,7 @@
       </c>
       <c r="E143" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_ACTUALIZADEBITOCAN_P</t>
         </is>
       </c>
       <c r="F143" s="14" t="inlineStr">
@@ -10291,16 +10246,16 @@
       </c>
       <c r="G143" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I143" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J143" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" hidden="1" ht="11.25" customHeight="1">
@@ -10326,22 +10281,22 @@
       </c>
       <c r="E144" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_ACTUALIZADEBITOCAN_P</t>
         </is>
       </c>
       <c r="F144" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G144" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I144" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J144" s="15" t="n">
@@ -10371,7 +10326,7 @@
       </c>
       <c r="E145" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_ACTUALIZADEBITOOBS_P</t>
         </is>
       </c>
       <c r="F145" s="14" t="inlineStr">
@@ -10390,7 +10345,7 @@
         </is>
       </c>
       <c r="J145" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" hidden="1" ht="11.25" customHeight="1">
@@ -10416,12 +10371,12 @@
       </c>
       <c r="E146" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_ACTUALIZADEBITOOBS_P</t>
         </is>
       </c>
       <c r="F146" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G146" s="14" t="inlineStr">
@@ -10431,7 +10386,7 @@
       </c>
       <c r="I146" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J146" s="15" t="n">
@@ -10461,7 +10416,7 @@
       </c>
       <c r="E147" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F147" s="14" t="inlineStr">
@@ -10471,16 +10426,16 @@
       </c>
       <c r="G147" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I147" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J147" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" hidden="1" ht="11.25" customHeight="1">
@@ -10506,22 +10461,22 @@
       </c>
       <c r="E148" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F148" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G148" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I148" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J148" s="15" t="n">
@@ -10551,26 +10506,26 @@
       </c>
       <c r="E149" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F149" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G149" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I149" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J149" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" hidden="1" ht="11.25" customHeight="1">
@@ -10596,17 +10551,12 @@
       </c>
       <c r="E150" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F150" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G150" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETCREDITOS</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="I150" s="14" t="inlineStr">
@@ -10615,7 +10565,7 @@
         </is>
       </c>
       <c r="J150" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" hidden="1" ht="11.25" customHeight="1">
@@ -10641,7 +10591,7 @@
       </c>
       <c r="E151" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F151" s="14" t="inlineStr">
@@ -10651,7 +10601,7 @@
       </c>
       <c r="G151" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I151" s="14" t="inlineStr">
@@ -10686,22 +10636,17 @@
       </c>
       <c r="E152" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F152" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G152" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETSOLICITUDES</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="I152" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J152" s="15" t="n">
@@ -10731,7 +10676,7 @@
       </c>
       <c r="E153" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F153" s="14" t="inlineStr">
@@ -10741,16 +10686,16 @@
       </c>
       <c r="G153" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTDIVPOL</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I153" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J153" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" hidden="1" ht="11.25" customHeight="1">
@@ -10776,7 +10721,7 @@
       </c>
       <c r="E154" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F154" s="14" t="inlineStr">
@@ -10786,16 +10731,16 @@
       </c>
       <c r="G154" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>PCO_DETALLE_CATALOGOS_TBL</t>
         </is>
       </c>
       <c r="I154" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J154" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" hidden="1" ht="11.25" customHeight="1">
@@ -10821,26 +10766,21 @@
       </c>
       <c r="E155" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F155" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G155" s="14" t="inlineStr">
-        <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="I155" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J155" s="15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" hidden="1" ht="11.25" customHeight="1">
@@ -10866,7 +10806,7 @@
       </c>
       <c r="E156" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F156" s="14" t="inlineStr">
@@ -10876,7 +10816,7 @@
       </c>
       <c r="G156" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I156" s="14" t="inlineStr">
@@ -10911,7 +10851,7 @@
       </c>
       <c r="E157" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F157" s="14" t="inlineStr">
@@ -10921,7 +10861,7 @@
       </c>
       <c r="G157" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I157" s="14" t="inlineStr">
@@ -10930,7 +10870,7 @@
         </is>
       </c>
       <c r="J157" s="15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" hidden="1" ht="11.25" customHeight="1">
@@ -10956,7 +10896,7 @@
       </c>
       <c r="E158" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F158" s="14" t="inlineStr">
@@ -10966,7 +10906,7 @@
       </c>
       <c r="G158" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I158" s="14" t="inlineStr">
@@ -10975,7 +10915,7 @@
         </is>
       </c>
       <c r="J158" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" hidden="1" ht="11.25" customHeight="1">
@@ -11001,7 +10941,7 @@
       </c>
       <c r="E159" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F159" s="14" t="inlineStr">
@@ -11011,7 +10951,7 @@
       </c>
       <c r="G159" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I159" s="14" t="inlineStr">
@@ -11046,22 +10986,22 @@
       </c>
       <c r="E160" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F160" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H160" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZADEBITOCAN_P</t>
+          <t>FRO</t>
+        </is>
+      </c>
+      <c r="G160" s="14" t="inlineStr">
+        <is>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I160" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J160" s="15" t="n">
@@ -11091,7 +11031,7 @@
       </c>
       <c r="E161" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F161" s="14" t="inlineStr">
@@ -11099,14 +11039,9 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="H161" s="14" t="inlineStr">
-        <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
-        </is>
-      </c>
       <c r="I161" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J161" s="15" t="n">
@@ -11136,7 +11071,7 @@
       </c>
       <c r="E162" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F162" s="14" t="inlineStr">
@@ -11144,18 +11079,13 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="H162" s="14" t="inlineStr">
-        <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
-        </is>
-      </c>
       <c r="I162" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J162" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" hidden="1" ht="11.25" customHeight="1">
@@ -11181,26 +11111,26 @@
       </c>
       <c r="E163" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F163" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H163" s="14" t="inlineStr">
-        <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G163" s="14" t="inlineStr">
+        <is>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I163" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J163" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" hidden="1" ht="11.25" customHeight="1">
@@ -11226,7 +11156,7 @@
       </c>
       <c r="E164" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F164" s="14" t="inlineStr">
@@ -11236,17 +11166,12 @@
       </c>
       <c r="G164" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
-      <c r="H164" s="14" t="inlineStr">
-        <is>
-          <t>CRE_GENAFECTCTAINDDEBAUT_PRC</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I164" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J164" s="15" t="n">
@@ -11276,7 +11201,7 @@
       </c>
       <c r="E165" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F165" s="14" t="inlineStr">
@@ -11284,14 +11209,14 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="H165" s="14" t="inlineStr">
-        <is>
-          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+      <c r="G165" s="14" t="inlineStr">
+        <is>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I165" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J165" s="15" t="n">
@@ -11321,7 +11246,7 @@
       </c>
       <c r="E166" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F166" s="14" t="inlineStr">
@@ -11329,14 +11254,9 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="H166" s="14" t="inlineStr">
-        <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
-        </is>
-      </c>
       <c r="I166" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J166" s="15" t="n">
@@ -11366,7 +11286,7 @@
       </c>
       <c r="E167" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F167" s="14" t="inlineStr">
@@ -11376,7 +11296,7 @@
       </c>
       <c r="G167" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I167" s="14" t="inlineStr">
@@ -11385,7 +11305,7 @@
         </is>
       </c>
       <c r="J167" s="15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" hidden="1" ht="11.25" customHeight="1">
@@ -11411,7 +11331,7 @@
       </c>
       <c r="E168" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F168" s="14" t="inlineStr">
@@ -11421,7 +11341,7 @@
       </c>
       <c r="G168" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I168" s="14" t="inlineStr">
@@ -11430,7 +11350,7 @@
         </is>
       </c>
       <c r="J168" s="15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" hidden="1" ht="11.25" customHeight="1">
@@ -11456,7 +11376,7 @@
       </c>
       <c r="E169" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F169" s="14" t="inlineStr">
@@ -11466,16 +11386,16 @@
       </c>
       <c r="G169" s="14" t="inlineStr">
         <is>
-          <t>KSCRETDOCJUSDEBQUIMORCES</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I169" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J169" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" hidden="1" ht="11.25" customHeight="1">
@@ -11501,7 +11421,7 @@
       </c>
       <c r="E170" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F170" s="14" t="inlineStr">
@@ -11511,16 +11431,16 @@
       </c>
       <c r="G170" s="14" t="inlineStr">
         <is>
-          <t>KSCESTSOLDEBQUIRO</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I170" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J170" s="15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" hidden="1" ht="11.25" customHeight="1">
@@ -11546,7 +11466,7 @@
       </c>
       <c r="E171" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F171" s="14" t="inlineStr">
@@ -11556,16 +11476,16 @@
       </c>
       <c r="G171" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>KSCRETSOLICITUDES</t>
         </is>
       </c>
       <c r="I171" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J171" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" hidden="1" ht="11.25" customHeight="1">
@@ -11591,7 +11511,7 @@
       </c>
       <c r="E172" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F172" s="14" t="inlineStr">
@@ -11601,16 +11521,16 @@
       </c>
       <c r="G172" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>KSPCOTDIVPOL</t>
         </is>
       </c>
       <c r="I172" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J172" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" hidden="1" ht="11.25" customHeight="1">
@@ -11636,7 +11556,7 @@
       </c>
       <c r="E173" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F173" s="14" t="inlineStr">
@@ -11646,7 +11566,7 @@
       </c>
       <c r="G173" s="14" t="inlineStr">
         <is>
-          <t>KSAFITDEBCUECES</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I173" s="14" t="inlineStr">
@@ -11681,7 +11601,7 @@
       </c>
       <c r="E174" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F174" s="14" t="inlineStr">
@@ -11691,7 +11611,7 @@
       </c>
       <c r="G174" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I174" s="14" t="inlineStr">
@@ -11700,7 +11620,7 @@
         </is>
       </c>
       <c r="J174" s="15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" hidden="1" ht="11.25" customHeight="1">
@@ -11726,22 +11646,22 @@
       </c>
       <c r="E175" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F175" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G175" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETCREDITOS</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H175" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZADEBITOCAN_P</t>
         </is>
       </c>
       <c r="I175" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J175" s="15" t="n">
@@ -11771,22 +11691,22 @@
       </c>
       <c r="E176" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F176" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G176" s="14" t="inlineStr">
-        <is>
-          <t>CES_TIPOREGISTROS_TBL</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H176" s="14" t="inlineStr">
+        <is>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="I176" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J176" s="15" t="n">
@@ -11816,7 +11736,7 @@
       </c>
       <c r="E177" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F177" s="14" t="inlineStr">
@@ -11824,14 +11744,14 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="G177" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+      <c r="H177" s="14" t="inlineStr">
+        <is>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="I177" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J177" s="15" t="n">
@@ -11861,26 +11781,26 @@
       </c>
       <c r="E178" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F178" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G178" s="14" t="inlineStr">
-        <is>
-          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H178" s="14" t="inlineStr">
+        <is>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="I178" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J178" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" hidden="1" ht="11.25" customHeight="1">
@@ -11906,7 +11826,7 @@
       </c>
       <c r="E179" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F179" s="14" t="inlineStr">
@@ -11916,12 +11836,17 @@
       </c>
       <c r="G179" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
+      <c r="H179" s="14" t="inlineStr">
+        <is>
+          <t>CRE_GENAFECTCTAINDDEBAUT_PRC</t>
         </is>
       </c>
       <c r="I179" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J179" s="15" t="n">
@@ -11951,22 +11876,22 @@
       </c>
       <c r="E180" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F180" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G180" s="14" t="inlineStr">
-        <is>
-          <t>KSAFITDEBCUECES</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H180" s="14" t="inlineStr">
+        <is>
+          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
         </is>
       </c>
       <c r="I180" s="14" t="inlineStr">
         <is>
-          <t>INSERT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J180" s="15" t="n">
@@ -11996,22 +11921,22 @@
       </c>
       <c r="E181" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F181" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G181" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETDOCJUSDEBQUIMORCES</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H181" s="14" t="inlineStr">
+        <is>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="I181" s="14" t="inlineStr">
         <is>
-          <t>INSERT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J181" s="15" t="n">
@@ -12051,16 +11976,16 @@
       </c>
       <c r="G182" s="14" t="inlineStr">
         <is>
-          <t>KSCESTSOLDEBQUIRO</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I182" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J182" s="15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" hidden="1" ht="11.25" customHeight="1">
@@ -12096,16 +12021,16 @@
       </c>
       <c r="G183" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I183" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J183" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" hidden="1" ht="11.25" customHeight="1">
@@ -12141,16 +12066,16 @@
       </c>
       <c r="G184" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>KSCRETDOCJUSDEBQUIMORCES</t>
         </is>
       </c>
       <c r="I184" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J184" s="15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" hidden="1" ht="11.25" customHeight="1">
@@ -12181,21 +12106,21 @@
       </c>
       <c r="F185" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H185" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZADEBITOCAN_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G185" s="14" t="inlineStr">
+        <is>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I185" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J185" s="15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" hidden="1" ht="11.25" customHeight="1">
@@ -12231,21 +12156,16 @@
       </c>
       <c r="G186" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
-      <c r="H186" s="14" t="inlineStr">
-        <is>
-          <t>CRE_SOLICITUDDEBITOCES_PRC</t>
+          <t>KSCESTSOLDEBQUIRO</t>
         </is>
       </c>
       <c r="I186" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J186" s="15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" hidden="1" ht="11.25" customHeight="1">
@@ -12281,21 +12201,16 @@
       </c>
       <c r="G187" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTACESANTIAAPORTES_PKG</t>
-        </is>
-      </c>
-      <c r="H187" s="14" t="inlineStr">
-        <is>
-          <t>PINSCUENTAINDIVIDUALDET</t>
+          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
         </is>
       </c>
       <c r="I187" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J187" s="15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" hidden="1" ht="11.25" customHeight="1">
@@ -12326,17 +12241,17 @@
       </c>
       <c r="F188" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H188" s="14" t="inlineStr">
-        <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G188" s="14" t="inlineStr">
+        <is>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I188" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J188" s="15" t="n">
@@ -12371,17 +12286,17 @@
       </c>
       <c r="F189" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H189" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZAESTADOCRE_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G189" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I189" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J189" s="15" t="n">
@@ -12421,17 +12336,12 @@
       </c>
       <c r="G190" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
-      <c r="H190" s="14" t="inlineStr">
-        <is>
-          <t>CRE_MARCAAPORTESCESANTIAS_PRC</t>
+          <t>KSAFITDEBCUECES</t>
         </is>
       </c>
       <c r="I190" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J190" s="15" t="n">
@@ -12466,17 +12376,17 @@
       </c>
       <c r="F191" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H191" s="14" t="inlineStr">
-        <is>
-          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G191" s="14" t="inlineStr">
+        <is>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I191" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J191" s="15" t="n">
@@ -12516,21 +12426,16 @@
       </c>
       <c r="G192" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
-      <c r="H192" s="14" t="inlineStr">
-        <is>
-          <t>CRE_AFECTACTAINDIVIDUALCES_PRC</t>
+          <t>CES_TIPOREGISTROS_TBL</t>
         </is>
       </c>
       <c r="I192" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J192" s="15" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" hidden="1" ht="11.25" customHeight="1">
@@ -12566,21 +12471,16 @@
       </c>
       <c r="G193" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTACESANTIAAPORTES_PKG</t>
-        </is>
-      </c>
-      <c r="H193" s="14" t="inlineStr">
-        <is>
-          <t>PVALIDARBLOQUEOMP</t>
+          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
         </is>
       </c>
       <c r="I193" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J193" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" hidden="1" ht="11.25" customHeight="1">
@@ -12614,18 +12514,18 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="H194" s="14" t="inlineStr">
-        <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+      <c r="G194" s="14" t="inlineStr">
+        <is>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I194" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J194" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" hidden="1" ht="11.25" customHeight="1">
@@ -12656,21 +12556,21 @@
       </c>
       <c r="F195" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H195" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G195" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETDOCJUSDEBQUIMORCES</t>
         </is>
       </c>
       <c r="I195" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>INSERT</t>
         </is>
       </c>
       <c r="J195" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" hidden="1" ht="11.25" customHeight="1">
@@ -12696,7 +12596,7 @@
       </c>
       <c r="E196" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F196" s="14" t="inlineStr">
@@ -12706,12 +12606,12 @@
       </c>
       <c r="G196" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>KSAFITDEBCUECES</t>
         </is>
       </c>
       <c r="I196" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>INSERT</t>
         </is>
       </c>
       <c r="J196" s="15" t="n">
@@ -12741,7 +12641,7 @@
       </c>
       <c r="E197" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F197" s="14" t="inlineStr">
@@ -12751,16 +12651,16 @@
       </c>
       <c r="G197" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I197" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J197" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" hidden="1" ht="11.25" customHeight="1">
@@ -12786,7 +12686,7 @@
       </c>
       <c r="E198" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F198" s="14" t="inlineStr">
@@ -12796,16 +12696,16 @@
       </c>
       <c r="G198" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>KSCESTSOLDEBQUIRO</t>
         </is>
       </c>
       <c r="I198" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J198" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" hidden="1" ht="11.25" customHeight="1">
@@ -12831,7 +12731,7 @@
       </c>
       <c r="E199" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F199" s="14" t="inlineStr">
@@ -12841,12 +12741,12 @@
       </c>
       <c r="G199" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
         </is>
       </c>
       <c r="I199" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J199" s="15" t="n">
@@ -12876,26 +12776,26 @@
       </c>
       <c r="E200" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F200" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G200" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H200" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZADEBITOCAN_P</t>
         </is>
       </c>
       <c r="I200" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J200" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" hidden="1" ht="11.25" customHeight="1">
@@ -12921,7 +12821,7 @@
       </c>
       <c r="E201" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F201" s="14" t="inlineStr">
@@ -12931,7 +12831,7 @@
       </c>
       <c r="H201" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_ACTUALIZAESTADOCRE_P</t>
         </is>
       </c>
       <c r="I201" s="14" t="inlineStr">
@@ -12966,7 +12866,7 @@
       </c>
       <c r="E202" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F202" s="14" t="inlineStr">
@@ -12976,7 +12876,7 @@
       </c>
       <c r="H202" s="14" t="inlineStr">
         <is>
-          <t>CRE_INSERTABITACORAS_P</t>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="I202" s="14" t="inlineStr">
@@ -12985,7 +12885,7 @@
         </is>
       </c>
       <c r="J202" s="15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" hidden="1" ht="11.25" customHeight="1">
@@ -13011,7 +12911,7 @@
       </c>
       <c r="E203" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F203" s="14" t="inlineStr">
@@ -13021,7 +12921,7 @@
       </c>
       <c r="H203" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOREC_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="I203" s="14" t="inlineStr">
@@ -13056,7 +12956,7 @@
       </c>
       <c r="E204" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F204" s="14" t="inlineStr">
@@ -13066,12 +12966,17 @@
       </c>
       <c r="G204" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>CES_CUENTACESANTIAAPORTES_PKG</t>
+        </is>
+      </c>
+      <c r="H204" s="14" t="inlineStr">
+        <is>
+          <t>PINSCUENTAINDIVIDUALDET</t>
         </is>
       </c>
       <c r="I204" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J204" s="15" t="n">
@@ -13101,22 +13006,22 @@
       </c>
       <c r="E205" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F205" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G205" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETCREDITOS</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H205" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="I205" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J205" s="15" t="n">
@@ -13146,7 +13051,7 @@
       </c>
       <c r="E206" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F206" s="14" t="inlineStr">
@@ -13156,16 +13061,21 @@
       </c>
       <c r="G206" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
+      <c r="H206" s="14" t="inlineStr">
+        <is>
+          <t>CRE_AFECTACTAINDIVIDUALCES_PRC</t>
         </is>
       </c>
       <c r="I206" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J206" s="15" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" hidden="1" ht="11.25" customHeight="1">
@@ -13191,22 +13101,22 @@
       </c>
       <c r="E207" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F207" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G207" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H207" s="14" t="inlineStr">
+        <is>
+          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
         </is>
       </c>
       <c r="I207" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J207" s="15" t="n">
@@ -13236,7 +13146,7 @@
       </c>
       <c r="E208" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F208" s="14" t="inlineStr">
@@ -13246,12 +13156,17 @@
       </c>
       <c r="G208" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>CES_CUENTACESANTIAAPORTES_PKG</t>
+        </is>
+      </c>
+      <c r="H208" s="14" t="inlineStr">
+        <is>
+          <t>PVALIDARBLOQUEOMP</t>
         </is>
       </c>
       <c r="I208" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J208" s="15" t="n">
@@ -13281,7 +13196,7 @@
       </c>
       <c r="E209" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F209" s="14" t="inlineStr">
@@ -13291,12 +13206,17 @@
       </c>
       <c r="G209" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
+      <c r="H209" s="14" t="inlineStr">
+        <is>
+          <t>CRE_SOLICITUDDEBITOCES_PRC</t>
         </is>
       </c>
       <c r="I209" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J209" s="15" t="n">
@@ -13326,7 +13246,7 @@
       </c>
       <c r="E210" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F210" s="14" t="inlineStr">
@@ -13336,16 +13256,21 @@
       </c>
       <c r="G210" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
+      <c r="H210" s="14" t="inlineStr">
+        <is>
+          <t>CRE_MARCAAPORTESCESANTIAS_PRC</t>
         </is>
       </c>
       <c r="I210" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J210" s="15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" hidden="1" ht="11.25" customHeight="1">
@@ -13371,7 +13296,7 @@
       </c>
       <c r="E211" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F211" s="14" t="inlineStr">
@@ -13381,16 +13306,16 @@
       </c>
       <c r="G211" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I211" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J211" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" hidden="1" ht="11.25" customHeight="1">
@@ -13416,7 +13341,7 @@
       </c>
       <c r="E212" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F212" s="14" t="inlineStr">
@@ -13426,16 +13351,16 @@
       </c>
       <c r="G212" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I212" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J212" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" hidden="1" ht="11.25" customHeight="1">
@@ -13461,27 +13386,22 @@
       </c>
       <c r="E213" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F213" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G213" s="14" t="inlineStr">
         <is>
-          <t>FR_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H213" s="14" t="inlineStr">
-        <is>
-          <t>FR_VALEXISTECARGOSREG_FUN</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I213" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J213" s="15" t="n">
@@ -13511,7 +13431,7 @@
       </c>
       <c r="E214" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F214" s="14" t="inlineStr">
@@ -13521,17 +13441,12 @@
       </c>
       <c r="G214" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
-      <c r="H214" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CREASOLICDEBITOAUTOM_PRC</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I214" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J214" s="15" t="n">
@@ -13561,22 +13476,22 @@
       </c>
       <c r="E215" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F215" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H215" s="14" t="inlineStr">
-        <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G215" s="14" t="inlineStr">
+        <is>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I215" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J215" s="15" t="n">
@@ -13606,22 +13521,17 @@
       </c>
       <c r="E216" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F216" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
-        </is>
-      </c>
-      <c r="G216" s="14" t="inlineStr">
-        <is>
-          <t>FR_PROCESOSGENERICOS_PKG</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="H216" s="14" t="inlineStr">
         <is>
-          <t>FR_VALEXISTESOLDEVFR_FUN</t>
+          <t>CRE_INSERTABITACORAS_P</t>
         </is>
       </c>
       <c r="I216" s="14" t="inlineStr">
@@ -13630,7 +13540,7 @@
         </is>
       </c>
       <c r="J216" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" hidden="1" ht="11.25" customHeight="1">
@@ -13656,7 +13566,7 @@
       </c>
       <c r="E217" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F217" s="14" t="inlineStr">
@@ -13666,7 +13576,7 @@
       </c>
       <c r="H217" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAESTADOCRE_P</t>
+          <t>CRE_ACTUALIZADEBITOREC_P</t>
         </is>
       </c>
       <c r="I217" s="14" t="inlineStr">
@@ -13675,7 +13585,7 @@
         </is>
       </c>
       <c r="J217" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" hidden="1" ht="11.25" customHeight="1">
@@ -13701,7 +13611,7 @@
       </c>
       <c r="E218" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F218" s="14" t="inlineStr">
@@ -13711,7 +13621,7 @@
       </c>
       <c r="H218" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOOBS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="I218" s="14" t="inlineStr">
@@ -13720,7 +13630,7 @@
         </is>
       </c>
       <c r="J218" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" hidden="1" ht="11.25" customHeight="1">
@@ -13751,26 +13661,21 @@
       </c>
       <c r="F219" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G219" s="14" t="inlineStr">
         <is>
-          <t>FR_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H219" s="14" t="inlineStr">
-        <is>
-          <t>FR_VALEXISTEBLOQUEO_FUN</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I219" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J219" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" hidden="1" ht="11.25" customHeight="1">
@@ -13801,21 +13706,21 @@
       </c>
       <c r="F220" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H220" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G220" s="14" t="inlineStr">
+        <is>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I220" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J220" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" hidden="1" ht="11.25" customHeight="1">
@@ -13846,17 +13751,17 @@
       </c>
       <c r="F221" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H221" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZADEBITOREC_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G221" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I221" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J221" s="15" t="n">
@@ -13891,22 +13796,17 @@
       </c>
       <c r="F222" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G222" s="14" t="inlineStr">
         <is>
-          <t>FR_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H222" s="14" t="inlineStr">
-        <is>
-          <t>FR_VALEXISTRAMPENDAFIFALLE_FUN</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I222" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J222" s="15" t="n">
@@ -13946,17 +13846,12 @@
       </c>
       <c r="G223" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
-      <c r="H223" s="14" t="inlineStr">
-        <is>
-          <t>CRE_VALIDADATOSDEBAUT_FUN</t>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I223" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J223" s="15" t="n">
@@ -13991,21 +13886,21 @@
       </c>
       <c r="F224" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H224" s="14" t="inlineStr">
-        <is>
-          <t>CRE_INSERTABITACORAS_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G224" s="14" t="inlineStr">
+        <is>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I224" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J224" s="15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" hidden="1" ht="11.25" customHeight="1">
@@ -14036,21 +13931,21 @@
       </c>
       <c r="F225" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H225" s="14" t="inlineStr">
-        <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G225" s="14" t="inlineStr">
+        <is>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I225" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J225" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" hidden="1" ht="11.25" customHeight="1">
@@ -14076,7 +13971,7 @@
       </c>
       <c r="E226" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDATIPODEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F226" s="14" t="inlineStr">
@@ -14086,12 +13981,12 @@
       </c>
       <c r="G226" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I226" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J226" s="15" t="n">
@@ -14121,7 +14016,7 @@
       </c>
       <c r="E227" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDATIPODEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F227" s="14" t="inlineStr">
@@ -14131,12 +14026,12 @@
       </c>
       <c r="G227" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I227" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J227" s="15" t="n">
@@ -14166,22 +14061,27 @@
       </c>
       <c r="E228" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDATIPODEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F228" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G228" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>FR_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H228" s="14" t="inlineStr">
+        <is>
+          <t>FR_VALEXISTESOLDEVFR_FUN</t>
         </is>
       </c>
       <c r="I228" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J228" s="15" t="n">
@@ -14211,26 +14111,26 @@
       </c>
       <c r="E229" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F229" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G229" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETBITPRO</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H229" s="14" t="inlineStr">
+        <is>
+          <t>CRE_INSERTABITACORAS_P</t>
         </is>
       </c>
       <c r="I229" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J229" s="15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" hidden="1" ht="11.25" customHeight="1">
@@ -14256,26 +14156,31 @@
       </c>
       <c r="E230" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F230" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G230" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>FR_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H230" s="14" t="inlineStr">
+        <is>
+          <t>FR_VALEXISTECARGOSREG_FUN</t>
         </is>
       </c>
       <c r="I230" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J230" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" hidden="1" ht="11.25" customHeight="1">
@@ -14301,26 +14206,26 @@
       </c>
       <c r="E231" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F231" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G231" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETCREDITOS</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H231" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZAESTADOCRE_P</t>
         </is>
       </c>
       <c r="I231" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J231" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" hidden="1" ht="11.25" customHeight="1">
@@ -14346,26 +14251,26 @@
       </c>
       <c r="E232" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F232" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G232" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H232" s="14" t="inlineStr">
+        <is>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="I232" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J232" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" hidden="1" ht="11.25" customHeight="1">
@@ -14391,7 +14296,7 @@
       </c>
       <c r="E233" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F233" s="14" t="inlineStr">
@@ -14399,18 +14304,18 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="G233" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+      <c r="H233" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="I233" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J233" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" hidden="1" ht="11.25" customHeight="1">
@@ -14436,7 +14341,7 @@
       </c>
       <c r="E234" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F234" s="14" t="inlineStr">
@@ -14444,14 +14349,14 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="G234" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+      <c r="H234" s="14" t="inlineStr">
+        <is>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="I234" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J234" s="15" t="n">
@@ -14481,22 +14386,27 @@
       </c>
       <c r="E235" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F235" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G235" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>FR_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H235" s="14" t="inlineStr">
+        <is>
+          <t>FR_VALEXISTEBLOQUEO_FUN</t>
         </is>
       </c>
       <c r="I235" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J235" s="15" t="n">
@@ -14526,22 +14436,27 @@
       </c>
       <c r="E236" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F236" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G236" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTAFILIADOS</t>
+          <t>FR_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H236" s="14" t="inlineStr">
+        <is>
+          <t>FR_VALEXISTRAMPENDAFIFALLE_FUN</t>
         </is>
       </c>
       <c r="I236" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J236" s="15" t="n">
@@ -14571,7 +14486,7 @@
       </c>
       <c r="E237" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F237" s="14" t="inlineStr">
@@ -14581,12 +14496,12 @@
       </c>
       <c r="G237" s="14" t="inlineStr">
         <is>
-          <t>CRE_PROCESOSGENERICOS_PKG</t>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
         </is>
       </c>
       <c r="H237" s="14" t="inlineStr">
         <is>
-          <t>CRE_ENVIOMAILS_PRC</t>
+          <t>CRE_VALIDADATOSDEBAUT_FUN</t>
         </is>
       </c>
       <c r="I237" s="14" t="inlineStr">
@@ -14621,17 +14536,22 @@
       </c>
       <c r="E238" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F238" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G238" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
         </is>
       </c>
       <c r="H238" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_CREASOLICDEBITOAUTOM_PRC</t>
         </is>
       </c>
       <c r="I238" s="14" t="inlineStr">
@@ -14666,7 +14586,7 @@
       </c>
       <c r="E239" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F239" s="14" t="inlineStr">
@@ -14676,7 +14596,7 @@
       </c>
       <c r="H239" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVODEBITO_P</t>
+          <t>CRE_ACTUALIZADEBITOOBS_P</t>
         </is>
       </c>
       <c r="I239" s="14" t="inlineStr">
@@ -14685,7 +14605,7 @@
         </is>
       </c>
       <c r="J239" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" hidden="1" ht="11.25" customHeight="1">
@@ -14711,7 +14631,7 @@
       </c>
       <c r="E240" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F240" s="14" t="inlineStr">
@@ -14721,7 +14641,7 @@
       </c>
       <c r="H240" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
+          <t>CRE_ACTUALIZADEBITOREC_P</t>
         </is>
       </c>
       <c r="I240" s="14" t="inlineStr">
@@ -14730,7 +14650,7 @@
         </is>
       </c>
       <c r="J240" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" hidden="1" ht="11.25" customHeight="1">
@@ -14756,7 +14676,7 @@
       </c>
       <c r="E241" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_VALIDATIPODEBITO_P</t>
         </is>
       </c>
       <c r="F241" s="14" t="inlineStr">
@@ -14766,21 +14686,16 @@
       </c>
       <c r="G241" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H241" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I241" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J241" s="15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" hidden="1" ht="11.25" customHeight="1">
@@ -14806,7 +14721,7 @@
       </c>
       <c r="E242" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_VALIDATIPODEBITO_P</t>
         </is>
       </c>
       <c r="F242" s="14" t="inlineStr">
@@ -14816,17 +14731,12 @@
       </c>
       <c r="G242" s="14" t="inlineStr">
         <is>
-          <t>GEN_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H242" s="14" t="inlineStr">
-        <is>
-          <t>GEN_DURACIONPROCESO_FUN</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I242" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J242" s="15" t="n">
@@ -14856,26 +14766,26 @@
       </c>
       <c r="E243" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_VALIDATIPODEBITO_P</t>
         </is>
       </c>
       <c r="F243" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H243" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZADEBITOREC_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G243" s="14" t="inlineStr">
+        <is>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I243" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J243" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" hidden="1" ht="11.25" customHeight="1">
@@ -14906,21 +14816,21 @@
       </c>
       <c r="F244" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H244" s="14" t="inlineStr">
-        <is>
-          <t>CRE_INSERTABITACORAS_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G244" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I244" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J244" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" hidden="1" ht="11.25" customHeight="1">
@@ -14951,21 +14861,21 @@
       </c>
       <c r="F245" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H245" s="14" t="inlineStr">
-        <is>
-          <t>CRE_VALIDATIPODEBITO_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G245" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I245" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J245" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" hidden="1" ht="11.25" customHeight="1">
@@ -14991,7 +14901,7 @@
       </c>
       <c r="E246" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F246" s="14" t="inlineStr">
@@ -15001,7 +14911,7 @@
       </c>
       <c r="G246" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I246" s="14" t="inlineStr">
@@ -15010,7 +14920,7 @@
         </is>
       </c>
       <c r="J246" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" hidden="1" ht="11.25" customHeight="1">
@@ -15036,7 +14946,7 @@
       </c>
       <c r="E247" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F247" s="14" t="inlineStr">
@@ -15046,7 +14956,7 @@
       </c>
       <c r="G247" s="14" t="inlineStr">
         <is>
-          <t>HLPROTTIPOPE</t>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I247" s="14" t="inlineStr">
@@ -15081,26 +14991,21 @@
       </c>
       <c r="E248" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F248" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G248" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="I248" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J248" s="15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" hidden="1" ht="11.25" customHeight="1">
@@ -15126,7 +15031,7 @@
       </c>
       <c r="E249" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F249" s="14" t="inlineStr">
@@ -15136,12 +15041,12 @@
       </c>
       <c r="G249" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I249" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J249" s="15" t="n">
@@ -15171,26 +15076,21 @@
       </c>
       <c r="E250" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F250" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G250" s="14" t="inlineStr">
-        <is>
-          <t>KSPCOTPOLCOR</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="I250" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J250" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" hidden="1" ht="11.25" customHeight="1">
@@ -15216,7 +15116,7 @@
       </c>
       <c r="E251" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F251" s="14" t="inlineStr">
@@ -15226,17 +15126,12 @@
       </c>
       <c r="G251" s="14" t="inlineStr">
         <is>
-          <t>GEN_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H251" s="14" t="inlineStr">
-        <is>
-          <t>GEN_OBT_CODIGOPROC_FUN</t>
+          <t>KSPCOTAFILIADOS</t>
         </is>
       </c>
       <c r="I251" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J251" s="15" t="n">
@@ -15266,7 +15161,7 @@
       </c>
       <c r="E252" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F252" s="14" t="inlineStr">
@@ -15276,17 +15171,12 @@
       </c>
       <c r="G252" s="14" t="inlineStr">
         <is>
-          <t>GEN_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H252" s="14" t="inlineStr">
-        <is>
-          <t>GEN_INSUPDHLPROTBITOPE_PRC</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I252" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J252" s="15" t="n">
@@ -15316,31 +15206,26 @@
       </c>
       <c r="E253" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F253" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G253" s="14" t="inlineStr">
         <is>
-          <t>CRE_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H253" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CODPROUSRENVMAIL_PRC</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I253" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J253" s="15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" hidden="1" ht="11.25" customHeight="1">
@@ -15366,7 +15251,7 @@
       </c>
       <c r="E254" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F254" s="14" t="inlineStr">
@@ -15374,18 +15259,13 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="H254" s="14" t="inlineStr">
-        <is>
-          <t>CRE_EJECUTADEBITO_P</t>
-        </is>
-      </c>
       <c r="I254" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J254" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" hidden="1" ht="11.25" customHeight="1">
@@ -15411,7 +15291,7 @@
       </c>
       <c r="E255" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F255" s="14" t="inlineStr">
@@ -15421,7 +15301,7 @@
       </c>
       <c r="H255" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACATALOGO_P</t>
+          <t>CRE_INSERTABITACORAS_P</t>
         </is>
       </c>
       <c r="I255" s="14" t="inlineStr">
@@ -15430,7 +15310,7 @@
         </is>
       </c>
       <c r="J255" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" hidden="1" ht="11.25" customHeight="1">
@@ -15456,7 +15336,7 @@
       </c>
       <c r="E256" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F256" s="14" t="inlineStr">
@@ -15466,12 +15346,12 @@
       </c>
       <c r="G256" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
+          <t>GEN_PROCESOSGENERICOS_PKG</t>
         </is>
       </c>
       <c r="H256" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>GEN_DURACIONPROCESO_FUN</t>
         </is>
       </c>
       <c r="I256" s="14" t="inlineStr">
@@ -15480,7 +15360,7 @@
         </is>
       </c>
       <c r="J256" s="15" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" hidden="1" ht="11.25" customHeight="1">
@@ -15506,7 +15386,7 @@
       </c>
       <c r="E257" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F257" s="14" t="inlineStr">
@@ -15516,7 +15396,7 @@
       </c>
       <c r="H257" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="I257" s="14" t="inlineStr">
@@ -15525,7 +15405,7 @@
         </is>
       </c>
       <c r="J257" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" hidden="1" ht="11.25" customHeight="1">
@@ -15551,17 +15431,22 @@
       </c>
       <c r="E258" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F258" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G258" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
         </is>
       </c>
       <c r="H258" s="14" t="inlineStr">
         <is>
-          <t>CRE_CONSULTACATALOGO_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I258" s="14" t="inlineStr">
@@ -15570,7 +15455,7 @@
         </is>
       </c>
       <c r="J258" s="15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" hidden="1" ht="11.25" customHeight="1">
@@ -15596,22 +15481,22 @@
       </c>
       <c r="E259" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAPARAMETROS_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F259" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G259" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETBITPRO</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H259" s="14" t="inlineStr">
+        <is>
+          <t>CRE_VALIDATIPODEBITO_P</t>
         </is>
       </c>
       <c r="I259" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J259" s="15" t="n">
@@ -15641,26 +15526,31 @@
       </c>
       <c r="E260" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAPARAMETROS_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F260" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G260" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>CRE_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H260" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ENVIOMAILS_PRC</t>
         </is>
       </c>
       <c r="I260" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J260" s="15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" hidden="1" ht="11.25" customHeight="1">
@@ -15686,22 +15576,17 @@
       </c>
       <c r="E261" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAPARAMETROS_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F261" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G261" s="14" t="inlineStr">
-        <is>
-          <t>HLCREKPROGEN</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="H261" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_ARCHIVODEBITO_P</t>
         </is>
       </c>
       <c r="I261" s="14" t="inlineStr">
@@ -15710,7 +15595,7 @@
         </is>
       </c>
       <c r="J261" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" hidden="1" ht="11.25" customHeight="1">
@@ -15736,22 +15621,22 @@
       </c>
       <c r="E262" s="14" t="inlineStr">
         <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F262" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G262" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETBITPRO</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H262" s="14" t="inlineStr">
+        <is>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="I262" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J262" s="15" t="n">
@@ -15781,26 +15666,26 @@
       </c>
       <c r="E263" s="14" t="inlineStr">
         <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F263" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G263" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H263" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZADEBITOREC_P</t>
         </is>
       </c>
       <c r="I263" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J263" s="15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" hidden="1" ht="11.25" customHeight="1">
@@ -15826,26 +15711,26 @@
       </c>
       <c r="E264" s="14" t="inlineStr">
         <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F264" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H264" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CONSULTACATALOGO_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G264" s="14" t="inlineStr">
+        <is>
+          <t>HLPROTTIPOPE</t>
         </is>
       </c>
       <c r="I264" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J264" s="15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" hidden="1" ht="11.25" customHeight="1">
@@ -15871,7 +15756,7 @@
       </c>
       <c r="E265" s="14" t="inlineStr">
         <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F265" s="14" t="inlineStr">
@@ -15881,21 +15766,16 @@
       </c>
       <c r="G265" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H265" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I265" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J265" s="15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" hidden="1" ht="11.25" customHeight="1">
@@ -15921,26 +15801,26 @@
       </c>
       <c r="E266" s="14" t="inlineStr">
         <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F266" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H266" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZACATALOGO_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G266" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I266" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J266" s="15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" hidden="1" ht="11.25" customHeight="1">
@@ -15966,7 +15846,7 @@
       </c>
       <c r="E267" s="14" t="inlineStr">
         <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F267" s="14" t="inlineStr">
@@ -15976,21 +15856,16 @@
       </c>
       <c r="G267" s="14" t="inlineStr">
         <is>
-          <t>CRE_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H267" s="14" t="inlineStr">
-        <is>
-          <t>CRE_LEERTIPOERRORDEBITO_PRC</t>
+          <t>KSPCOTPOLCOR</t>
         </is>
       </c>
       <c r="I267" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J267" s="15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" hidden="1" ht="11.25" customHeight="1">
@@ -16016,22 +15891,22 @@
       </c>
       <c r="E268" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F268" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G268" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I268" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J268" s="15" t="n">
@@ -16061,7 +15936,7 @@
       </c>
       <c r="E269" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F269" s="14" t="inlineStr">
@@ -16069,18 +15944,18 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="G269" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CATALOGOPQ_TBL</t>
+      <c r="H269" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZACATALOGO_P</t>
         </is>
       </c>
       <c r="I269" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J269" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" hidden="1" ht="11.25" customHeight="1">
@@ -16106,26 +15981,31 @@
       </c>
       <c r="E270" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F270" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G270" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H270" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I270" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J270" s="15" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" hidden="1" ht="11.25" customHeight="1">
@@ -16151,7 +16031,7 @@
       </c>
       <c r="E271" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F271" s="14" t="inlineStr">
@@ -16161,7 +16041,7 @@
       </c>
       <c r="H271" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTACES_P</t>
+          <t>CRE_CONSULTACATALOGO_P</t>
         </is>
       </c>
       <c r="I271" s="14" t="inlineStr">
@@ -16170,7 +16050,7 @@
         </is>
       </c>
       <c r="J271" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" hidden="1" ht="11.25" customHeight="1">
@@ -16196,17 +16076,22 @@
       </c>
       <c r="E272" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F272" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G272" s="14" t="inlineStr">
+        <is>
+          <t>GEN_PROCESOSGENERICOS_PKG</t>
         </is>
       </c>
       <c r="H272" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAPARAMETROS_P</t>
+          <t>GEN_INSUPDHLPROTBITOPE_PRC</t>
         </is>
       </c>
       <c r="I272" s="14" t="inlineStr">
@@ -16241,7 +16126,7 @@
       </c>
       <c r="E273" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F273" s="14" t="inlineStr">
@@ -16251,7 +16136,7 @@
       </c>
       <c r="H273" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="I273" s="14" t="inlineStr">
@@ -16286,7 +16171,7 @@
       </c>
       <c r="E274" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F274" s="14" t="inlineStr">
@@ -16296,7 +16181,7 @@
       </c>
       <c r="H274" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="I274" s="14" t="inlineStr">
@@ -16331,17 +16216,22 @@
       </c>
       <c r="E275" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F275" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G275" s="14" t="inlineStr">
+        <is>
+          <t>GEN_PROCESOSGENERICOS_PKG</t>
         </is>
       </c>
       <c r="H275" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>GEN_OBT_CODIGOPROC_FUN</t>
         </is>
       </c>
       <c r="I275" s="14" t="inlineStr">
@@ -16376,17 +16266,22 @@
       </c>
       <c r="E276" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F276" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G276" s="14" t="inlineStr">
+        <is>
+          <t>CRE_PROCESOSGENERICOS_PKG</t>
         </is>
       </c>
       <c r="H276" s="14" t="inlineStr">
         <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
+          <t>CRE_CODPROUSRENVMAIL_PRC</t>
         </is>
       </c>
       <c r="I276" s="14" t="inlineStr">
@@ -16421,7 +16316,7 @@
       </c>
       <c r="E277" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>CRE_ACTUALIZAPARAMETROS_P</t>
         </is>
       </c>
       <c r="F277" s="14" t="inlineStr">
@@ -16431,21 +16326,16 @@
       </c>
       <c r="G277" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H277" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I277" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J277" s="15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" hidden="1" ht="11.25" customHeight="1">
@@ -16471,26 +16361,26 @@
       </c>
       <c r="E278" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_ACTUALIZAPARAMETROS_P</t>
         </is>
       </c>
       <c r="F278" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G278" s="14" t="inlineStr">
         <is>
-          <t>AUD_TRAMITES_T</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I278" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES-DBLINK</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J278" s="15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" hidden="1" ht="11.25" customHeight="1">
@@ -16516,26 +16406,31 @@
       </c>
       <c r="E279" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_ACTUALIZAPARAMETROS_P</t>
         </is>
       </c>
       <c r="F279" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G279" s="14" t="inlineStr">
         <is>
-          <t>AUD_VISOR_PARAMETROS_T</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H279" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I279" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES-DBLINK</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J279" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" hidden="1" ht="11.25" customHeight="1">
@@ -16561,21 +16456,26 @@
       </c>
       <c r="E280" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
       <c r="F280" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G280" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I280" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J280" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" hidden="1" ht="11.25" customHeight="1">
@@ -16601,26 +16501,26 @@
       </c>
       <c r="E281" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
       <c r="F281" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G281" s="14" t="inlineStr">
         <is>
-          <t>AUD_SERVICIOS_T</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I281" s="14" t="inlineStr">
         <is>
-          <t>SELECT-DBLINK</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J281" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" hidden="1" ht="11.25" customHeight="1">
@@ -16646,26 +16546,26 @@
       </c>
       <c r="E282" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
       <c r="F282" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
-      <c r="G282" s="14" t="inlineStr">
-        <is>
-          <t>AUD_EXPEDIENTES_T</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H282" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZACATALOGO_P</t>
         </is>
       </c>
       <c r="I282" s="14" t="inlineStr">
         <is>
-          <t>SELECT-DBLINK</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J282" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" hidden="1" ht="11.25" customHeight="1">
@@ -16691,21 +16591,31 @@
       </c>
       <c r="E283" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
       <c r="F283" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G283" s="14" t="inlineStr">
+        <is>
+          <t>CRE_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H283" s="14" t="inlineStr">
+        <is>
+          <t>CRE_LEERTIPOERRORDEBITO_PRC</t>
         </is>
       </c>
       <c r="I283" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J283" s="15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" hidden="1" ht="11.25" customHeight="1">
@@ -16731,21 +16641,31 @@
       </c>
       <c r="E284" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
       <c r="F284" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G284" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H284" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I284" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J284" s="15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" hidden="1" ht="11.25" customHeight="1">
@@ -16771,7 +16691,7 @@
       </c>
       <c r="E285" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
       <c r="F285" s="14" t="inlineStr">
@@ -16779,13 +16699,18 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
+      <c r="H285" s="14" t="inlineStr">
+        <is>
+          <t>CRE_CONSULTACATALOGO_P</t>
+        </is>
+      </c>
       <c r="I285" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J285" s="15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" hidden="1" ht="11.25" customHeight="1">
@@ -16811,22 +16736,22 @@
       </c>
       <c r="E286" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F286" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G286" s="14" t="inlineStr">
         <is>
-          <t>AUD_TRAMITES_T</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I286" s="14" t="inlineStr">
         <is>
-          <t>SELECT-DBLINK</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J286" s="15" t="n">
@@ -16856,26 +16781,21 @@
       </c>
       <c r="E287" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F287" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
-      <c r="G287" s="14" t="inlineStr">
-        <is>
-          <t>AUD_TRAZA_ACCIONES_T</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="I287" s="14" t="inlineStr">
         <is>
-          <t>SELECT-DBLINK</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J287" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" hidden="1" ht="11.25" customHeight="1">
@@ -16901,7 +16821,7 @@
       </c>
       <c r="E288" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F288" s="14" t="inlineStr">
@@ -16909,13 +16829,18 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
+      <c r="G288" s="14" t="inlineStr">
+        <is>
+          <t>CRE_CATALOGOPQ_TBL</t>
+        </is>
+      </c>
       <c r="I288" s="14" t="inlineStr">
         <is>
           <t>SELECT</t>
         </is>
       </c>
       <c r="J288" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" hidden="1" ht="11.25" customHeight="1">
@@ -16941,26 +16866,21 @@
       </c>
       <c r="E289" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F289" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
-      <c r="G289" s="14" t="inlineStr">
-        <is>
-          <t>AUD_VISOR_LOG_USUARIOS_T</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="I289" s="14" t="inlineStr">
         <is>
-          <t>INSERT-DBLINK</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J289" s="15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" hidden="1" ht="11.25" customHeight="1">
@@ -16986,26 +16906,26 @@
       </c>
       <c r="E290" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F290" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G290" s="14" t="inlineStr">
         <is>
-          <t>AUD_SERVICIOS_T</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I290" s="14" t="inlineStr">
         <is>
-          <t>INSERT-DBLINK</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J290" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" hidden="1" ht="11.25" customHeight="1">
@@ -17031,22 +16951,22 @@
       </c>
       <c r="E291" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F291" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
-      <c r="G291" s="14" t="inlineStr">
-        <is>
-          <t>AUD_EXPEDIENTES_T</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H291" s="14" t="inlineStr">
+        <is>
+          <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
       <c r="I291" s="14" t="inlineStr">
         <is>
-          <t>INSERT-DBLINK</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J291" s="15" t="n">
@@ -17076,26 +16996,31 @@
       </c>
       <c r="E292" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F292" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G292" s="14" t="inlineStr">
         <is>
-          <t>AUD_TRAMITES_T</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H292" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I292" s="14" t="inlineStr">
         <is>
-          <t>INSERT-DBLINK</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J292" s="15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" hidden="1" ht="11.25" customHeight="1">
@@ -17121,22 +17046,22 @@
       </c>
       <c r="E293" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F293" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
-      <c r="G293" s="14" t="inlineStr">
-        <is>
-          <t>AUD_TRAZA_ACCIONES_T</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H293" s="14" t="inlineStr">
+        <is>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="I293" s="14" t="inlineStr">
         <is>
-          <t>INSERT-DBLINK</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J293" s="15" t="n">
@@ -17166,26 +17091,26 @@
       </c>
       <c r="E294" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F294" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
-      <c r="G294" s="14" t="inlineStr">
-        <is>
-          <t>AUD_VISOR_LOG_USUARIOS_S</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H294" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZAPARAMETROS_P</t>
         </is>
       </c>
       <c r="I294" s="14" t="inlineStr">
         <is>
-          <t>NEXTVAL-DBLINK</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J294" s="15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" hidden="1" ht="11.25" customHeight="1">
@@ -17211,26 +17136,26 @@
       </c>
       <c r="E295" s="14" t="inlineStr">
         <is>
-          <t>SAL_NOTIFICAR_MAIL_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F295" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
-      <c r="G295" s="14" t="inlineStr">
-        <is>
-          <t>AUD_VISOR_LOG_USUARIOS_T</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H295" s="14" t="inlineStr">
+        <is>
+          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="I295" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES-DBLINK</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J295" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" hidden="1" ht="11.25" customHeight="1">
@@ -17256,26 +17181,26 @@
       </c>
       <c r="E296" s="14" t="inlineStr">
         <is>
-          <t>SAL_NOTIFICAR_MAIL_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F296" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
-      <c r="G296" s="14" t="inlineStr">
-        <is>
-          <t>AUD_VISOR_PARAMETROS_T</t>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="H296" s="14" t="inlineStr">
+        <is>
+          <t>CRE_VALIDAEJECUTACES_P</t>
         </is>
       </c>
       <c r="I296" s="14" t="inlineStr">
         <is>
-          <t>SELECT-DBLINK</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J296" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" hidden="1" ht="11.25" customHeight="1">
@@ -17301,7 +17226,7 @@
       </c>
       <c r="E297" s="14" t="inlineStr">
         <is>
-          <t>SAL_NOTIFICAR_MAIL_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F297" s="14" t="inlineStr">
@@ -17309,13 +17234,18 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
+      <c r="H297" s="14" t="inlineStr">
+        <is>
+          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
+        </is>
+      </c>
       <c r="I297" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J297" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" hidden="1" ht="11.25" customHeight="1">
@@ -17341,22 +17271,17 @@
       </c>
       <c r="E298" s="14" t="inlineStr">
         <is>
-          <t>SAL_NOTIFICAR_MAIL_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
       <c r="F298" s="14" t="inlineStr">
         <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
-      <c r="G298" s="14" t="inlineStr">
-        <is>
-          <t>AUD_VISOR_LOG_USUARIOS_T</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="I298" s="14" t="inlineStr">
         <is>
-          <t>INSERT-DBLINK</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J298" s="15" t="n">
@@ -17386,7 +17311,7 @@
       </c>
       <c r="E299" s="14" t="inlineStr">
         <is>
-          <t>SAL_NOTIFICAR_MAIL_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
       <c r="F299" s="14" t="inlineStr">
@@ -17396,12 +17321,12 @@
       </c>
       <c r="G299" s="14" t="inlineStr">
         <is>
-          <t>AUD_VISOR_LOG_USUARIOS_S</t>
+          <t>AUD_SERVICIOS_T</t>
         </is>
       </c>
       <c r="I299" s="14" t="inlineStr">
         <is>
-          <t>NEXTVAL-DBLINK</t>
+          <t>SELECT-DBLINK</t>
         </is>
       </c>
       <c r="J299" s="15" t="n">
@@ -17431,34 +17356,653 @@
       </c>
       <c r="E300" s="14" t="inlineStr">
         <is>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F300" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="I300" s="14" t="inlineStr">
+        <is>
+          <t>SELECT</t>
+        </is>
+      </c>
+      <c r="J300" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" hidden="1" ht="11.25" customHeight="1">
+      <c r="A301" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B301" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C301" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D301" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E301" s="14" t="inlineStr">
+        <is>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F301" s="14" t="inlineStr">
+        <is>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
+        </is>
+      </c>
+      <c r="G301" s="14" t="inlineStr">
+        <is>
+          <t>AUD_EXPEDIENTES_T</t>
+        </is>
+      </c>
+      <c r="I301" s="14" t="inlineStr">
+        <is>
+          <t>SELECT-DBLINK</t>
+        </is>
+      </c>
+      <c r="J301" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" ht="11.25" customHeight="1">
+      <c r="A302" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B302" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C302" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D302" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E302" s="14" t="inlineStr">
+        <is>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F302" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="I302" s="14" t="inlineStr">
+        <is>
+          <t>SELECT</t>
+        </is>
+      </c>
+      <c r="J302" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" ht="11.25" customHeight="1">
+      <c r="A303" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B303" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C303" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D303" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E303" s="14" t="inlineStr">
+        <is>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F303" s="14" t="inlineStr">
+        <is>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
+        </is>
+      </c>
+      <c r="G303" s="14" t="inlineStr">
+        <is>
+          <t>AUD_TRAZA_ACCIONES_T</t>
+        </is>
+      </c>
+      <c r="I303" s="14" t="inlineStr">
+        <is>
+          <t>SELECT-DBLINK</t>
+        </is>
+      </c>
+      <c r="J303" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" ht="11.25" customHeight="1">
+      <c r="A304" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B304" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C304" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D304" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E304" s="14" t="inlineStr">
+        <is>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F304" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="I304" s="14" t="inlineStr">
+        <is>
+          <t>SELECT</t>
+        </is>
+      </c>
+      <c r="J304" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" ht="11.25" customHeight="1">
+      <c r="A305" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B305" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C305" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D305" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E305" s="14" t="inlineStr">
+        <is>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F305" s="14" t="inlineStr">
+        <is>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
+        </is>
+      </c>
+      <c r="G305" s="14" t="inlineStr">
+        <is>
+          <t>AUD_TRAMITES_T</t>
+        </is>
+      </c>
+      <c r="I305" s="14" t="inlineStr">
+        <is>
+          <t>SELECT-DBLINK</t>
+        </is>
+      </c>
+      <c r="J305" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" ht="11.25" customHeight="1">
+      <c r="A306" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B306" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C306" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D306" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E306" s="14" t="inlineStr">
+        <is>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F306" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="I306" s="14" t="inlineStr">
+        <is>
+          <t>INSERT</t>
+        </is>
+      </c>
+      <c r="J306" s="15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" ht="11.25" customHeight="1">
+      <c r="A307" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B307" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C307" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D307" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E307" s="14" t="inlineStr">
+        <is>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F307" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="I307" s="14" t="inlineStr">
+        <is>
+          <t>INSERT</t>
+        </is>
+      </c>
+      <c r="J307" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" ht="11.25" customHeight="1">
+      <c r="A308" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B308" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C308" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D308" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E308" s="14" t="inlineStr">
+        <is>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F308" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="I308" s="14" t="inlineStr">
+        <is>
+          <t>INSERT</t>
+        </is>
+      </c>
+      <c r="J308" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" ht="11.25" customHeight="1">
+      <c r="A309" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B309" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C309" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D309" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E309" s="14" t="inlineStr">
+        <is>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F309" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="I309" s="14" t="inlineStr">
+        <is>
+          <t>INSERT</t>
+        </is>
+      </c>
+      <c r="J309" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" ht="11.25" customHeight="1">
+      <c r="A310" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B310" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C310" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D310" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E310" s="14" t="inlineStr">
+        <is>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F310" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="I310" s="14" t="inlineStr">
+        <is>
+          <t>INSERT</t>
+        </is>
+      </c>
+      <c r="J310" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" ht="11.25" customHeight="1">
+      <c r="A311" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B311" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C311" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D311" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E311" s="14" t="inlineStr">
+        <is>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F311" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="I311" s="14" t="inlineStr">
+        <is>
+          <t>NEXTVAL</t>
+        </is>
+      </c>
+      <c r="J311" s="15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" ht="11.25" customHeight="1">
+      <c r="A312" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B312" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C312" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D312" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E312" s="14" t="inlineStr">
+        <is>
           <t>SAL_NOTIFICAR_MAIL_P</t>
         </is>
       </c>
-      <c r="F300" s="14" t="inlineStr">
+      <c r="F312" s="14" t="inlineStr">
+        <is>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
+        </is>
+      </c>
+      <c r="G312" s="14" t="inlineStr">
+        <is>
+          <t>AUD_VISOR_PARAMETROS_T</t>
+        </is>
+      </c>
+      <c r="I312" s="14" t="inlineStr">
+        <is>
+          <t>SELECT-DBLINK</t>
+        </is>
+      </c>
+      <c r="J312" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" ht="11.25" customHeight="1">
+      <c r="A313" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B313" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C313" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D313" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E313" s="14" t="inlineStr">
+        <is>
+          <t>SAL_NOTIFICAR_MAIL_P</t>
+        </is>
+      </c>
+      <c r="F313" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="I313" s="14" t="inlineStr">
+        <is>
+          <t>INSERT</t>
+        </is>
+      </c>
+      <c r="J313" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" ht="11.25" customHeight="1">
+      <c r="A314" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B314" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C314" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D314" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E314" s="14" t="inlineStr">
+        <is>
+          <t>SAL_NOTIFICAR_MAIL_P</t>
+        </is>
+      </c>
+      <c r="F314" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="I314" s="14" t="inlineStr">
+        <is>
+          <t>NEXTVAL</t>
+        </is>
+      </c>
+      <c r="J314" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" ht="11.25" customHeight="1">
+      <c r="A315" s="14" t="inlineStr">
+        <is>
+          <t>PACKAGE BODY</t>
+        </is>
+      </c>
+      <c r="B315" s="14" t="inlineStr">
+        <is>
+          <t>PQ_OWNER</t>
+        </is>
+      </c>
+      <c r="C315" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
+        </is>
+      </c>
+      <c r="D315" s="14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
+      <c r="E315" s="14" t="inlineStr">
+        <is>
+          <t>SAL_NOTIFICAR_MAIL_P</t>
+        </is>
+      </c>
+      <c r="F315" s="14" t="inlineStr">
         <is>
           <t>AUDIMED_OWNER</t>
         </is>
       </c>
-      <c r="G300" s="14" t="inlineStr">
+      <c r="G315" s="14" t="inlineStr">
         <is>
           <t>SENDMAILJPKG</t>
         </is>
       </c>
-      <c r="H300" s="14" t="inlineStr">
+      <c r="H315" s="14" t="inlineStr">
         <is>
           <t>SENDMAIL</t>
         </is>
       </c>
-      <c r="I300" s="14" t="inlineStr">
+      <c r="I315" s="14" t="inlineStr">
         <is>
           <t>EXECUTE</t>
         </is>
       </c>
-      <c r="J300" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" hidden="1"/>
+      <c r="J315" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="N1:N573">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="3">

--- a/util_matrizCRUD2.xlsx
+++ b/util_matrizCRUD2.xlsx
@@ -1904,7 +1904,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla1" displayName="Tabla1" ref="$A$1:$S$315" headerRowCount="1" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla1" displayName="Tabla1" ref="$A$1:$S$298" headerRowCount="1" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="A1:S301">
     <filterColumn colId="4" hiddenButton="0" showButton="1">
       <filters>
@@ -3667,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S315"/>
+  <dimension ref="A1:S298"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E113" sqref="E113"/>
@@ -3939,6 +3939,11 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
+      <c r="G4" s="14" t="inlineStr">
+        <is>
+          <t>CRE_CATALOGOPQ_TBL</t>
+        </is>
+      </c>
       <c r="I4" s="14" t="inlineStr">
         <is>
           <t>SELECT</t>
@@ -3981,7 +3986,7 @@
       </c>
       <c r="G5" s="14" t="inlineStr">
         <is>
-          <t>CRE_CATALOGOPQ_TBL</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I5" s="14" t="inlineStr">
@@ -4016,7 +4021,7 @@
       </c>
       <c r="E6" s="14" t="inlineStr">
         <is>
-          <t>CRE_CONSULTACATALOGO_P</t>
+          <t>CRE_ACTUALIZACATALOGO_P</t>
         </is>
       </c>
       <c r="F6" s="14" t="inlineStr">
@@ -4024,13 +4029,18 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
+      <c r="G6" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
+        </is>
+      </c>
       <c r="I6" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J6" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" hidden="1" ht="11.25" customHeight="1">
@@ -4056,7 +4066,7 @@
       </c>
       <c r="E7" s="14" t="inlineStr">
         <is>
-          <t>CRE_CONSULTACATALOGO_P</t>
+          <t>CRE_ACTUALIZACATALOGO_P</t>
         </is>
       </c>
       <c r="F7" s="14" t="inlineStr">
@@ -4071,7 +4081,7 @@
       </c>
       <c r="I7" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J7" s="15" t="n">
@@ -4101,26 +4111,26 @@
       </c>
       <c r="E8" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACATALOGO_P</t>
+          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
         </is>
       </c>
       <c r="F8" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G8" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I8" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J8" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" hidden="1" ht="11.25" customHeight="1">
@@ -4146,7 +4156,7 @@
       </c>
       <c r="E9" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACATALOGO_P</t>
+          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
         </is>
       </c>
       <c r="F9" s="14" t="inlineStr">
@@ -4156,7 +4166,7 @@
       </c>
       <c r="G9" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I9" s="14" t="inlineStr">
@@ -4194,19 +4204,19 @@
           <t>CRE_ACTUALIZADEBIOSSAC_P</t>
         </is>
       </c>
-      <c r="F10" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
       <c r="G10" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H10" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I10" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J10" s="15" t="n">
@@ -4236,7 +4246,7 @@
       </c>
       <c r="E11" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
+          <t>CRE_EXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="F11" s="14" t="inlineStr">
@@ -4251,11 +4261,11 @@
       </c>
       <c r="I11" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J11" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" hidden="1" ht="11.25" customHeight="1">
@@ -4281,7 +4291,7 @@
       </c>
       <c r="E12" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
+          <t>CRE_EXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="F12" s="14" t="inlineStr">
@@ -4291,21 +4301,16 @@
       </c>
       <c r="G12" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H12" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I12" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J12" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" hidden="1" ht="11.25" customHeight="1">
@@ -4341,7 +4346,7 @@
       </c>
       <c r="G13" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I13" s="14" t="inlineStr">
@@ -4350,7 +4355,7 @@
         </is>
       </c>
       <c r="J13" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" hidden="1" ht="11.25" customHeight="1">
@@ -4386,12 +4391,12 @@
       </c>
       <c r="G14" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>KSPCOTREGCIV</t>
         </is>
       </c>
       <c r="I14" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J14" s="15" t="n">
@@ -4426,21 +4431,21 @@
       </c>
       <c r="F15" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G15" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I15" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J15" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" hidden="1" ht="11.25" customHeight="1">
@@ -4471,12 +4476,12 @@
       </c>
       <c r="F16" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G16" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTREGCIV</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I16" s="14" t="inlineStr">
@@ -4485,7 +4490,7 @@
         </is>
       </c>
       <c r="J16" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" hidden="1" ht="11.25" customHeight="1">
@@ -4516,7 +4521,12 @@
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G17" s="14" t="inlineStr">
+        <is>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I17" s="14" t="inlineStr">
@@ -4525,7 +4535,7 @@
         </is>
       </c>
       <c r="J17" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" hidden="1" ht="11.25" customHeight="1">
@@ -4554,14 +4564,15 @@
           <t>CRE_EXCLUSIONESDEB_P</t>
         </is>
       </c>
-      <c r="F18" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+      <c r="G18" s="14" t="inlineStr"/>
+      <c r="H18" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
         </is>
       </c>
       <c r="I18" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J18" s="15" t="n">
@@ -4594,23 +4605,23 @@
           <t>CRE_EXCLUSIONESDEB_P</t>
         </is>
       </c>
-      <c r="F19" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
       <c r="G19" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H19" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I19" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J19" s="15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" hidden="1" ht="11.25" customHeight="1">
@@ -4636,26 +4647,26 @@
       </c>
       <c r="E20" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESDEB_P</t>
+          <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F20" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G20" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I20" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J20" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" hidden="1" ht="11.25" customHeight="1">
@@ -4681,26 +4692,26 @@
       </c>
       <c r="E21" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESDEB_P</t>
+          <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F21" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G21" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I21" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J21" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" hidden="1" ht="11.25" customHeight="1">
@@ -4726,22 +4737,22 @@
       </c>
       <c r="E22" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESDEB_P</t>
+          <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F22" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H22" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
+          <t>FRO</t>
+        </is>
+      </c>
+      <c r="G22" s="14" t="inlineStr">
+        <is>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I22" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J22" s="15" t="n">
@@ -4771,7 +4782,7 @@
       </c>
       <c r="E23" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESDEB_P</t>
+          <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F23" s="14" t="inlineStr">
@@ -4781,21 +4792,16 @@
       </c>
       <c r="G23" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H23" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I23" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J23" s="15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" hidden="1" ht="11.25" customHeight="1">
@@ -4831,7 +4837,7 @@
       </c>
       <c r="G24" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I24" s="14" t="inlineStr">
@@ -4921,16 +4927,16 @@
       </c>
       <c r="G26" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I26" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J26" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" hidden="1" ht="11.25" customHeight="1">
@@ -4961,21 +4967,21 @@
       </c>
       <c r="F27" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G27" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I27" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J27" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" hidden="1" ht="11.25" customHeight="1">
@@ -5006,21 +5012,21 @@
       </c>
       <c r="F28" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G28" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I28" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J28" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" hidden="1" ht="11.25" customHeight="1">
@@ -5051,17 +5057,17 @@
       </c>
       <c r="F29" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G29" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I29" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J29" s="15" t="n">
@@ -5101,7 +5107,7 @@
       </c>
       <c r="G30" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTREGCIV</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I30" s="14" t="inlineStr">
@@ -5110,7 +5116,7 @@
         </is>
       </c>
       <c r="J30" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" hidden="1" ht="11.25" customHeight="1">
@@ -5141,7 +5147,12 @@
       </c>
       <c r="F31" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G31" s="14" t="inlineStr">
+        <is>
+          <t>KSAFITCESANTIAS</t>
         </is>
       </c>
       <c r="I31" s="14" t="inlineStr">
@@ -5186,7 +5197,7 @@
       </c>
       <c r="G32" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>KSPCOTREGCIV</t>
         </is>
       </c>
       <c r="I32" s="14" t="inlineStr">
@@ -5224,19 +5235,15 @@
           <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
-      <c r="F33" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G33" s="14" t="inlineStr">
-        <is>
-          <t>KSAFITCESANTIAS</t>
+      <c r="G33" s="14" t="inlineStr"/>
+      <c r="H33" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
         </is>
       </c>
       <c r="I33" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J33" s="15" t="n">
@@ -5269,23 +5276,23 @@
           <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
-      <c r="F34" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
       <c r="G34" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H34" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I34" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J34" s="15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" hidden="1" ht="11.25" customHeight="1">
@@ -5311,7 +5318,7 @@
       </c>
       <c r="E35" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESCES_P</t>
+          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F35" s="14" t="inlineStr">
@@ -5321,12 +5328,12 @@
       </c>
       <c r="G35" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I35" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J35" s="15" t="n">
@@ -5356,7 +5363,7 @@
       </c>
       <c r="E36" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESCES_P</t>
+          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="F36" s="14" t="inlineStr">
@@ -5366,16 +5373,16 @@
       </c>
       <c r="G36" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I36" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J36" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" hidden="1" ht="11.25" customHeight="1">
@@ -5401,21 +5408,26 @@
       </c>
       <c r="E37" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESCES_P</t>
-        </is>
-      </c>
-      <c r="F37" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
+        </is>
+      </c>
+      <c r="G37" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H37" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I37" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J37" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" hidden="1" ht="11.25" customHeight="1">
@@ -5441,22 +5453,18 @@
       </c>
       <c r="E38" s="14" t="inlineStr">
         <is>
+          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
+        </is>
+      </c>
+      <c r="G38" s="14" t="inlineStr"/>
+      <c r="H38" s="14" t="inlineStr">
+        <is>
           <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
-      <c r="F38" s="14" t="inlineStr">
-        <is>
-          <t>FRO</t>
-        </is>
-      </c>
-      <c r="G38" s="14" t="inlineStr">
-        <is>
-          <t>APORTES_PFR2</t>
-        </is>
-      </c>
       <c r="I38" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J38" s="15" t="n">
@@ -5486,22 +5494,22 @@
       </c>
       <c r="E39" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESCES_P</t>
+          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="F39" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H39" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G39" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I39" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J39" s="15" t="n">
@@ -5531,31 +5539,26 @@
       </c>
       <c r="E40" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESCES_P</t>
+          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="F40" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G40" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H40" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I40" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J40" s="15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" hidden="1" ht="11.25" customHeight="1">
@@ -5581,22 +5584,18 @@
       </c>
       <c r="E41" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
-        </is>
-      </c>
-      <c r="F41" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G41" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
+        </is>
+      </c>
+      <c r="G41" s="14" t="inlineStr"/>
+      <c r="H41" s="14" t="inlineStr">
+        <is>
+          <t>CRE_EXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="I41" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J41" s="15" t="n">
@@ -5626,26 +5625,26 @@
       </c>
       <c r="E42" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
-        </is>
-      </c>
-      <c r="F42" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="G42" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H42" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I42" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J42" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" hidden="1" ht="11.25" customHeight="1">
@@ -5671,31 +5670,26 @@
       </c>
       <c r="E43" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
+          <t>CRE_ARCHIVOCESANTIA_P</t>
         </is>
       </c>
       <c r="F43" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G43" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H43" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>CES_BITCUENTAINDIVIDUAL_TBL</t>
         </is>
       </c>
       <c r="I43" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J43" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" hidden="1" ht="11.25" customHeight="1">
@@ -5721,22 +5715,22 @@
       </c>
       <c r="E44" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
+          <t>CRE_ARCHIVOCESANTIA_P</t>
         </is>
       </c>
       <c r="F44" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H44" s="14" t="inlineStr">
-        <is>
-          <t>CRE_EXCLUSIONESCES_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G44" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I44" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J44" s="15" t="n">
@@ -5766,22 +5760,22 @@
       </c>
       <c r="E45" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
+          <t>CRE_ARCHIVOCESANTIA_P</t>
         </is>
       </c>
       <c r="F45" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G45" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CES_BITCUENTAINDIVIDUAL_TBL</t>
         </is>
       </c>
       <c r="I45" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J45" s="15" t="n">
@@ -5811,7 +5805,7 @@
       </c>
       <c r="E46" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
+          <t>CRE_ARCHIVOCESANTIA_P</t>
         </is>
       </c>
       <c r="F46" s="14" t="inlineStr">
@@ -5821,12 +5815,12 @@
       </c>
       <c r="G46" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I46" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J46" s="15" t="n">
@@ -5856,17 +5850,17 @@
       </c>
       <c r="E47" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
-        </is>
-      </c>
-      <c r="F47" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_ARCHIVOCESANTIA_P</t>
+        </is>
+      </c>
+      <c r="G47" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
         </is>
       </c>
       <c r="H47" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESDEB_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I47" s="14" t="inlineStr">
@@ -5875,7 +5869,7 @@
         </is>
       </c>
       <c r="J47" s="15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" hidden="1" ht="11.25" customHeight="1">
@@ -5901,7 +5895,7 @@
       </c>
       <c r="E48" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
+          <t>CRE_GENERAACTUALIZA_P</t>
         </is>
       </c>
       <c r="F48" s="14" t="inlineStr">
@@ -5911,21 +5905,16 @@
       </c>
       <c r="G48" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H48" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I48" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J48" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" hidden="1" ht="11.25" customHeight="1">
@@ -5951,22 +5940,22 @@
       </c>
       <c r="E49" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVOCESANTIA_P</t>
+          <t>CRE_GENERAACTUALIZA_P</t>
         </is>
       </c>
       <c r="F49" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G49" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I49" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>INSERT</t>
         </is>
       </c>
       <c r="J49" s="15" t="n">
@@ -5996,7 +5985,7 @@
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVOCESANTIA_P</t>
+          <t>CRE_GENERAACTUALIZA_P</t>
         </is>
       </c>
       <c r="F50" s="14" t="inlineStr">
@@ -6006,12 +5995,12 @@
       </c>
       <c r="G50" s="14" t="inlineStr">
         <is>
-          <t>CES_BITCUENTAINDIVIDUAL_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I50" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J50" s="15" t="n">
@@ -6041,22 +6030,22 @@
       </c>
       <c r="E51" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVOCESANTIA_P</t>
-        </is>
-      </c>
-      <c r="F51" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_GENERAACTUALIZA_P</t>
         </is>
       </c>
       <c r="G51" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H51" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I51" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J51" s="15" t="n">
@@ -6086,7 +6075,7 @@
       </c>
       <c r="E52" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVOCESANTIA_P</t>
+          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
       <c r="F52" s="14" t="inlineStr">
@@ -6096,12 +6085,12 @@
       </c>
       <c r="G52" s="14" t="inlineStr">
         <is>
-          <t>CES_BITCUENTAINDIVIDUAL_TBL</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I52" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J52" s="15" t="n">
@@ -6131,7 +6120,7 @@
       </c>
       <c r="E53" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVOCESANTIA_P</t>
+          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
       <c r="F53" s="14" t="inlineStr">
@@ -6141,21 +6130,16 @@
       </c>
       <c r="G53" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H53" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I53" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J53" s="15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" hidden="1" ht="11.25" customHeight="1">
@@ -6181,26 +6165,26 @@
       </c>
       <c r="E54" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERAACTUALIZA_P</t>
+          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
       <c r="F54" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G54" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I54" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J54" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" hidden="1" ht="11.25" customHeight="1">
@@ -6226,22 +6210,18 @@
       </c>
       <c r="E55" s="14" t="inlineStr">
         <is>
+          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
+        </is>
+      </c>
+      <c r="G55" s="14" t="inlineStr"/>
+      <c r="H55" s="14" t="inlineStr">
+        <is>
           <t>CRE_GENERAACTUALIZA_P</t>
         </is>
       </c>
-      <c r="F55" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="G55" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
-        </is>
-      </c>
       <c r="I55" s="14" t="inlineStr">
         <is>
-          <t>INSERT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J55" s="15" t="n">
@@ -6271,26 +6251,26 @@
       </c>
       <c r="E56" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERAACTUALIZA_P</t>
-        </is>
-      </c>
-      <c r="F56" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
       <c r="G56" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H56" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I56" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J56" s="15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" hidden="1" ht="11.25" customHeight="1">
@@ -6316,22 +6296,17 @@
       </c>
       <c r="E57" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERAACTUALIZA_P</t>
-        </is>
-      </c>
-      <c r="F57" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
+          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
       <c r="G57" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
+          <t>CRE_PROCESOSDEBAUTOMATICO_PKG</t>
         </is>
       </c>
       <c r="H57" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_ACTUALIZARCESANTIAS_PRC</t>
         </is>
       </c>
       <c r="I57" s="14" t="inlineStr">
@@ -6366,17 +6341,17 @@
       </c>
       <c r="E58" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
+          <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
       <c r="F58" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G58" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I58" s="14" t="inlineStr">
@@ -6411,26 +6386,26 @@
       </c>
       <c r="E59" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
+          <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
       <c r="F59" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G59" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I59" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J59" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" hidden="1" ht="11.25" customHeight="1">
@@ -6456,7 +6431,7 @@
       </c>
       <c r="E60" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
+          <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
       <c r="F60" s="14" t="inlineStr">
@@ -6466,16 +6441,16 @@
       </c>
       <c r="G60" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I60" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>DELETE</t>
         </is>
       </c>
       <c r="J60" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" hidden="1" ht="11.25" customHeight="1">
@@ -6501,22 +6476,13 @@
       </c>
       <c r="E61" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
-        </is>
-      </c>
-      <c r="F61" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="G61" s="14" t="inlineStr">
-        <is>
-          <t>CRE_PROCESOSDEBAUTOMATICO_PKG</t>
-        </is>
-      </c>
+          <t>CRE_EJECUTAACTUALIZACION_P</t>
+        </is>
+      </c>
+      <c r="G61" s="14" t="inlineStr"/>
       <c r="H61" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZARCESANTIAS_PRC</t>
+          <t>CRE_ARCHIVOCESANTIA_P</t>
         </is>
       </c>
       <c r="I61" s="14" t="inlineStr">
@@ -6551,31 +6517,22 @@
       </c>
       <c r="E62" s="14" t="inlineStr">
         <is>
+          <t>CRE_EJECUTAACTUALIZACION_P</t>
+        </is>
+      </c>
+      <c r="G62" s="14" t="inlineStr"/>
+      <c r="H62" s="14" t="inlineStr">
+        <is>
           <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
-      <c r="F62" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G62" s="14" t="inlineStr">
-        <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H62" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
-        </is>
-      </c>
       <c r="I62" s="14" t="inlineStr">
         <is>
           <t>EXECUTE</t>
         </is>
       </c>
       <c r="J62" s="15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" hidden="1" ht="11.25" customHeight="1">
@@ -6601,17 +6558,17 @@
       </c>
       <c r="E63" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
-        </is>
-      </c>
-      <c r="F63" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_EJECUTAACTUALIZACION_P</t>
+        </is>
+      </c>
+      <c r="G63" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
         </is>
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERAACTUALIZA_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I63" s="14" t="inlineStr">
@@ -6620,7 +6577,7 @@
         </is>
       </c>
       <c r="J63" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" hidden="1" ht="11.25" customHeight="1">
@@ -6649,19 +6606,19 @@
           <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
-      <c r="F64" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
       <c r="G64" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H64" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ENVIOMAILS_PRC</t>
         </is>
       </c>
       <c r="I64" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J64" s="15" t="n">
@@ -6694,23 +6651,23 @@
           <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
-      <c r="F65" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
       <c r="G65" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>GEN_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H65" s="14" t="inlineStr">
+        <is>
+          <t>GEN_DURACIONPROCESO_FUN</t>
         </is>
       </c>
       <c r="I65" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J65" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" hidden="1" ht="11.25" customHeight="1">
@@ -6736,26 +6693,26 @@
       </c>
       <c r="E66" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTAACTUALIZACION_P</t>
+          <t>CRE_VALIDAEJECUTACES_P</t>
         </is>
       </c>
       <c r="F66" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G66" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I66" s="14" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J66" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" hidden="1" ht="11.25" customHeight="1">
@@ -6781,7 +6738,7 @@
       </c>
       <c r="E67" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTAACTUALIZACION_P</t>
+          <t>CRE_VALIDAEJECUTACES_P</t>
         </is>
       </c>
       <c r="F67" s="14" t="inlineStr">
@@ -6791,17 +6748,12 @@
       </c>
       <c r="G67" s="14" t="inlineStr">
         <is>
-          <t>GEN_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H67" s="14" t="inlineStr">
-        <is>
-          <t>GEN_DURACIONPROCESO_FUN</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I67" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J67" s="15" t="n">
@@ -6831,31 +6783,26 @@
       </c>
       <c r="E68" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTAACTUALIZACION_P</t>
+          <t>CRE_VALIDAEJECUTACES_P</t>
         </is>
       </c>
       <c r="F68" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G68" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H68" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I68" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J68" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" hidden="1" ht="11.25" customHeight="1">
@@ -6881,17 +6828,13 @@
       </c>
       <c r="E69" s="14" t="inlineStr">
         <is>
+          <t>CRE_VALIDAEJECUTACES_P</t>
+        </is>
+      </c>
+      <c r="G69" s="14" t="inlineStr"/>
+      <c r="H69" s="14" t="inlineStr">
+        <is>
           <t>CRE_EJECUTAACTUALIZACION_P</t>
-        </is>
-      </c>
-      <c r="F69" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H69" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ARCHIVOCESANTIA_P</t>
         </is>
       </c>
       <c r="I69" s="14" t="inlineStr">
@@ -6926,22 +6869,13 @@
       </c>
       <c r="E70" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTAACTUALIZACION_P</t>
-        </is>
-      </c>
-      <c r="F70" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G70" s="14" t="inlineStr">
-        <is>
-          <t>CRE_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
+          <t>CRE_VALIDAEJECUTACES_P</t>
+        </is>
+      </c>
+      <c r="G70" s="14" t="inlineStr"/>
       <c r="H70" s="14" t="inlineStr">
         <is>
-          <t>CRE_ENVIOMAILS_PRC</t>
+          <t>CRE_CONSULTACATALOGO_P</t>
         </is>
       </c>
       <c r="I70" s="14" t="inlineStr">
@@ -6976,17 +6910,17 @@
       </c>
       <c r="E71" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTAACTUALIZACION_P</t>
-        </is>
-      </c>
-      <c r="F71" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_VALIDAEJECUTACES_P</t>
+        </is>
+      </c>
+      <c r="G71" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
         </is>
       </c>
       <c r="H71" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I71" s="14" t="inlineStr">
@@ -6995,7 +6929,7 @@
         </is>
       </c>
       <c r="J71" s="15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" hidden="1" ht="11.25" customHeight="1">
@@ -7021,7 +6955,7 @@
       </c>
       <c r="E72" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTACES_P</t>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="F72" s="14" t="inlineStr">
@@ -7031,16 +6965,16 @@
       </c>
       <c r="G72" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>KSAFITCESANTIAS</t>
         </is>
       </c>
       <c r="I72" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J72" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" hidden="1" ht="11.25" customHeight="1">
@@ -7066,7 +7000,7 @@
       </c>
       <c r="E73" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTACES_P</t>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="F73" s="14" t="inlineStr">
@@ -7076,7 +7010,7 @@
       </c>
       <c r="G73" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I73" s="14" t="inlineStr">
@@ -7085,7 +7019,7 @@
         </is>
       </c>
       <c r="J73" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" hidden="1" ht="11.25" customHeight="1">
@@ -7111,22 +7045,22 @@
       </c>
       <c r="E74" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTACES_P</t>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="F74" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G74" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I74" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J74" s="15" t="n">
@@ -7156,22 +7090,22 @@
       </c>
       <c r="E75" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTACES_P</t>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="F75" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H75" s="14" t="inlineStr">
-        <is>
-          <t>CRE_EJECUTAACTUALIZACION_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G75" s="14" t="inlineStr">
+        <is>
+          <t>KSAFITCESANTIAS</t>
         </is>
       </c>
       <c r="I75" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J75" s="15" t="n">
@@ -7201,7 +7135,7 @@
       </c>
       <c r="E76" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTACES_P</t>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="F76" s="14" t="inlineStr">
@@ -7211,21 +7145,16 @@
       </c>
       <c r="G76" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H76" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I76" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J76" s="15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" hidden="1" ht="11.25" customHeight="1">
@@ -7251,22 +7180,22 @@
       </c>
       <c r="E77" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTACES_P</t>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="F77" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H77" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CONSULTACATALOGO_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G77" s="14" t="inlineStr">
+        <is>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I77" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J77" s="15" t="n">
@@ -7311,11 +7240,11 @@
       </c>
       <c r="I78" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J78" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" hidden="1" ht="11.25" customHeight="1">
@@ -7351,12 +7280,12 @@
       </c>
       <c r="G79" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>KSAFITCESANTIAS</t>
         </is>
       </c>
       <c r="I79" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>INSERT</t>
         </is>
       </c>
       <c r="J79" s="15" t="n">
@@ -7401,7 +7330,7 @@
       </c>
       <c r="I80" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J80" s="15" t="n">
@@ -7431,7 +7360,7 @@
       </c>
       <c r="E81" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="F81" s="14" t="inlineStr">
@@ -7441,16 +7370,16 @@
       </c>
       <c r="G81" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>HLPROTBITOPE</t>
         </is>
       </c>
       <c r="I81" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J81" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" hidden="1" ht="11.25" customHeight="1">
@@ -7476,7 +7405,7 @@
       </c>
       <c r="E82" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="F82" s="14" t="inlineStr">
@@ -7486,12 +7415,12 @@
       </c>
       <c r="G82" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>HLPROTTIPOPE</t>
         </is>
       </c>
       <c r="I82" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J82" s="15" t="n">
@@ -7521,7 +7450,7 @@
       </c>
       <c r="E83" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="F83" s="14" t="inlineStr">
@@ -7531,12 +7460,12 @@
       </c>
       <c r="G83" s="14" t="inlineStr">
         <is>
-          <t>KSAFITCESANTIAS</t>
+          <t>HLPROTBITOPE</t>
         </is>
       </c>
       <c r="I83" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J83" s="15" t="n">
@@ -7566,7 +7495,7 @@
       </c>
       <c r="E84" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="F84" s="14" t="inlineStr">
@@ -7576,7 +7505,7 @@
       </c>
       <c r="G84" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>HLPROTBITOPE</t>
         </is>
       </c>
       <c r="I84" s="14" t="inlineStr">
@@ -7611,7 +7540,7 @@
       </c>
       <c r="E85" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="F85" s="14" t="inlineStr">
@@ -7621,7 +7550,7 @@
       </c>
       <c r="G85" s="14" t="inlineStr">
         <is>
-          <t>KSAFITCESANTIAS</t>
+          <t>HLPROTBITOPE</t>
         </is>
       </c>
       <c r="I85" s="14" t="inlineStr">
@@ -7630,7 +7559,7 @@
         </is>
       </c>
       <c r="J85" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" hidden="1" ht="11.25" customHeight="1">
@@ -7656,7 +7585,7 @@
       </c>
       <c r="E86" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="F86" s="14" t="inlineStr">
@@ -7666,7 +7595,7 @@
       </c>
       <c r="G86" s="14" t="inlineStr">
         <is>
-          <t>KSAFITCESANTIAS</t>
+          <t>HLPROTBITOPE</t>
         </is>
       </c>
       <c r="I86" s="14" t="inlineStr">
@@ -7711,16 +7640,16 @@
       </c>
       <c r="G87" s="14" t="inlineStr">
         <is>
-          <t>HLPROTBITOPE</t>
+          <t>HLPROSBITOPE</t>
         </is>
       </c>
       <c r="I87" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>NEXTVAL</t>
         </is>
       </c>
       <c r="J87" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" hidden="1" ht="11.25" customHeight="1">
@@ -7746,7 +7675,7 @@
       </c>
       <c r="E88" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="F88" s="14" t="inlineStr">
@@ -7756,7 +7685,7 @@
       </c>
       <c r="G88" s="14" t="inlineStr">
         <is>
-          <t>HLPROTTIPOPE</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I88" s="14" t="inlineStr">
@@ -7765,7 +7694,7 @@
         </is>
       </c>
       <c r="J88" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" hidden="1" ht="11.25" customHeight="1">
@@ -7791,22 +7720,22 @@
       </c>
       <c r="E89" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="F89" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G89" s="14" t="inlineStr">
         <is>
-          <t>HLPROTBITOPE</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I89" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J89" s="15" t="n">
@@ -7836,26 +7765,26 @@
       </c>
       <c r="E90" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="F90" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G90" s="14" t="inlineStr">
         <is>
-          <t>HLPROTBITOPE</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I90" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J90" s="15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" hidden="1" ht="11.25" customHeight="1">
@@ -7881,26 +7810,26 @@
       </c>
       <c r="E91" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="F91" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G91" s="14" t="inlineStr">
         <is>
-          <t>HLPROTBITOPE</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I91" s="14" t="inlineStr">
         <is>
-          <t>INSERT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J91" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" hidden="1" ht="11.25" customHeight="1">
@@ -7926,26 +7855,26 @@
       </c>
       <c r="E92" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="F92" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G92" s="14" t="inlineStr">
         <is>
-          <t>HLPROTBITOPE</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I92" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J92" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" hidden="1" ht="11.25" customHeight="1">
@@ -7971,22 +7900,22 @@
       </c>
       <c r="E93" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="F93" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G93" s="14" t="inlineStr">
         <is>
-          <t>HLPROSBITOPE</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I93" s="14" t="inlineStr">
         <is>
-          <t>NEXTVAL</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J93" s="15" t="n">
@@ -8026,12 +7955,12 @@
       </c>
       <c r="G94" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>KSPCOTPOLCOR</t>
         </is>
       </c>
       <c r="I94" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J94" s="15" t="n">
@@ -8071,16 +8000,16 @@
       </c>
       <c r="G95" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>FRSAFITINDINTFONRES</t>
         </is>
       </c>
       <c r="I95" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J95" s="15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" hidden="1" ht="11.25" customHeight="1">
@@ -8111,17 +8040,17 @@
       </c>
       <c r="F96" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G96" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>PCO_DETALLE_CATALOGOS_TBL</t>
         </is>
       </c>
       <c r="I96" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J96" s="15" t="n">
@@ -8161,12 +8090,12 @@
       </c>
       <c r="G97" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I97" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J97" s="15" t="n">
@@ -8201,21 +8130,21 @@
       </c>
       <c r="F98" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G98" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTPOLCOR</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I98" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J98" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" hidden="1" ht="11.25" customHeight="1">
@@ -8244,23 +8173,23 @@
           <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
-      <c r="F99" s="14" t="inlineStr">
-        <is>
-          <t>FRO</t>
-        </is>
-      </c>
       <c r="G99" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITINDINTFONRES</t>
+          <t>FR_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H99" s="14" t="inlineStr">
+        <is>
+          <t>FR_VALEXISTEINTERESAPORT_FUN</t>
         </is>
       </c>
       <c r="I99" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J99" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" hidden="1" ht="11.25" customHeight="1">
@@ -8289,23 +8218,23 @@
           <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
-      <c r="F100" s="14" t="inlineStr">
-        <is>
-          <t>FRO</t>
-        </is>
-      </c>
       <c r="G100" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>FRSAFIKCARGOSPROCESO</t>
+        </is>
+      </c>
+      <c r="H100" s="14" t="inlineStr">
+        <is>
+          <t>CALCULARINTERESPORT2</t>
         </is>
       </c>
       <c r="I100" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J100" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" hidden="1" ht="11.25" customHeight="1">
@@ -8334,23 +8263,23 @@
           <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
-      <c r="F101" s="14" t="inlineStr">
-        <is>
-          <t>FRO</t>
-        </is>
-      </c>
       <c r="G101" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>FR_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H101" s="14" t="inlineStr">
+        <is>
+          <t>FR_INSREGCRURESCTAIND_PRC</t>
         </is>
       </c>
       <c r="I101" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J101" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" hidden="1" ht="11.25" customHeight="1">
@@ -8379,23 +8308,23 @@
           <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
-      <c r="F102" s="14" t="inlineStr">
-        <is>
-          <t>FRO</t>
-        </is>
-      </c>
       <c r="G102" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>KSPCOKPOLCOR</t>
+        </is>
+      </c>
+      <c r="H102" s="14" t="inlineStr">
+        <is>
+          <t>OBTVALNUMPOLCOR</t>
         </is>
       </c>
       <c r="I102" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J102" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" hidden="1" ht="11.25" customHeight="1">
@@ -8421,7 +8350,7 @@
       </c>
       <c r="E103" s="14" t="inlineStr">
         <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
+          <t>CRE_ARCHIVODEBITO_P</t>
         </is>
       </c>
       <c r="F103" s="14" t="inlineStr">
@@ -8431,12 +8360,12 @@
       </c>
       <c r="G103" s="14" t="inlineStr">
         <is>
-          <t>PCO_DETALLE_CATALOGOS_TBL</t>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I103" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J103" s="15" t="n">
@@ -8466,22 +8395,22 @@
       </c>
       <c r="E104" s="14" t="inlineStr">
         <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
+          <t>CRE_ARCHIVODEBITO_P</t>
         </is>
       </c>
       <c r="F104" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G104" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I104" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J104" s="15" t="n">
@@ -8511,27 +8440,22 @@
       </c>
       <c r="E105" s="14" t="inlineStr">
         <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
+          <t>CRE_ARCHIVODEBITO_P</t>
         </is>
       </c>
       <c r="F105" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G105" s="14" t="inlineStr">
         <is>
-          <t>FR_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H105" s="14" t="inlineStr">
-        <is>
-          <t>FR_VALEXISTEINTERESAPORT_FUN</t>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I105" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J105" s="15" t="n">
@@ -8561,22 +8485,17 @@
       </c>
       <c r="E106" s="14" t="inlineStr">
         <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
-        </is>
-      </c>
-      <c r="F106" s="14" t="inlineStr">
-        <is>
-          <t>FRO</t>
+          <t>CRE_ARCHIVODEBITO_P</t>
         </is>
       </c>
       <c r="G106" s="14" t="inlineStr">
         <is>
-          <t>FRSAFIKCARGOSPROCESO</t>
+          <t>HLCREKPROGEN</t>
         </is>
       </c>
       <c r="H106" s="14" t="inlineStr">
         <is>
-          <t>CALCULARINTERESPORT2</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I106" s="14" t="inlineStr">
@@ -8585,7 +8504,7 @@
         </is>
       </c>
       <c r="J106" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" hidden="1" ht="11.25" customHeight="1">
@@ -8611,7 +8530,7 @@
       </c>
       <c r="E107" s="14" t="inlineStr">
         <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
+          <t>CRE_ACTUALIZAESTADOCRE_P</t>
         </is>
       </c>
       <c r="F107" s="14" t="inlineStr">
@@ -8621,21 +8540,16 @@
       </c>
       <c r="G107" s="14" t="inlineStr">
         <is>
-          <t>KSPCOKPOLCOR</t>
-        </is>
-      </c>
-      <c r="H107" s="14" t="inlineStr">
-        <is>
-          <t>OBTVALNUMPOLCOR</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I107" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J107" s="15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" hidden="1" ht="11.25" customHeight="1">
@@ -8661,31 +8575,26 @@
       </c>
       <c r="E108" s="14" t="inlineStr">
         <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
+          <t>CRE_ACTUALIZAESTADOCRE_P</t>
         </is>
       </c>
       <c r="F108" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G108" s="14" t="inlineStr">
         <is>
-          <t>FR_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H108" s="14" t="inlineStr">
-        <is>
-          <t>FR_INSREGCRURESCTAIND_PRC</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I108" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J108" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" hidden="1" ht="11.25" customHeight="1">
@@ -8711,22 +8620,22 @@
       </c>
       <c r="E109" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVODEBITO_P</t>
-        </is>
-      </c>
-      <c r="F109" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
+          <t>CRE_ACTUALIZAESTADOCRE_P</t>
         </is>
       </c>
       <c r="G109" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>KSCREKPREESTHIS</t>
+        </is>
+      </c>
+      <c r="H109" s="14" t="inlineStr">
+        <is>
+          <t>ACTREGHISESTPRE</t>
         </is>
       </c>
       <c r="I109" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J109" s="15" t="n">
@@ -8756,7 +8665,7 @@
       </c>
       <c r="E110" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVODEBITO_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F110" s="14" t="inlineStr">
@@ -8766,12 +8675,12 @@
       </c>
       <c r="G110" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I110" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J110" s="15" t="n">
@@ -8801,7 +8710,7 @@
       </c>
       <c r="E111" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVODEBITO_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F111" s="14" t="inlineStr">
@@ -8811,16 +8720,16 @@
       </c>
       <c r="G111" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I111" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J111" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" ht="11.25" customHeight="1">
@@ -8846,7 +8755,7 @@
       </c>
       <c r="E112" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVODEBITO_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F112" s="14" t="inlineStr">
@@ -8856,21 +8765,16 @@
       </c>
       <c r="G112" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H112" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I112" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J112" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" ht="11.25" customHeight="1">
@@ -8896,7 +8800,7 @@
       </c>
       <c r="E113" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAESTADOCRE_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F113" s="14" t="inlineStr">
@@ -8906,16 +8810,16 @@
       </c>
       <c r="G113" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I113" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J113" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" ht="11.25" customHeight="1">
@@ -8941,7 +8845,7 @@
       </c>
       <c r="E114" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAESTADOCRE_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F114" s="14" t="inlineStr">
@@ -8951,12 +8855,12 @@
       </c>
       <c r="G114" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>KSCRETPREEST</t>
         </is>
       </c>
       <c r="I114" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J114" s="15" t="n">
@@ -8986,7 +8890,7 @@
       </c>
       <c r="E115" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAESTADOCRE_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="F115" s="14" t="inlineStr">
@@ -8996,21 +8900,16 @@
       </c>
       <c r="G115" s="14" t="inlineStr">
         <is>
-          <t>KSCREKPREESTHIS</t>
-        </is>
-      </c>
-      <c r="H115" s="14" t="inlineStr">
-        <is>
-          <t>ACTREGHISESTPRE</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I115" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J115" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" hidden="1" ht="11.25" customHeight="1">
@@ -9046,12 +8945,12 @@
       </c>
       <c r="G116" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I116" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J116" s="15" t="n">
@@ -9091,16 +8990,16 @@
       </c>
       <c r="G117" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I117" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J117" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" hidden="1" ht="11.25" customHeight="1">
@@ -9136,16 +9035,16 @@
       </c>
       <c r="G118" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I118" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J118" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" hidden="1" ht="11.25" customHeight="1">
@@ -9181,16 +9080,16 @@
       </c>
       <c r="G119" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I119" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J119" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" hidden="1" ht="11.25" customHeight="1">
@@ -9216,21 +9115,26 @@
       </c>
       <c r="E120" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
         </is>
       </c>
       <c r="F120" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G120" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I120" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J120" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" hidden="1" ht="11.25" customHeight="1">
@@ -9256,7 +9160,7 @@
       </c>
       <c r="E121" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
         </is>
       </c>
       <c r="F121" s="14" t="inlineStr">
@@ -9266,12 +9170,12 @@
       </c>
       <c r="G121" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I121" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J121" s="15" t="n">
@@ -9301,21 +9205,26 @@
       </c>
       <c r="E122" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
         </is>
       </c>
       <c r="F122" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G122" s="14" t="inlineStr">
+        <is>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I122" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J122" s="15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" hidden="1" ht="11.25" customHeight="1">
@@ -9341,26 +9250,22 @@
       </c>
       <c r="E123" s="14" t="inlineStr">
         <is>
+          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+        </is>
+      </c>
+      <c r="G123" s="14" t="inlineStr"/>
+      <c r="H123" s="14" t="inlineStr">
+        <is>
           <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
-      <c r="F123" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G123" s="14" t="inlineStr">
-        <is>
-          <t>FRSAFITCRURESCTAIND</t>
-        </is>
-      </c>
       <c r="I123" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J123" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" hidden="1" ht="11.25" customHeight="1">
@@ -9386,7 +9291,7 @@
       </c>
       <c r="E124" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="F124" s="14" t="inlineStr">
@@ -9401,11 +9306,11 @@
       </c>
       <c r="I124" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J124" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" hidden="1" ht="11.25" customHeight="1">
@@ -9431,7 +9336,7 @@
       </c>
       <c r="E125" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="F125" s="14" t="inlineStr">
@@ -9441,16 +9346,16 @@
       </c>
       <c r="G125" s="14" t="inlineStr">
         <is>
-          <t>KSCRETPREEST</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I125" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J125" s="15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" hidden="1" ht="11.25" customHeight="1">
@@ -9476,17 +9381,22 @@
       </c>
       <c r="E126" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="F126" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G126" s="14" t="inlineStr">
+        <is>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I126" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J126" s="15" t="n">
@@ -9516,7 +9426,7 @@
       </c>
       <c r="E127" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="F127" s="14" t="inlineStr">
@@ -9526,16 +9436,16 @@
       </c>
       <c r="G127" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I127" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>INSERT</t>
         </is>
       </c>
       <c r="J127" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" hidden="1" ht="11.25" customHeight="1">
@@ -9561,7 +9471,7 @@
       </c>
       <c r="E128" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="F128" s="14" t="inlineStr">
@@ -9571,16 +9481,16 @@
       </c>
       <c r="G128" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>REC_TRANSACCION_SEQ</t>
         </is>
       </c>
       <c r="I128" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>NEXTVAL</t>
         </is>
       </c>
       <c r="J128" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" hidden="1" ht="11.25" customHeight="1">
@@ -9606,7 +9516,7 @@
       </c>
       <c r="E129" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+          <t>CRE_INSERTABITACORAS_P</t>
         </is>
       </c>
       <c r="F129" s="14" t="inlineStr">
@@ -9616,7 +9526,7 @@
       </c>
       <c r="G129" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I129" s="14" t="inlineStr">
@@ -9625,7 +9535,7 @@
         </is>
       </c>
       <c r="J129" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" hidden="1" ht="11.25" customHeight="1">
@@ -9651,7 +9561,7 @@
       </c>
       <c r="E130" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+          <t>CRE_INSERTABITACORAS_P</t>
         </is>
       </c>
       <c r="F130" s="14" t="inlineStr">
@@ -9661,12 +9571,12 @@
       </c>
       <c r="G130" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I130" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>INSERT</t>
         </is>
       </c>
       <c r="J130" s="15" t="n">
@@ -9696,7 +9606,7 @@
       </c>
       <c r="E131" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+          <t>CRE_ACTUALIZADEBITOREC_P</t>
         </is>
       </c>
       <c r="F131" s="14" t="inlineStr">
@@ -9706,12 +9616,12 @@
       </c>
       <c r="G131" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I131" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J131" s="15" t="n">
@@ -9741,7 +9651,7 @@
       </c>
       <c r="E132" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+          <t>CRE_ACTUALIZADEBITOREC_P</t>
         </is>
       </c>
       <c r="F132" s="14" t="inlineStr">
@@ -9749,18 +9659,18 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="H132" s="14" t="inlineStr">
-        <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+      <c r="G132" s="14" t="inlineStr">
+        <is>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I132" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J132" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" hidden="1" ht="11.25" customHeight="1">
@@ -9786,7 +9696,7 @@
       </c>
       <c r="E133" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>CRE_ACTUALIZADEBITOCAN_P</t>
         </is>
       </c>
       <c r="F133" s="14" t="inlineStr">
@@ -9796,7 +9706,7 @@
       </c>
       <c r="G133" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I133" s="14" t="inlineStr">
@@ -9831,7 +9741,7 @@
       </c>
       <c r="E134" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>CRE_ACTUALIZADEBITOCAN_P</t>
         </is>
       </c>
       <c r="F134" s="14" t="inlineStr">
@@ -9841,16 +9751,16 @@
       </c>
       <c r="G134" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I134" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J134" s="15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" hidden="1" ht="11.25" customHeight="1">
@@ -9876,26 +9786,26 @@
       </c>
       <c r="E135" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>CRE_ACTUALIZADEBITOCAN_P</t>
         </is>
       </c>
       <c r="F135" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G135" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I135" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J135" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" hidden="1" ht="11.25" customHeight="1">
@@ -9921,7 +9831,7 @@
       </c>
       <c r="E136" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>CRE_ACTUALIZADEBITOOBS_P</t>
         </is>
       </c>
       <c r="F136" s="14" t="inlineStr">
@@ -9931,16 +9841,16 @@
       </c>
       <c r="G136" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I136" s="14" t="inlineStr">
         <is>
-          <t>INSERT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J136" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" hidden="1" ht="11.25" customHeight="1">
@@ -9966,22 +9876,22 @@
       </c>
       <c r="E137" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>CRE_ACTUALIZADEBITOOBS_P</t>
         </is>
       </c>
       <c r="F137" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G137" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_SEQ</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I137" s="14" t="inlineStr">
         <is>
-          <t>NEXTVAL</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J137" s="15" t="n">
@@ -10011,7 +9921,7 @@
       </c>
       <c r="E138" s="14" t="inlineStr">
         <is>
-          <t>CRE_INSERTABITACORAS_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F138" s="14" t="inlineStr">
@@ -10021,7 +9931,7 @@
       </c>
       <c r="G138" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I138" s="14" t="inlineStr">
@@ -10056,7 +9966,7 @@
       </c>
       <c r="E139" s="14" t="inlineStr">
         <is>
-          <t>CRE_INSERTABITACORAS_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F139" s="14" t="inlineStr">
@@ -10066,12 +9976,12 @@
       </c>
       <c r="G139" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I139" s="14" t="inlineStr">
         <is>
-          <t>INSERT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J139" s="15" t="n">
@@ -10101,7 +10011,7 @@
       </c>
       <c r="E140" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOREC_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F140" s="14" t="inlineStr">
@@ -10111,16 +10021,16 @@
       </c>
       <c r="G140" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I140" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J140" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" hidden="1" ht="11.25" customHeight="1">
@@ -10146,22 +10056,22 @@
       </c>
       <c r="E141" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOREC_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F141" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G141" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I141" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J141" s="15" t="n">
@@ -10191,7 +10101,7 @@
       </c>
       <c r="E142" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOCAN_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F142" s="14" t="inlineStr">
@@ -10201,16 +10111,16 @@
       </c>
       <c r="G142" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I142" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J142" s="15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" hidden="1" ht="11.25" customHeight="1">
@@ -10236,7 +10146,7 @@
       </c>
       <c r="E143" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOCAN_P</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="F143" s="14" t="inlineStr">
@@ -10246,16 +10156,16 @@
       </c>
       <c r="G143" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>PCO_DETALLE_CATALOGOS_TBL</t>
         </is>
       </c>
       <c r="I143" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J143" s="15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" hidden="1" ht="11.25" customHeight="1">
@@ -10281,12 +10191,12 @@
       </c>
       <c r="E144" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOCAN_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F144" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G144" s="14" t="inlineStr">
@@ -10296,7 +10206,7 @@
       </c>
       <c r="I144" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J144" s="15" t="n">
@@ -10326,7 +10236,7 @@
       </c>
       <c r="E145" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOOBS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F145" s="14" t="inlineStr">
@@ -10336,7 +10246,7 @@
       </c>
       <c r="G145" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I145" s="14" t="inlineStr">
@@ -10345,7 +10255,7 @@
         </is>
       </c>
       <c r="J145" s="15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" hidden="1" ht="11.25" customHeight="1">
@@ -10371,12 +10281,12 @@
       </c>
       <c r="E146" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOOBS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F146" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G146" s="14" t="inlineStr">
@@ -10386,7 +10296,7 @@
       </c>
       <c r="I146" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J146" s="15" t="n">
@@ -10416,7 +10326,7 @@
       </c>
       <c r="E147" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F147" s="14" t="inlineStr">
@@ -10426,16 +10336,16 @@
       </c>
       <c r="G147" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I147" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J147" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" hidden="1" ht="11.25" customHeight="1">
@@ -10461,7 +10371,7 @@
       </c>
       <c r="E148" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F148" s="14" t="inlineStr">
@@ -10476,7 +10386,7 @@
       </c>
       <c r="I148" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J148" s="15" t="n">
@@ -10506,26 +10416,26 @@
       </c>
       <c r="E149" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F149" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G149" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I149" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J149" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" hidden="1" ht="11.25" customHeight="1">
@@ -10551,12 +10461,17 @@
       </c>
       <c r="E150" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F150" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>FRO</t>
+        </is>
+      </c>
+      <c r="G150" s="14" t="inlineStr">
+        <is>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I150" s="14" t="inlineStr">
@@ -10565,7 +10480,7 @@
         </is>
       </c>
       <c r="J150" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" hidden="1" ht="11.25" customHeight="1">
@@ -10591,7 +10506,7 @@
       </c>
       <c r="E151" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="F151" s="14" t="inlineStr">
@@ -10601,7 +10516,7 @@
       </c>
       <c r="G151" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I151" s="14" t="inlineStr">
@@ -10636,17 +10551,22 @@
       </c>
       <c r="E152" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F152" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G152" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETSOLICITUDES</t>
         </is>
       </c>
       <c r="I152" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J152" s="15" t="n">
@@ -10676,7 +10596,7 @@
       </c>
       <c r="E153" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F153" s="14" t="inlineStr">
@@ -10686,16 +10606,16 @@
       </c>
       <c r="G153" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I153" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J153" s="15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" hidden="1" ht="11.25" customHeight="1">
@@ -10721,7 +10641,7 @@
       </c>
       <c r="E154" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F154" s="14" t="inlineStr">
@@ -10731,16 +10651,16 @@
       </c>
       <c r="G154" s="14" t="inlineStr">
         <is>
-          <t>PCO_DETALLE_CATALOGOS_TBL</t>
+          <t>KSPCOTDIVPOL</t>
         </is>
       </c>
       <c r="I154" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J154" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" hidden="1" ht="11.25" customHeight="1">
@@ -10766,21 +10686,26 @@
       </c>
       <c r="E155" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F155" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G155" s="14" t="inlineStr">
+        <is>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I155" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J155" s="15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" hidden="1" ht="11.25" customHeight="1">
@@ -10806,7 +10731,7 @@
       </c>
       <c r="E156" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F156" s="14" t="inlineStr">
@@ -10816,7 +10741,7 @@
       </c>
       <c r="G156" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I156" s="14" t="inlineStr">
@@ -10851,7 +10776,7 @@
       </c>
       <c r="E157" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F157" s="14" t="inlineStr">
@@ -10861,7 +10786,7 @@
       </c>
       <c r="G157" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I157" s="14" t="inlineStr">
@@ -10870,7 +10795,7 @@
         </is>
       </c>
       <c r="J157" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" hidden="1" ht="11.25" customHeight="1">
@@ -10896,7 +10821,7 @@
       </c>
       <c r="E158" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F158" s="14" t="inlineStr">
@@ -10906,7 +10831,7 @@
       </c>
       <c r="G158" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I158" s="14" t="inlineStr">
@@ -10915,7 +10840,7 @@
         </is>
       </c>
       <c r="J158" s="15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" hidden="1" ht="11.25" customHeight="1">
@@ -10941,7 +10866,7 @@
       </c>
       <c r="E159" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="F159" s="14" t="inlineStr">
@@ -10951,7 +10876,7 @@
       </c>
       <c r="G159" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I159" s="14" t="inlineStr">
@@ -10986,22 +10911,18 @@
       </c>
       <c r="E160" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
-        </is>
-      </c>
-      <c r="F160" s="14" t="inlineStr">
-        <is>
-          <t>FRO</t>
-        </is>
-      </c>
-      <c r="G160" s="14" t="inlineStr">
-        <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
+        </is>
+      </c>
+      <c r="G160" s="14" t="inlineStr"/>
+      <c r="H160" s="14" t="inlineStr">
+        <is>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="I160" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J160" s="15" t="n">
@@ -11031,17 +10952,18 @@
       </c>
       <c r="E161" s="14" t="inlineStr">
         <is>
+          <t>CRE_AFECTACUENTAFRS_P</t>
+        </is>
+      </c>
+      <c r="G161" s="14" t="inlineStr"/>
+      <c r="H161" s="14" t="inlineStr">
+        <is>
           <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
-      <c r="F161" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
       <c r="I161" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J161" s="15" t="n">
@@ -11071,21 +10993,26 @@
       </c>
       <c r="E162" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
-        </is>
-      </c>
-      <c r="F162" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
+        </is>
+      </c>
+      <c r="G162" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
+      <c r="H162" s="14" t="inlineStr">
+        <is>
+          <t>CRE_GENAFECTCTAINDDEBAUT_PRC</t>
         </is>
       </c>
       <c r="I162" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J162" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" hidden="1" ht="11.25" customHeight="1">
@@ -11111,26 +11038,22 @@
       </c>
       <c r="E163" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
-        </is>
-      </c>
-      <c r="F163" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G163" s="14" t="inlineStr">
-        <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
+        </is>
+      </c>
+      <c r="G163" s="14" t="inlineStr"/>
+      <c r="H163" s="14" t="inlineStr">
+        <is>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="I163" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J163" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" hidden="1" ht="11.25" customHeight="1">
@@ -11156,22 +11079,18 @@
       </c>
       <c r="E164" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
-        </is>
-      </c>
-      <c r="F164" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G164" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
+        </is>
+      </c>
+      <c r="G164" s="14" t="inlineStr"/>
+      <c r="H164" s="14" t="inlineStr">
+        <is>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="I164" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J164" s="15" t="n">
@@ -11201,22 +11120,18 @@
       </c>
       <c r="E165" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
-        </is>
-      </c>
-      <c r="F165" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="G165" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
+        </is>
+      </c>
+      <c r="G165" s="14" t="inlineStr"/>
+      <c r="H165" s="14" t="inlineStr">
+        <is>
+          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
         </is>
       </c>
       <c r="I165" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J165" s="15" t="n">
@@ -11246,17 +11161,18 @@
       </c>
       <c r="E166" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
-        </is>
-      </c>
-      <c r="F166" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
+        </is>
+      </c>
+      <c r="G166" s="14" t="inlineStr"/>
+      <c r="H166" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZADEBITOCAN_P</t>
         </is>
       </c>
       <c r="I166" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J166" s="15" t="n">
@@ -11286,7 +11202,7 @@
       </c>
       <c r="E167" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F167" s="14" t="inlineStr">
@@ -11296,7 +11212,7 @@
       </c>
       <c r="G167" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I167" s="14" t="inlineStr">
@@ -11305,7 +11221,7 @@
         </is>
       </c>
       <c r="J167" s="15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" hidden="1" ht="11.25" customHeight="1">
@@ -11331,7 +11247,7 @@
       </c>
       <c r="E168" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F168" s="14" t="inlineStr">
@@ -11341,7 +11257,7 @@
       </c>
       <c r="G168" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I168" s="14" t="inlineStr">
@@ -11350,7 +11266,7 @@
         </is>
       </c>
       <c r="J168" s="15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" hidden="1" ht="11.25" customHeight="1">
@@ -11376,7 +11292,7 @@
       </c>
       <c r="E169" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F169" s="14" t="inlineStr">
@@ -11386,16 +11302,16 @@
       </c>
       <c r="G169" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I169" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J169" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" hidden="1" ht="11.25" customHeight="1">
@@ -11421,7 +11337,7 @@
       </c>
       <c r="E170" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F170" s="14" t="inlineStr">
@@ -11431,16 +11347,16 @@
       </c>
       <c r="G170" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>KSCRETDOCJUSDEBQUIMORCES</t>
         </is>
       </c>
       <c r="I170" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J170" s="15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" hidden="1" ht="11.25" customHeight="1">
@@ -11466,7 +11382,7 @@
       </c>
       <c r="E171" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F171" s="14" t="inlineStr">
@@ -11476,12 +11392,12 @@
       </c>
       <c r="G171" s="14" t="inlineStr">
         <is>
-          <t>KSCRETSOLICITUDES</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I171" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J171" s="15" t="n">
@@ -11511,7 +11427,7 @@
       </c>
       <c r="E172" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F172" s="14" t="inlineStr">
@@ -11521,16 +11437,16 @@
       </c>
       <c r="G172" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTDIVPOL</t>
+          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
         </is>
       </c>
       <c r="I172" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J172" s="15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" hidden="1" ht="11.25" customHeight="1">
@@ -11556,7 +11472,7 @@
       </c>
       <c r="E173" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F173" s="14" t="inlineStr">
@@ -11566,7 +11482,7 @@
       </c>
       <c r="G173" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>KSAFITDEBCUECES</t>
         </is>
       </c>
       <c r="I173" s="14" t="inlineStr">
@@ -11601,7 +11517,7 @@
       </c>
       <c r="E174" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F174" s="14" t="inlineStr">
@@ -11611,7 +11527,7 @@
       </c>
       <c r="G174" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I174" s="14" t="inlineStr">
@@ -11646,26 +11562,26 @@
       </c>
       <c r="E175" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F175" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H175" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZADEBITOCAN_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G175" s="14" t="inlineStr">
+        <is>
+          <t>KSCESTSOLDEBQUIRO</t>
         </is>
       </c>
       <c r="I175" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J175" s="15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" hidden="1" ht="11.25" customHeight="1">
@@ -11691,22 +11607,22 @@
       </c>
       <c r="E176" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F176" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H176" s="14" t="inlineStr">
-        <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G176" s="14" t="inlineStr">
+        <is>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I176" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J176" s="15" t="n">
@@ -11736,7 +11652,7 @@
       </c>
       <c r="E177" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F177" s="14" t="inlineStr">
@@ -11744,14 +11660,14 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="H177" s="14" t="inlineStr">
-        <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
+      <c r="G177" s="14" t="inlineStr">
+        <is>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I177" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J177" s="15" t="n">
@@ -11781,22 +11697,22 @@
       </c>
       <c r="E178" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F178" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H178" s="14" t="inlineStr">
-        <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G178" s="14" t="inlineStr">
+        <is>
+          <t>CES_TIPOREGISTROS_TBL</t>
         </is>
       </c>
       <c r="I178" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J178" s="15" t="n">
@@ -11826,7 +11742,7 @@
       </c>
       <c r="E179" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F179" s="14" t="inlineStr">
@@ -11836,21 +11752,16 @@
       </c>
       <c r="G179" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
-      <c r="H179" s="14" t="inlineStr">
-        <is>
-          <t>CRE_GENAFECTCTAINDDEBAUT_PRC</t>
+          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
         </is>
       </c>
       <c r="I179" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J179" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" hidden="1" ht="11.25" customHeight="1">
@@ -11876,22 +11787,22 @@
       </c>
       <c r="E180" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F180" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H180" s="14" t="inlineStr">
-        <is>
-          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G180" s="14" t="inlineStr">
+        <is>
+          <t>KSAFITDEBCUECES</t>
         </is>
       </c>
       <c r="I180" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>INSERT</t>
         </is>
       </c>
       <c r="J180" s="15" t="n">
@@ -11921,22 +11832,22 @@
       </c>
       <c r="E181" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F181" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H181" s="14" t="inlineStr">
-        <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G181" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETDOCJUSDEBQUIMORCES</t>
         </is>
       </c>
       <c r="I181" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>INSERT</t>
         </is>
       </c>
       <c r="J181" s="15" t="n">
@@ -11976,16 +11887,16 @@
       </c>
       <c r="G182" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I182" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J182" s="15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" hidden="1" ht="11.25" customHeight="1">
@@ -12021,16 +11932,16 @@
       </c>
       <c r="G183" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>KSCESTSOLDEBQUIRO</t>
         </is>
       </c>
       <c r="I183" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J183" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" hidden="1" ht="11.25" customHeight="1">
@@ -12066,16 +11977,16 @@
       </c>
       <c r="G184" s="14" t="inlineStr">
         <is>
-          <t>KSCRETDOCJUSDEBQUIMORCES</t>
+          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
         </is>
       </c>
       <c r="I184" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J184" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" hidden="1" ht="11.25" customHeight="1">
@@ -12104,23 +12015,19 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="F185" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G185" s="14" t="inlineStr">
-        <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+      <c r="G185" s="14" t="inlineStr"/>
+      <c r="H185" s="14" t="inlineStr">
+        <is>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="I185" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J185" s="15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" hidden="1" ht="11.25" customHeight="1">
@@ -12149,23 +12056,23 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="F186" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
       <c r="G186" s="14" t="inlineStr">
         <is>
-          <t>KSCESTSOLDEBQUIRO</t>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
+      <c r="H186" s="14" t="inlineStr">
+        <is>
+          <t>CRE_SOLICITUDDEBITOCES_PRC</t>
         </is>
       </c>
       <c r="I186" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J186" s="15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" hidden="1" ht="11.25" customHeight="1">
@@ -12194,23 +12101,19 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="F187" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G187" s="14" t="inlineStr">
-        <is>
-          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
+      <c r="G187" s="14" t="inlineStr"/>
+      <c r="H187" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="I187" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J187" s="15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" hidden="1" ht="11.25" customHeight="1">
@@ -12239,23 +12142,23 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="F188" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
       <c r="G188" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
+      <c r="H188" s="14" t="inlineStr">
+        <is>
+          <t>CRE_MARCAAPORTESCESANTIAS_PRC</t>
         </is>
       </c>
       <c r="I188" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J188" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" hidden="1" ht="11.25" customHeight="1">
@@ -12284,19 +12187,15 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="F189" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G189" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETCREDITOS</t>
+      <c r="G189" s="14" t="inlineStr"/>
+      <c r="H189" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZAESTADOCRE_P</t>
         </is>
       </c>
       <c r="I189" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J189" s="15" t="n">
@@ -12329,23 +12228,19 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="F190" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G190" s="14" t="inlineStr">
-        <is>
-          <t>KSAFITDEBCUECES</t>
+      <c r="G190" s="14" t="inlineStr"/>
+      <c r="H190" s="14" t="inlineStr">
+        <is>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="I190" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J190" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" hidden="1" ht="11.25" customHeight="1">
@@ -12374,19 +12269,19 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="F191" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
       <c r="G191" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>CES_CUENTACESANTIAAPORTES_PKG</t>
+        </is>
+      </c>
+      <c r="H191" s="14" t="inlineStr">
+        <is>
+          <t>PINSCUENTAINDIVIDUALDET</t>
         </is>
       </c>
       <c r="I191" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J191" s="15" t="n">
@@ -12419,23 +12314,23 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="F192" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
       <c r="G192" s="14" t="inlineStr">
         <is>
-          <t>CES_TIPOREGISTROS_TBL</t>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
+      <c r="H192" s="14" t="inlineStr">
+        <is>
+          <t>CRE_AFECTACTAINDIVIDUALCES_PRC</t>
         </is>
       </c>
       <c r="I192" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J192" s="15" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" hidden="1" ht="11.25" customHeight="1">
@@ -12464,23 +12359,19 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="F193" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G193" s="14" t="inlineStr">
-        <is>
-          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
+      <c r="G193" s="14" t="inlineStr"/>
+      <c r="H193" s="14" t="inlineStr">
+        <is>
+          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
         </is>
       </c>
       <c r="I193" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J193" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" hidden="1" ht="11.25" customHeight="1">
@@ -12509,19 +12400,19 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="F194" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
       <c r="G194" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>CES_CUENTACESANTIAAPORTES_PKG</t>
+        </is>
+      </c>
+      <c r="H194" s="14" t="inlineStr">
+        <is>
+          <t>PVALIDARBLOQUEOMP</t>
         </is>
       </c>
       <c r="I194" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J194" s="15" t="n">
@@ -12554,23 +12445,19 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="F195" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G195" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETDOCJUSDEBQUIMORCES</t>
+      <c r="G195" s="14" t="inlineStr"/>
+      <c r="H195" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZADEBITOCAN_P</t>
         </is>
       </c>
       <c r="I195" s="14" t="inlineStr">
         <is>
-          <t>INSERT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J195" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" hidden="1" ht="11.25" customHeight="1">
@@ -12596,7 +12483,7 @@
       </c>
       <c r="E196" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F196" s="14" t="inlineStr">
@@ -12606,12 +12493,12 @@
       </c>
       <c r="G196" s="14" t="inlineStr">
         <is>
-          <t>KSAFITDEBCUECES</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I196" s="14" t="inlineStr">
         <is>
-          <t>INSERT</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J196" s="15" t="n">
@@ -12641,7 +12528,7 @@
       </c>
       <c r="E197" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F197" s="14" t="inlineStr">
@@ -12651,16 +12538,16 @@
       </c>
       <c r="G197" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I197" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J197" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" hidden="1" ht="11.25" customHeight="1">
@@ -12686,7 +12573,7 @@
       </c>
       <c r="E198" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F198" s="14" t="inlineStr">
@@ -12696,16 +12583,16 @@
       </c>
       <c r="G198" s="14" t="inlineStr">
         <is>
-          <t>KSCESTSOLDEBQUIRO</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I198" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J198" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" hidden="1" ht="11.25" customHeight="1">
@@ -12731,7 +12618,7 @@
       </c>
       <c r="E199" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F199" s="14" t="inlineStr">
@@ -12741,12 +12628,12 @@
       </c>
       <c r="G199" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I199" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J199" s="15" t="n">
@@ -12776,26 +12663,26 @@
       </c>
       <c r="E200" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="F200" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H200" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZADEBITOCAN_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G200" s="14" t="inlineStr">
+        <is>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I200" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J200" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" hidden="1" ht="11.25" customHeight="1">
@@ -12821,17 +12708,13 @@
       </c>
       <c r="E201" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
-        </is>
-      </c>
-      <c r="F201" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
+          <t>CRE_GENERADEBITOFCE_P</t>
+        </is>
+      </c>
+      <c r="G201" s="14" t="inlineStr"/>
       <c r="H201" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAESTADOCRE_P</t>
+          <t>CRE_INSERTABITACORAS_P</t>
         </is>
       </c>
       <c r="I201" s="14" t="inlineStr">
@@ -12840,7 +12723,7 @@
         </is>
       </c>
       <c r="J201" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" hidden="1" ht="11.25" customHeight="1">
@@ -12866,26 +12749,22 @@
       </c>
       <c r="E202" s="14" t="inlineStr">
         <is>
+          <t>CRE_GENERADEBITOFCE_P</t>
+        </is>
+      </c>
+      <c r="G202" s="14" t="inlineStr"/>
+      <c r="H202" s="14" t="inlineStr">
+        <is>
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="F202" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H202" s="14" t="inlineStr">
-        <is>
-          <t>CRE_GENERATRANSACCION_P</t>
-        </is>
-      </c>
       <c r="I202" s="14" t="inlineStr">
         <is>
           <t>EXECUTE</t>
         </is>
       </c>
       <c r="J202" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" hidden="1" ht="11.25" customHeight="1">
@@ -12911,17 +12790,13 @@
       </c>
       <c r="E203" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
-        </is>
-      </c>
-      <c r="F203" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
+          <t>CRE_GENERADEBITOFCE_P</t>
+        </is>
+      </c>
+      <c r="G203" s="14" t="inlineStr"/>
       <c r="H203" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_ACTUALIZADEBITOREC_P</t>
         </is>
       </c>
       <c r="I203" s="14" t="inlineStr">
@@ -12956,7 +12831,7 @@
       </c>
       <c r="E204" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F204" s="14" t="inlineStr">
@@ -12966,17 +12841,12 @@
       </c>
       <c r="G204" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTACESANTIAAPORTES_PKG</t>
-        </is>
-      </c>
-      <c r="H204" s="14" t="inlineStr">
-        <is>
-          <t>PINSCUENTAINDIVIDUALDET</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I204" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J204" s="15" t="n">
@@ -13006,22 +12876,22 @@
       </c>
       <c r="E205" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F205" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H205" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G205" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I205" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J205" s="15" t="n">
@@ -13051,7 +12921,7 @@
       </c>
       <c r="E206" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F206" s="14" t="inlineStr">
@@ -13061,21 +12931,16 @@
       </c>
       <c r="G206" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
-      <c r="H206" s="14" t="inlineStr">
-        <is>
-          <t>CRE_AFECTACTAINDIVIDUALCES_PRC</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I206" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J206" s="15" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" hidden="1" ht="11.25" customHeight="1">
@@ -13101,22 +12966,22 @@
       </c>
       <c r="E207" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F207" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H207" s="14" t="inlineStr">
-        <is>
-          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G207" s="14" t="inlineStr">
+        <is>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I207" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J207" s="15" t="n">
@@ -13146,7 +13011,7 @@
       </c>
       <c r="E208" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F208" s="14" t="inlineStr">
@@ -13156,21 +13021,16 @@
       </c>
       <c r="G208" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTACESANTIAAPORTES_PKG</t>
-        </is>
-      </c>
-      <c r="H208" s="14" t="inlineStr">
-        <is>
-          <t>PVALIDARBLOQUEOMP</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I208" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J208" s="15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" hidden="1" ht="11.25" customHeight="1">
@@ -13196,7 +13056,7 @@
       </c>
       <c r="E209" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F209" s="14" t="inlineStr">
@@ -13206,17 +13066,12 @@
       </c>
       <c r="G209" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
-      <c r="H209" s="14" t="inlineStr">
-        <is>
-          <t>CRE_SOLICITUDDEBITOCES_PRC</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I209" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J209" s="15" t="n">
@@ -13246,7 +13101,7 @@
       </c>
       <c r="E210" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F210" s="14" t="inlineStr">
@@ -13256,17 +13111,12 @@
       </c>
       <c r="G210" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
-      <c r="H210" s="14" t="inlineStr">
-        <is>
-          <t>CRE_MARCAAPORTESCESANTIAS_PRC</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I210" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J210" s="15" t="n">
@@ -13296,7 +13146,7 @@
       </c>
       <c r="E211" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F211" s="14" t="inlineStr">
@@ -13306,16 +13156,16 @@
       </c>
       <c r="G211" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I211" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J211" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" hidden="1" ht="11.25" customHeight="1">
@@ -13341,7 +13191,7 @@
       </c>
       <c r="E212" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="F212" s="14" t="inlineStr">
@@ -13351,16 +13201,16 @@
       </c>
       <c r="G212" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I212" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J212" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" hidden="1" ht="11.25" customHeight="1">
@@ -13386,22 +13236,22 @@
       </c>
       <c r="E213" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
-        </is>
-      </c>
-      <c r="F213" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="G213" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>FR_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H213" s="14" t="inlineStr">
+        <is>
+          <t>FR_VALEXISTECARGOSREG_FUN</t>
         </is>
       </c>
       <c r="I213" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J213" s="15" t="n">
@@ -13431,22 +13281,18 @@
       </c>
       <c r="E214" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
-        </is>
-      </c>
-      <c r="F214" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G214" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
+        </is>
+      </c>
+      <c r="G214" s="14" t="inlineStr"/>
+      <c r="H214" s="14" t="inlineStr">
+        <is>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="I214" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J214" s="15" t="n">
@@ -13476,22 +13322,18 @@
       </c>
       <c r="E215" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
-        </is>
-      </c>
-      <c r="F215" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G215" s="14" t="inlineStr">
-        <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
+        </is>
+      </c>
+      <c r="G215" s="14" t="inlineStr"/>
+      <c r="H215" s="14" t="inlineStr">
+        <is>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="I215" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J215" s="15" t="n">
@@ -13521,17 +13363,17 @@
       </c>
       <c r="E216" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
-        </is>
-      </c>
-      <c r="F216" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
+        </is>
+      </c>
+      <c r="G216" s="14" t="inlineStr">
+        <is>
+          <t>FR_PROCESOSGENERICOS_PKG</t>
         </is>
       </c>
       <c r="H216" s="14" t="inlineStr">
         <is>
-          <t>CRE_INSERTABITACORAS_P</t>
+          <t>FR_VALEXISTRAMPENDAFIFALLE_FUN</t>
         </is>
       </c>
       <c r="I216" s="14" t="inlineStr">
@@ -13540,7 +13382,7 @@
         </is>
       </c>
       <c r="J216" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" hidden="1" ht="11.25" customHeight="1">
@@ -13566,17 +13408,17 @@
       </c>
       <c r="E217" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
-        </is>
-      </c>
-      <c r="F217" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
+        </is>
+      </c>
+      <c r="G217" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
         </is>
       </c>
       <c r="H217" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOREC_P</t>
+          <t>CRE_VALIDADATOSDEBAUT_FUN</t>
         </is>
       </c>
       <c r="I217" s="14" t="inlineStr">
@@ -13585,7 +13427,7 @@
         </is>
       </c>
       <c r="J217" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" hidden="1" ht="11.25" customHeight="1">
@@ -13611,17 +13453,13 @@
       </c>
       <c r="E218" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
-        </is>
-      </c>
-      <c r="F218" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
+          <t>CRE_GENERADEBITOFRS_P</t>
+        </is>
+      </c>
+      <c r="G218" s="14" t="inlineStr"/>
       <c r="H218" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_ACTUALIZADEBITOREC_P</t>
         </is>
       </c>
       <c r="I218" s="14" t="inlineStr">
@@ -13659,23 +13497,19 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="F219" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G219" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETCREDITOS</t>
+      <c r="G219" s="14" t="inlineStr"/>
+      <c r="H219" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="I219" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J219" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" hidden="1" ht="11.25" customHeight="1">
@@ -13704,23 +13538,19 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="F220" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G220" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+      <c r="G220" s="14" t="inlineStr"/>
+      <c r="H220" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZADEBITOOBS_P</t>
         </is>
       </c>
       <c r="I220" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J220" s="15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" hidden="1" ht="11.25" customHeight="1">
@@ -13749,19 +13579,15 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="F221" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G221" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+      <c r="G221" s="14" t="inlineStr"/>
+      <c r="H221" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZAESTADOCRE_P</t>
         </is>
       </c>
       <c r="I221" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J221" s="15" t="n">
@@ -13794,19 +13620,19 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="F222" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
       <c r="G222" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>FR_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H222" s="14" t="inlineStr">
+        <is>
+          <t>FR_VALEXISTESOLDEVFR_FUN</t>
         </is>
       </c>
       <c r="I222" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J222" s="15" t="n">
@@ -13839,23 +13665,19 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="F223" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G223" s="14" t="inlineStr">
-        <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+      <c r="G223" s="14" t="inlineStr"/>
+      <c r="H223" s="14" t="inlineStr">
+        <is>
+          <t>CRE_INSERTABITACORAS_P</t>
         </is>
       </c>
       <c r="I223" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J223" s="15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" hidden="1" ht="11.25" customHeight="1">
@@ -13884,23 +13706,23 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="F224" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
       <c r="G224" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
+      <c r="H224" s="14" t="inlineStr">
+        <is>
+          <t>CRE_CREASOLICDEBITOAUTOM_PRC</t>
         </is>
       </c>
       <c r="I224" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J224" s="15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" hidden="1" ht="11.25" customHeight="1">
@@ -13929,23 +13751,23 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="F225" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
       <c r="G225" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>FR_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H225" s="14" t="inlineStr">
+        <is>
+          <t>FR_VALEXISTEBLOQUEO_FUN</t>
         </is>
       </c>
       <c r="I225" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J225" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" hidden="1" ht="11.25" customHeight="1">
@@ -13971,7 +13793,7 @@
       </c>
       <c r="E226" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_VALIDATIPODEBITO_P</t>
         </is>
       </c>
       <c r="F226" s="14" t="inlineStr">
@@ -13981,12 +13803,12 @@
       </c>
       <c r="G226" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I226" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>PARAMETROS</t>
         </is>
       </c>
       <c r="J226" s="15" t="n">
@@ -14016,7 +13838,7 @@
       </c>
       <c r="E227" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_VALIDATIPODEBITO_P</t>
         </is>
       </c>
       <c r="F227" s="14" t="inlineStr">
@@ -14026,12 +13848,12 @@
       </c>
       <c r="G227" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I227" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J227" s="15" t="n">
@@ -14061,27 +13883,22 @@
       </c>
       <c r="E228" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_VALIDATIPODEBITO_P</t>
         </is>
       </c>
       <c r="F228" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G228" s="14" t="inlineStr">
         <is>
-          <t>FR_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H228" s="14" t="inlineStr">
-        <is>
-          <t>FR_VALEXISTESOLDEVFR_FUN</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I228" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J228" s="15" t="n">
@@ -14111,26 +13928,26 @@
       </c>
       <c r="E229" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F229" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H229" s="14" t="inlineStr">
-        <is>
-          <t>CRE_INSERTABITACORAS_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G229" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I229" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J229" s="15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" hidden="1" ht="11.25" customHeight="1">
@@ -14156,31 +13973,26 @@
       </c>
       <c r="E230" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F230" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G230" s="14" t="inlineStr">
         <is>
-          <t>FR_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H230" s="14" t="inlineStr">
-        <is>
-          <t>FR_VALEXISTECARGOSREG_FUN</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I230" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J230" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" hidden="1" ht="11.25" customHeight="1">
@@ -14206,26 +14018,26 @@
       </c>
       <c r="E231" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F231" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H231" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZAESTADOCRE_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G231" s="14" t="inlineStr">
+        <is>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I231" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J231" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" hidden="1" ht="11.25" customHeight="1">
@@ -14251,22 +14063,22 @@
       </c>
       <c r="E232" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F232" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H232" s="14" t="inlineStr">
-        <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G232" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I232" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J232" s="15" t="n">
@@ -14296,7 +14108,7 @@
       </c>
       <c r="E233" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F233" s="14" t="inlineStr">
@@ -14304,14 +14116,14 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="H233" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+      <c r="G233" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I233" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J233" s="15" t="n">
@@ -14341,22 +14153,22 @@
       </c>
       <c r="E234" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F234" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H234" s="14" t="inlineStr">
-        <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G234" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I234" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J234" s="15" t="n">
@@ -14386,27 +14198,22 @@
       </c>
       <c r="E235" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F235" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G235" s="14" t="inlineStr">
         <is>
-          <t>FR_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H235" s="14" t="inlineStr">
-        <is>
-          <t>FR_VALEXISTEBLOQUEO_FUN</t>
+          <t>KSPCOTAFILIADOS</t>
         </is>
       </c>
       <c r="I235" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J235" s="15" t="n">
@@ -14436,31 +14243,26 @@
       </c>
       <c r="E236" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="F236" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G236" s="14" t="inlineStr">
         <is>
-          <t>FR_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H236" s="14" t="inlineStr">
-        <is>
-          <t>FR_VALEXISTRAMPENDAFIFALLE_FUN</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I236" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J236" s="15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" hidden="1" ht="11.25" customHeight="1">
@@ -14486,22 +14288,13 @@
       </c>
       <c r="E237" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
-        </is>
-      </c>
-      <c r="F237" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G237" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
+          <t>CRE_EJECUTADEBITO_P</t>
+        </is>
+      </c>
+      <c r="G237" s="14" t="inlineStr"/>
       <c r="H237" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDADATOSDEBAUT_FUN</t>
+          <t>CRE_VALIDATIPODEBITO_P</t>
         </is>
       </c>
       <c r="I237" s="14" t="inlineStr">
@@ -14536,22 +14329,13 @@
       </c>
       <c r="E238" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
-        </is>
-      </c>
-      <c r="F238" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G238" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
+          <t>CRE_EJECUTADEBITO_P</t>
+        </is>
+      </c>
+      <c r="G238" s="14" t="inlineStr"/>
       <c r="H238" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREASOLICDEBITOAUTOM_PRC</t>
+          <t>CRE_ARCHIVODEBITO_P</t>
         </is>
       </c>
       <c r="I238" s="14" t="inlineStr">
@@ -14586,17 +14370,13 @@
       </c>
       <c r="E239" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
-        </is>
-      </c>
-      <c r="F239" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
+          <t>CRE_EJECUTADEBITO_P</t>
+        </is>
+      </c>
+      <c r="G239" s="14" t="inlineStr"/>
       <c r="H239" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOOBS_P</t>
+          <t>CRE_ACTUALIZADEBITOREC_P</t>
         </is>
       </c>
       <c r="I239" s="14" t="inlineStr">
@@ -14631,17 +14411,13 @@
       </c>
       <c r="E240" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
-        </is>
-      </c>
-      <c r="F240" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
+          <t>CRE_EJECUTADEBITO_P</t>
+        </is>
+      </c>
+      <c r="G240" s="14" t="inlineStr"/>
       <c r="H240" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOREC_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="I240" s="14" t="inlineStr">
@@ -14650,7 +14426,7 @@
         </is>
       </c>
       <c r="J240" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" hidden="1" ht="11.25" customHeight="1">
@@ -14676,26 +14452,26 @@
       </c>
       <c r="E241" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDATIPODEBITO_P</t>
-        </is>
-      </c>
-      <c r="F241" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="G241" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H241" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I241" s="14" t="inlineStr">
         <is>
-          <t>PARAMETROS</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J241" s="15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" hidden="1" ht="11.25" customHeight="1">
@@ -14721,22 +14497,18 @@
       </c>
       <c r="E242" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDATIPODEBITO_P</t>
-        </is>
-      </c>
-      <c r="F242" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G242" s="14" t="inlineStr">
-        <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>CRE_EJECUTADEBITO_P</t>
+        </is>
+      </c>
+      <c r="G242" s="14" t="inlineStr"/>
+      <c r="H242" s="14" t="inlineStr">
+        <is>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="I242" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J242" s="15" t="n">
@@ -14766,22 +14538,22 @@
       </c>
       <c r="E243" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDATIPODEBITO_P</t>
-        </is>
-      </c>
-      <c r="F243" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="G243" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>CRE_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H243" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ENVIOMAILS_PRC</t>
         </is>
       </c>
       <c r="I243" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J243" s="15" t="n">
@@ -14814,19 +14586,19 @@
           <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
-      <c r="F244" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
       <c r="G244" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>GEN_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H244" s="14" t="inlineStr">
+        <is>
+          <t>GEN_DURACIONPROCESO_FUN</t>
         </is>
       </c>
       <c r="I244" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J244" s="15" t="n">
@@ -14859,19 +14631,15 @@
           <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
-      <c r="F245" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G245" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETCREDITOS</t>
+      <c r="G245" s="14" t="inlineStr"/>
+      <c r="H245" s="14" t="inlineStr">
+        <is>
+          <t>CRE_INSERTABITACORAS_P</t>
         </is>
       </c>
       <c r="I245" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J245" s="15" t="n">
@@ -14901,7 +14669,7 @@
       </c>
       <c r="E246" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F246" s="14" t="inlineStr">
@@ -14911,7 +14679,7 @@
       </c>
       <c r="G246" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I246" s="14" t="inlineStr">
@@ -14920,7 +14688,7 @@
         </is>
       </c>
       <c r="J246" s="15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" hidden="1" ht="11.25" customHeight="1">
@@ -14946,7 +14714,7 @@
       </c>
       <c r="E247" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F247" s="14" t="inlineStr">
@@ -14956,7 +14724,7 @@
       </c>
       <c r="G247" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>HLPROTTIPOPE</t>
         </is>
       </c>
       <c r="I247" s="14" t="inlineStr">
@@ -14991,21 +14759,26 @@
       </c>
       <c r="E248" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F248" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G248" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I248" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J248" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" hidden="1" ht="11.25" customHeight="1">
@@ -15031,7 +14804,7 @@
       </c>
       <c r="E249" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F249" s="14" t="inlineStr">
@@ -15041,12 +14814,12 @@
       </c>
       <c r="G249" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I249" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J249" s="15" t="n">
@@ -15076,21 +14849,26 @@
       </c>
       <c r="E250" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="F250" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G250" s="14" t="inlineStr">
+        <is>
+          <t>KSPCOTPOLCOR</t>
         </is>
       </c>
       <c r="I250" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J250" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" hidden="1" ht="11.25" customHeight="1">
@@ -15116,22 +14894,18 @@
       </c>
       <c r="E251" s="14" t="inlineStr">
         <is>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
+        </is>
+      </c>
+      <c r="G251" s="14" t="inlineStr"/>
+      <c r="H251" s="14" t="inlineStr">
+        <is>
           <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
-      <c r="F251" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G251" s="14" t="inlineStr">
-        <is>
-          <t>KSPCOTAFILIADOS</t>
-        </is>
-      </c>
       <c r="I251" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J251" s="15" t="n">
@@ -15161,22 +14935,22 @@
       </c>
       <c r="E252" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
-        </is>
-      </c>
-      <c r="F252" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="G252" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CRE_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H252" s="14" t="inlineStr">
+        <is>
+          <t>CRE_CODPROUSRENVMAIL_PRC</t>
         </is>
       </c>
       <c r="I252" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J252" s="15" t="n">
@@ -15206,26 +14980,26 @@
       </c>
       <c r="E253" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
-        </is>
-      </c>
-      <c r="F253" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="G253" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H253" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I253" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J253" s="15" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" hidden="1" ht="11.25" customHeight="1">
@@ -15251,21 +15025,26 @@
       </c>
       <c r="E254" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
-        </is>
-      </c>
-      <c r="F254" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
+        </is>
+      </c>
+      <c r="G254" s="14" t="inlineStr">
+        <is>
+          <t>GEN_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H254" s="14" t="inlineStr">
+        <is>
+          <t>GEN_OBT_CODIGOPROC_FUN</t>
         </is>
       </c>
       <c r="I254" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J254" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" hidden="1" ht="11.25" customHeight="1">
@@ -15291,17 +15070,13 @@
       </c>
       <c r="E255" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
-        </is>
-      </c>
-      <c r="F255" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
+        </is>
+      </c>
+      <c r="G255" s="14" t="inlineStr"/>
       <c r="H255" s="14" t="inlineStr">
         <is>
-          <t>CRE_INSERTABITACORAS_P</t>
+          <t>CRE_CONSULTACATALOGO_P</t>
         </is>
       </c>
       <c r="I255" s="14" t="inlineStr">
@@ -15336,22 +15111,13 @@
       </c>
       <c r="E256" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
-        </is>
-      </c>
-      <c r="F256" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G256" s="14" t="inlineStr">
-        <is>
-          <t>GEN_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
+        </is>
+      </c>
+      <c r="G256" s="14" t="inlineStr"/>
       <c r="H256" s="14" t="inlineStr">
         <is>
-          <t>GEN_DURACIONPROCESO_FUN</t>
+          <t>CRE_ACTUALIZACATALOGO_P</t>
         </is>
       </c>
       <c r="I256" s="14" t="inlineStr">
@@ -15386,17 +15152,17 @@
       </c>
       <c r="E257" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
-        </is>
-      </c>
-      <c r="F257" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
+        </is>
+      </c>
+      <c r="G257" s="14" t="inlineStr">
+        <is>
+          <t>GEN_PROCESOSGENERICOS_PKG</t>
         </is>
       </c>
       <c r="H257" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
+          <t>GEN_INSUPDHLPROTBITOPE_PRC</t>
         </is>
       </c>
       <c r="I257" s="14" t="inlineStr">
@@ -15405,7 +15171,7 @@
         </is>
       </c>
       <c r="J257" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" hidden="1" ht="11.25" customHeight="1">
@@ -15431,22 +15197,13 @@
       </c>
       <c r="E258" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
-        </is>
-      </c>
-      <c r="F258" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G258" s="14" t="inlineStr">
-        <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
+        </is>
+      </c>
+      <c r="G258" s="14" t="inlineStr"/>
       <c r="H258" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="I258" s="14" t="inlineStr">
@@ -15455,7 +15212,7 @@
         </is>
       </c>
       <c r="J258" s="15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" hidden="1" ht="11.25" customHeight="1">
@@ -15481,22 +15238,22 @@
       </c>
       <c r="E259" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_ACTUALIZAPARAMETROS_P</t>
         </is>
       </c>
       <c r="F259" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H259" s="14" t="inlineStr">
-        <is>
-          <t>CRE_VALIDATIPODEBITO_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G259" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I259" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J259" s="15" t="n">
@@ -15526,31 +15283,26 @@
       </c>
       <c r="E260" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_ACTUALIZAPARAMETROS_P</t>
         </is>
       </c>
       <c r="F260" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G260" s="14" t="inlineStr">
         <is>
-          <t>CRE_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H260" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ENVIOMAILS_PRC</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I260" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="J260" s="15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" hidden="1" ht="11.25" customHeight="1">
@@ -15576,17 +15328,17 @@
       </c>
       <c r="E261" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
-        </is>
-      </c>
-      <c r="F261" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_ACTUALIZAPARAMETROS_P</t>
+        </is>
+      </c>
+      <c r="G261" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
         </is>
       </c>
       <c r="H261" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVODEBITO_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I261" s="14" t="inlineStr">
@@ -15595,7 +15347,7 @@
         </is>
       </c>
       <c r="J261" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" hidden="1" ht="11.25" customHeight="1">
@@ -15621,26 +15373,26 @@
       </c>
       <c r="E262" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
       <c r="F262" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H262" s="14" t="inlineStr">
-        <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G262" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I262" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J262" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" hidden="1" ht="11.25" customHeight="1">
@@ -15666,26 +15418,26 @@
       </c>
       <c r="E263" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
       <c r="F263" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H263" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZADEBITOREC_P</t>
+          <t>IESS_OWNER</t>
+        </is>
+      </c>
+      <c r="G263" s="14" t="inlineStr">
+        <is>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I263" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J263" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" hidden="1" ht="11.25" customHeight="1">
@@ -15711,26 +15463,22 @@
       </c>
       <c r="E264" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
-        </is>
-      </c>
-      <c r="F264" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G264" s="14" t="inlineStr">
-        <is>
-          <t>HLPROTTIPOPE</t>
+          <t>CRE_PARAMETRIZACIONES_P</t>
+        </is>
+      </c>
+      <c r="G264" s="14" t="inlineStr"/>
+      <c r="H264" s="14" t="inlineStr">
+        <is>
+          <t>CRE_CONSULTACATALOGO_P</t>
         </is>
       </c>
       <c r="I264" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J264" s="15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" hidden="1" ht="11.25" customHeight="1">
@@ -15756,26 +15504,26 @@
       </c>
       <c r="E265" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
-        </is>
-      </c>
-      <c r="F265" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
+          <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
       <c r="G265" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
+      <c r="H265" s="14" t="inlineStr">
+        <is>
+          <t>CRE_LEERTIPOERRORDEBITO_PRC</t>
         </is>
       </c>
       <c r="I265" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J265" s="15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266" hidden="1" ht="11.25" customHeight="1">
@@ -15801,26 +15549,22 @@
       </c>
       <c r="E266" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
-        </is>
-      </c>
-      <c r="F266" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G266" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>CRE_PARAMETRIZACIONES_P</t>
+        </is>
+      </c>
+      <c r="G266" s="14" t="inlineStr"/>
+      <c r="H266" s="14" t="inlineStr">
+        <is>
+          <t>CRE_ACTUALIZACATALOGO_P</t>
         </is>
       </c>
       <c r="I266" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J266" s="15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" hidden="1" ht="11.25" customHeight="1">
@@ -15846,26 +15590,26 @@
       </c>
       <c r="E267" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
-        </is>
-      </c>
-      <c r="F267" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
+          <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
       <c r="G267" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTPOLCOR</t>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
+      <c r="H267" s="14" t="inlineStr">
+        <is>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I267" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J267" s="15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" hidden="1" ht="11.25" customHeight="1">
@@ -15891,22 +15635,22 @@
       </c>
       <c r="E268" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F268" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G268" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I268" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES</t>
         </is>
       </c>
       <c r="J268" s="15" t="n">
@@ -15936,7 +15680,7 @@
       </c>
       <c r="E269" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F269" s="14" t="inlineStr">
@@ -15944,18 +15688,18 @@
           <t>PQ_OWNER</t>
         </is>
       </c>
-      <c r="H269" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZACATALOGO_P</t>
+      <c r="G269" s="14" t="inlineStr">
+        <is>
+          <t>CRE_CATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I269" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J269" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" hidden="1" ht="11.25" customHeight="1">
@@ -15981,31 +15725,26 @@
       </c>
       <c r="E270" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
       <c r="F270" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G270" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H270" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I270" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J270" s="15" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" hidden="1" ht="11.25" customHeight="1">
@@ -16031,17 +15770,13 @@
       </c>
       <c r="E271" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
-        </is>
-      </c>
-      <c r="F271" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
+        </is>
+      </c>
+      <c r="G271" s="14" t="inlineStr"/>
       <c r="H271" s="14" t="inlineStr">
         <is>
-          <t>CRE_CONSULTACATALOGO_P</t>
+          <t>CRE_ACTUALIZAPARAMETROS_P</t>
         </is>
       </c>
       <c r="I271" s="14" t="inlineStr">
@@ -16050,7 +15785,7 @@
         </is>
       </c>
       <c r="J271" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" hidden="1" ht="11.25" customHeight="1">
@@ -16076,22 +15811,13 @@
       </c>
       <c r="E272" s="14" t="inlineStr">
         <is>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
+        </is>
+      </c>
+      <c r="G272" s="14" t="inlineStr"/>
+      <c r="H272" s="14" t="inlineStr">
+        <is>
           <t>CRE_VALIDAEJECUTADEB_P</t>
-        </is>
-      </c>
-      <c r="F272" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G272" s="14" t="inlineStr">
-        <is>
-          <t>GEN_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H272" s="14" t="inlineStr">
-        <is>
-          <t>GEN_INSUPDHLPROTBITOPE_PRC</t>
         </is>
       </c>
       <c r="I272" s="14" t="inlineStr">
@@ -16126,17 +15852,13 @@
       </c>
       <c r="E273" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
-        </is>
-      </c>
-      <c r="F273" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
+        </is>
+      </c>
+      <c r="G273" s="14" t="inlineStr"/>
       <c r="H273" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="I273" s="14" t="inlineStr">
@@ -16171,17 +15893,17 @@
       </c>
       <c r="E274" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
-        </is>
-      </c>
-      <c r="F274" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
+        </is>
+      </c>
+      <c r="G274" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
         </is>
       </c>
       <c r="H274" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I274" s="14" t="inlineStr">
@@ -16190,7 +15912,7 @@
         </is>
       </c>
       <c r="J274" s="15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" hidden="1" ht="11.25" customHeight="1">
@@ -16216,22 +15938,13 @@
       </c>
       <c r="E275" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
-        </is>
-      </c>
-      <c r="F275" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G275" s="14" t="inlineStr">
-        <is>
-          <t>GEN_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
+        </is>
+      </c>
+      <c r="G275" s="14" t="inlineStr"/>
       <c r="H275" s="14" t="inlineStr">
         <is>
-          <t>GEN_OBT_CODIGOPROC_FUN</t>
+          <t>CRE_VALIDAEJECUTACES_P</t>
         </is>
       </c>
       <c r="I275" s="14" t="inlineStr">
@@ -16266,22 +15979,13 @@
       </c>
       <c r="E276" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
-        </is>
-      </c>
-      <c r="F276" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G276" s="14" t="inlineStr">
-        <is>
-          <t>CRE_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
+        </is>
+      </c>
+      <c r="G276" s="14" t="inlineStr"/>
       <c r="H276" s="14" t="inlineStr">
         <is>
-          <t>CRE_CODPROUSRENVMAIL_PRC</t>
+          <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
       <c r="I276" s="14" t="inlineStr">
@@ -16316,22 +16020,18 @@
       </c>
       <c r="E277" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAPARAMETROS_P</t>
-        </is>
-      </c>
-      <c r="F277" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
-      <c r="G277" s="14" t="inlineStr">
-        <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_DEBITOAUTOMATICO_P</t>
+        </is>
+      </c>
+      <c r="G277" s="14" t="inlineStr"/>
+      <c r="H277" s="14" t="inlineStr">
+        <is>
+          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="I277" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J277" s="15" t="n">
@@ -16361,26 +16061,26 @@
       </c>
       <c r="E278" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAPARAMETROS_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
       <c r="F278" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
         </is>
       </c>
       <c r="G278" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>AUD_TRAMITES_T</t>
         </is>
       </c>
       <c r="I278" s="14" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>VARIABLES-DBLINK</t>
         </is>
       </c>
       <c r="J278" s="15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" hidden="1" ht="11.25" customHeight="1">
@@ -16406,31 +16106,26 @@
       </c>
       <c r="E279" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAPARAMETROS_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
       <c r="F279" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
         </is>
       </c>
       <c r="G279" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H279" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>AUD_VISOR_PARAMETROS_T</t>
         </is>
       </c>
       <c r="I279" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES-DBLINK</t>
         </is>
       </c>
       <c r="J279" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" hidden="1" ht="11.25" customHeight="1">
@@ -16456,22 +16151,22 @@
       </c>
       <c r="E280" s="14" t="inlineStr">
         <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
       <c r="F280" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
         </is>
       </c>
       <c r="G280" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>AUD_TRAZA_ACCIONES_T</t>
         </is>
       </c>
       <c r="I280" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT-DBLINK</t>
         </is>
       </c>
       <c r="J280" s="15" t="n">
@@ -16501,26 +16196,26 @@
       </c>
       <c r="E281" s="14" t="inlineStr">
         <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
       <c r="F281" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
         </is>
       </c>
       <c r="G281" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>AUD_SERVICIOS_T</t>
         </is>
       </c>
       <c r="I281" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT-DBLINK</t>
         </is>
       </c>
       <c r="J281" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" hidden="1" ht="11.25" customHeight="1">
@@ -16546,26 +16241,26 @@
       </c>
       <c r="E282" s="14" t="inlineStr">
         <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
       <c r="F282" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H282" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZACATALOGO_P</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
+        </is>
+      </c>
+      <c r="G282" s="14" t="inlineStr">
+        <is>
+          <t>AUD_EXPEDIENTES_T</t>
         </is>
       </c>
       <c r="I282" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT-DBLINK</t>
         </is>
       </c>
       <c r="J282" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" hidden="1" ht="11.25" customHeight="1">
@@ -16591,31 +16286,26 @@
       </c>
       <c r="E283" s="14" t="inlineStr">
         <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
       <c r="F283" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
         </is>
       </c>
       <c r="G283" s="14" t="inlineStr">
         <is>
-          <t>CRE_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
-      <c r="H283" s="14" t="inlineStr">
-        <is>
-          <t>CRE_LEERTIPOERRORDEBITO_PRC</t>
+          <t>AUD_TRAMITES_T</t>
         </is>
       </c>
       <c r="I283" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT-DBLINK</t>
         </is>
       </c>
       <c r="J283" s="15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" hidden="1" ht="11.25" customHeight="1">
@@ -16641,31 +16331,22 @@
       </c>
       <c r="E284" s="14" t="inlineStr">
         <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
-        </is>
-      </c>
-      <c r="F284" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F284" s="14" t="inlineStr"/>
       <c r="G284" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H284" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>AUD_TRAZA_ACCIONES_T</t>
         </is>
       </c>
       <c r="I284" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J284" s="15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" hidden="1" ht="11.25" customHeight="1">
@@ -16691,26 +16372,22 @@
       </c>
       <c r="E285" s="14" t="inlineStr">
         <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
-        </is>
-      </c>
-      <c r="F285" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H285" s="14" t="inlineStr">
-        <is>
-          <t>CRE_CONSULTACATALOGO_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F285" s="14" t="inlineStr"/>
+      <c r="G285" s="14" t="inlineStr">
+        <is>
+          <t>AUD_TRAMITES_T</t>
         </is>
       </c>
       <c r="I285" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J285" s="15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" hidden="1" ht="11.25" customHeight="1">
@@ -16736,22 +16413,18 @@
       </c>
       <c r="E286" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
-        </is>
-      </c>
-      <c r="F286" s="14" t="inlineStr">
-        <is>
-          <t>IESS_OWNER</t>
-        </is>
-      </c>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F286" s="14" t="inlineStr"/>
       <c r="G286" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>AUD_EXPEDIENTES_T</t>
         </is>
       </c>
       <c r="I286" s="14" t="inlineStr">
         <is>
-          <t>VARIABLES</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J286" s="15" t="n">
@@ -16781,12 +16454,13 @@
       </c>
       <c r="E287" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
-        </is>
-      </c>
-      <c r="F287" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
+        </is>
+      </c>
+      <c r="F287" s="14" t="inlineStr"/>
+      <c r="G287" s="14" t="inlineStr">
+        <is>
+          <t>AUD_SERVICIOS_T</t>
         </is>
       </c>
       <c r="I287" s="14" t="inlineStr">
@@ -16795,7 +16469,7 @@
         </is>
       </c>
       <c r="J287" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" hidden="1" ht="11.25" customHeight="1">
@@ -16821,26 +16495,26 @@
       </c>
       <c r="E288" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
       <c r="F288" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
         </is>
       </c>
       <c r="G288" s="14" t="inlineStr">
         <is>
-          <t>CRE_CATALOGOPQ_TBL</t>
+          <t>AUD_TRAZA_ACCIONES_T</t>
         </is>
       </c>
       <c r="I288" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>INSERT-DBLINK</t>
         </is>
       </c>
       <c r="J288" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" hidden="1" ht="11.25" customHeight="1">
@@ -16866,21 +16540,26 @@
       </c>
       <c r="E289" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
       <c r="F289" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
+        </is>
+      </c>
+      <c r="G289" s="14" t="inlineStr">
+        <is>
+          <t>AUD_SERVICIOS_T</t>
         </is>
       </c>
       <c r="I289" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>INSERT-DBLINK</t>
         </is>
       </c>
       <c r="J289" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" hidden="1" ht="11.25" customHeight="1">
@@ -16906,26 +16585,26 @@
       </c>
       <c r="E290" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
       <c r="F290" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
         </is>
       </c>
       <c r="G290" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>AUD_EXPEDIENTES_T</t>
         </is>
       </c>
       <c r="I290" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>INSERT-DBLINK</t>
         </is>
       </c>
       <c r="J290" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" hidden="1" ht="11.25" customHeight="1">
@@ -16951,22 +16630,22 @@
       </c>
       <c r="E291" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
       <c r="F291" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H291" s="14" t="inlineStr">
-        <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
+        </is>
+      </c>
+      <c r="G291" s="14" t="inlineStr">
+        <is>
+          <t>AUD_TRAMITES_T</t>
         </is>
       </c>
       <c r="I291" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>INSERT-DBLINK</t>
         </is>
       </c>
       <c r="J291" s="15" t="n">
@@ -16996,31 +16675,26 @@
       </c>
       <c r="E292" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
       <c r="F292" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
         </is>
       </c>
       <c r="G292" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
-      <c r="H292" s="14" t="inlineStr">
-        <is>
-          <t>PROREGBITPRO</t>
+          <t>AUD_VISOR_LOG_USUARIOS_T</t>
         </is>
       </c>
       <c r="I292" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>INSERT-DBLINK</t>
         </is>
       </c>
       <c r="J292" s="15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" hidden="1" ht="11.25" customHeight="1">
@@ -17046,26 +16720,26 @@
       </c>
       <c r="E293" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
       <c r="F293" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H293" s="14" t="inlineStr">
-        <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
+        </is>
+      </c>
+      <c r="G293" s="14" t="inlineStr">
+        <is>
+          <t>AUD_VISOR_LOG_USUARIOS_S</t>
         </is>
       </c>
       <c r="I293" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>NEXTVAL-DBLINK</t>
         </is>
       </c>
       <c r="J293" s="15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294" hidden="1" ht="11.25" customHeight="1">
@@ -17091,26 +16765,26 @@
       </c>
       <c r="E294" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>SAL_NOTIFICAR_MAIL_P</t>
         </is>
       </c>
       <c r="F294" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H294" s="14" t="inlineStr">
-        <is>
-          <t>CRE_ACTUALIZAPARAMETROS_P</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
+        </is>
+      </c>
+      <c r="G294" s="14" t="inlineStr">
+        <is>
+          <t>AUD_VISOR_LOG_USUARIOS_T</t>
         </is>
       </c>
       <c r="I294" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>VARIABLES-DBLINK</t>
         </is>
       </c>
       <c r="J294" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" hidden="1" ht="11.25" customHeight="1">
@@ -17136,26 +16810,26 @@
       </c>
       <c r="E295" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>SAL_NOTIFICAR_MAIL_P</t>
         </is>
       </c>
       <c r="F295" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H295" s="14" t="inlineStr">
-        <is>
-          <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
+        </is>
+      </c>
+      <c r="G295" s="14" t="inlineStr">
+        <is>
+          <t>AUD_VISOR_PARAMETROS_T</t>
         </is>
       </c>
       <c r="I295" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>SELECT-DBLINK</t>
         </is>
       </c>
       <c r="J295" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" hidden="1" ht="11.25" customHeight="1">
@@ -17181,22 +16855,22 @@
       </c>
       <c r="E296" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>SAL_NOTIFICAR_MAIL_P</t>
         </is>
       </c>
       <c r="F296" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H296" s="14" t="inlineStr">
-        <is>
-          <t>CRE_VALIDAEJECUTACES_P</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
+        </is>
+      </c>
+      <c r="G296" s="14" t="inlineStr">
+        <is>
+          <t>AUD_VISOR_LOG_USUARIOS_T</t>
         </is>
       </c>
       <c r="I296" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>INSERT-DBLINK</t>
         </is>
       </c>
       <c r="J296" s="15" t="n">
@@ -17226,22 +16900,22 @@
       </c>
       <c r="E297" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITOAUTOMATICO_P</t>
+          <t>SAL_NOTIFICAR_MAIL_P</t>
         </is>
       </c>
       <c r="F297" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="H297" s="14" t="inlineStr">
-        <is>
-          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
+        </is>
+      </c>
+      <c r="G297" s="14" t="inlineStr">
+        <is>
+          <t>AUD_VISOR_LOG_USUARIOS_S</t>
         </is>
       </c>
       <c r="I297" s="14" t="inlineStr">
         <is>
-          <t>EXECUTE</t>
+          <t>NEXTVAL-DBLINK</t>
         </is>
       </c>
       <c r="J297" s="15" t="n">
@@ -17271,738 +16945,48 @@
       </c>
       <c r="E298" s="14" t="inlineStr">
         <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
-        </is>
-      </c>
-      <c r="F298" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
+          <t>SAL_NOTIFICAR_MAIL_P</t>
+        </is>
+      </c>
+      <c r="G298" s="14" t="inlineStr">
+        <is>
+          <t>SENDMAILJPKG</t>
+        </is>
+      </c>
+      <c r="H298" s="14" t="inlineStr">
+        <is>
+          <t>SENDMAIL</t>
         </is>
       </c>
       <c r="I298" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>EXECUTE</t>
         </is>
       </c>
       <c r="J298" s="15" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="299" hidden="1" ht="11.25" customHeight="1">
-      <c r="A299" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B299" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C299" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D299" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E299" s="14" t="inlineStr">
-        <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
-        </is>
-      </c>
-      <c r="F299" s="14" t="inlineStr">
-        <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
-      <c r="G299" s="14" t="inlineStr">
-        <is>
-          <t>AUD_SERVICIOS_T</t>
-        </is>
-      </c>
-      <c r="I299" s="14" t="inlineStr">
-        <is>
-          <t>SELECT-DBLINK</t>
-        </is>
-      </c>
-      <c r="J299" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" hidden="1" ht="11.25" customHeight="1">
-      <c r="A300" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B300" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C300" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D300" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E300" s="14" t="inlineStr">
-        <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
-        </is>
-      </c>
-      <c r="F300" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="I300" s="14" t="inlineStr">
-        <is>
-          <t>SELECT</t>
-        </is>
-      </c>
-      <c r="J300" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" hidden="1" ht="11.25" customHeight="1">
-      <c r="A301" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B301" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C301" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D301" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E301" s="14" t="inlineStr">
-        <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
-        </is>
-      </c>
-      <c r="F301" s="14" t="inlineStr">
-        <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
-      <c r="G301" s="14" t="inlineStr">
-        <is>
-          <t>AUD_EXPEDIENTES_T</t>
-        </is>
-      </c>
-      <c r="I301" s="14" t="inlineStr">
-        <is>
-          <t>SELECT-DBLINK</t>
-        </is>
-      </c>
-      <c r="J301" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" ht="11.25" customHeight="1">
-      <c r="A302" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B302" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C302" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D302" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E302" s="14" t="inlineStr">
-        <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
-        </is>
-      </c>
-      <c r="F302" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="I302" s="14" t="inlineStr">
-        <is>
-          <t>SELECT</t>
-        </is>
-      </c>
-      <c r="J302" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" ht="11.25" customHeight="1">
-      <c r="A303" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B303" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C303" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D303" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E303" s="14" t="inlineStr">
-        <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
-        </is>
-      </c>
-      <c r="F303" s="14" t="inlineStr">
-        <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
-      <c r="G303" s="14" t="inlineStr">
-        <is>
-          <t>AUD_TRAZA_ACCIONES_T</t>
-        </is>
-      </c>
-      <c r="I303" s="14" t="inlineStr">
-        <is>
-          <t>SELECT-DBLINK</t>
-        </is>
-      </c>
-      <c r="J303" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" ht="11.25" customHeight="1">
-      <c r="A304" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B304" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C304" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D304" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E304" s="14" t="inlineStr">
-        <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
-        </is>
-      </c>
-      <c r="F304" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="I304" s="14" t="inlineStr">
-        <is>
-          <t>SELECT</t>
-        </is>
-      </c>
-      <c r="J304" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" ht="11.25" customHeight="1">
-      <c r="A305" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B305" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C305" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D305" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E305" s="14" t="inlineStr">
-        <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
-        </is>
-      </c>
-      <c r="F305" s="14" t="inlineStr">
-        <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
-      <c r="G305" s="14" t="inlineStr">
-        <is>
-          <t>AUD_TRAMITES_T</t>
-        </is>
-      </c>
-      <c r="I305" s="14" t="inlineStr">
-        <is>
-          <t>SELECT-DBLINK</t>
-        </is>
-      </c>
-      <c r="J305" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" ht="11.25" customHeight="1">
-      <c r="A306" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B306" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C306" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D306" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E306" s="14" t="inlineStr">
-        <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
-        </is>
-      </c>
-      <c r="F306" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="I306" s="14" t="inlineStr">
-        <is>
-          <t>INSERT</t>
-        </is>
-      </c>
-      <c r="J306" s="15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="307" ht="11.25" customHeight="1">
-      <c r="A307" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B307" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C307" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D307" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E307" s="14" t="inlineStr">
-        <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
-        </is>
-      </c>
-      <c r="F307" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="I307" s="14" t="inlineStr">
-        <is>
-          <t>INSERT</t>
-        </is>
-      </c>
-      <c r="J307" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" ht="11.25" customHeight="1">
-      <c r="A308" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B308" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C308" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D308" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E308" s="14" t="inlineStr">
-        <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
-        </is>
-      </c>
-      <c r="F308" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="I308" s="14" t="inlineStr">
-        <is>
-          <t>INSERT</t>
-        </is>
-      </c>
-      <c r="J308" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" ht="11.25" customHeight="1">
-      <c r="A309" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B309" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C309" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D309" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E309" s="14" t="inlineStr">
-        <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
-        </is>
-      </c>
-      <c r="F309" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="I309" s="14" t="inlineStr">
-        <is>
-          <t>INSERT</t>
-        </is>
-      </c>
-      <c r="J309" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" ht="11.25" customHeight="1">
-      <c r="A310" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B310" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C310" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D310" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E310" s="14" t="inlineStr">
-        <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
-        </is>
-      </c>
-      <c r="F310" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="I310" s="14" t="inlineStr">
-        <is>
-          <t>INSERT</t>
-        </is>
-      </c>
-      <c r="J310" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" ht="11.25" customHeight="1">
-      <c r="A311" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B311" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C311" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D311" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E311" s="14" t="inlineStr">
-        <is>
-          <t>SAL_REPLICAAUDIMED_P</t>
-        </is>
-      </c>
-      <c r="F311" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="I311" s="14" t="inlineStr">
-        <is>
-          <t>NEXTVAL</t>
-        </is>
-      </c>
-      <c r="J311" s="15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="312" ht="11.25" customHeight="1">
-      <c r="A312" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B312" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C312" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D312" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E312" s="14" t="inlineStr">
-        <is>
-          <t>SAL_NOTIFICAR_MAIL_P</t>
-        </is>
-      </c>
-      <c r="F312" s="14" t="inlineStr">
-        <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
-      <c r="G312" s="14" t="inlineStr">
-        <is>
-          <t>AUD_VISOR_PARAMETROS_T</t>
-        </is>
-      </c>
-      <c r="I312" s="14" t="inlineStr">
-        <is>
-          <t>SELECT-DBLINK</t>
-        </is>
-      </c>
-      <c r="J312" s="15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="313" ht="11.25" customHeight="1">
-      <c r="A313" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B313" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C313" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D313" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E313" s="14" t="inlineStr">
-        <is>
-          <t>SAL_NOTIFICAR_MAIL_P</t>
-        </is>
-      </c>
-      <c r="F313" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="I313" s="14" t="inlineStr">
-        <is>
-          <t>INSERT</t>
-        </is>
-      </c>
-      <c r="J313" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" ht="11.25" customHeight="1">
-      <c r="A314" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B314" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C314" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D314" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E314" s="14" t="inlineStr">
-        <is>
-          <t>SAL_NOTIFICAR_MAIL_P</t>
-        </is>
-      </c>
-      <c r="F314" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="I314" s="14" t="inlineStr">
-        <is>
-          <t>NEXTVAL</t>
-        </is>
-      </c>
-      <c r="J314" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" ht="11.25" customHeight="1">
-      <c r="A315" s="14" t="inlineStr">
-        <is>
-          <t>PACKAGE BODY</t>
-        </is>
-      </c>
-      <c r="B315" s="14" t="inlineStr">
-        <is>
-          <t>PQ_OWNER</t>
-        </is>
-      </c>
-      <c r="C315" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITOAUTOMATICOPQ_PKG</t>
-        </is>
-      </c>
-      <c r="D315" s="14" t="inlineStr">
-        <is>
-          <t>PROCEDURE</t>
-        </is>
-      </c>
-      <c r="E315" s="14" t="inlineStr">
-        <is>
-          <t>SAL_NOTIFICAR_MAIL_P</t>
-        </is>
-      </c>
-      <c r="F315" s="14" t="inlineStr">
-        <is>
-          <t>AUDIMED_OWNER</t>
-        </is>
-      </c>
-      <c r="G315" s="14" t="inlineStr">
-        <is>
-          <t>SENDMAILJPKG</t>
-        </is>
-      </c>
-      <c r="H315" s="14" t="inlineStr">
-        <is>
-          <t>SENDMAIL</t>
-        </is>
-      </c>
-      <c r="I315" s="14" t="inlineStr">
-        <is>
-          <t>EXECUTE</t>
-        </is>
-      </c>
-      <c r="J315" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="299" hidden="1" ht="11.25" customHeight="1"/>
+    <row r="300" hidden="1" ht="11.25" customHeight="1"/>
+    <row r="301" hidden="1" ht="11.25" customHeight="1"/>
+    <row r="302" ht="11.25" customHeight="1"/>
+    <row r="303" ht="11.25" customHeight="1"/>
+    <row r="304" ht="11.25" customHeight="1"/>
+    <row r="305" ht="11.25" customHeight="1"/>
+    <row r="306" ht="11.25" customHeight="1"/>
+    <row r="307" ht="11.25" customHeight="1"/>
+    <row r="308" ht="11.25" customHeight="1"/>
+    <row r="309" ht="11.25" customHeight="1"/>
+    <row r="310" ht="11.25" customHeight="1"/>
+    <row r="311" ht="11.25" customHeight="1"/>
+    <row r="312" ht="11.25" customHeight="1"/>
+    <row r="313" ht="11.25" customHeight="1"/>
+    <row r="314" ht="11.25" customHeight="1"/>
+    <row r="315" ht="11.25" customHeight="1"/>
+    <row r="316" ht="11.25" customHeight="1"/>
+    <row r="317" ht="11.25" customHeight="1"/>
+    <row r="318" ht="11.25" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="N1:N573">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="3">

--- a/util_matrizCRUD2.xlsx
+++ b/util_matrizCRUD2.xlsx
@@ -3826,7 +3826,7 @@
       </c>
       <c r="G2" s="14" t="inlineStr">
         <is>
-          <t>CRE_CATALOGOPQ_TBL</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I2" s="14" t="inlineStr">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="J2" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="G3" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>CRE_CATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I3" s="14" t="inlineStr">
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="J3" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" hidden="1" ht="11.25" customHeight="1">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="G4" s="14" t="inlineStr">
         <is>
-          <t>CRE_CATALOGOPQ_TBL</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I4" s="14" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="G5" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>CRE_CATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I5" s="14" t="inlineStr">
@@ -4251,12 +4251,12 @@
       </c>
       <c r="F11" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G11" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I11" s="14" t="inlineStr">
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="J11" s="15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" hidden="1" ht="11.25" customHeight="1">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="G12" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I12" s="14" t="inlineStr">
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="J12" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" hidden="1" ht="11.25" customHeight="1">
@@ -4341,12 +4341,12 @@
       </c>
       <c r="F13" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G13" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I13" s="14" t="inlineStr">
@@ -4355,7 +4355,7 @@
         </is>
       </c>
       <c r="J13" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" hidden="1" ht="11.25" customHeight="1">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="G14" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTREGCIV</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I14" s="14" t="inlineStr">
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="J14" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" hidden="1" ht="11.25" customHeight="1">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="G15" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>KSPCOTREGCIV</t>
         </is>
       </c>
       <c r="I15" s="14" t="inlineStr">
@@ -4476,12 +4476,12 @@
       </c>
       <c r="F16" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G16" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I16" s="14" t="inlineStr">
@@ -4490,7 +4490,7 @@
         </is>
       </c>
       <c r="J16" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" hidden="1" ht="11.25" customHeight="1">
@@ -4521,12 +4521,12 @@
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G17" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I17" s="14" t="inlineStr">
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="J17" s="15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" hidden="1" ht="11.25" customHeight="1">
@@ -4564,10 +4564,14 @@
           <t>CRE_EXCLUSIONESDEB_P</t>
         </is>
       </c>
-      <c r="G18" s="14" t="inlineStr"/>
+      <c r="G18" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
       <c r="H18" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I18" s="14" t="inlineStr">
@@ -4576,7 +4580,7 @@
         </is>
       </c>
       <c r="J18" s="15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" hidden="1" ht="11.25" customHeight="1">
@@ -4605,14 +4609,10 @@
           <t>CRE_EXCLUSIONESDEB_P</t>
         </is>
       </c>
-      <c r="G19" s="14" t="inlineStr">
-        <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
+      <c r="G19" s="14" t="inlineStr"/>
       <c r="H19" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
         </is>
       </c>
       <c r="I19" s="14" t="inlineStr">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="J19" s="15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" hidden="1" ht="11.25" customHeight="1">
@@ -4652,12 +4652,12 @@
       </c>
       <c r="F20" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G20" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>KSAFITCESANTIAS</t>
         </is>
       </c>
       <c r="I20" s="14" t="inlineStr">
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="J20" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" hidden="1" ht="11.25" customHeight="1">
@@ -4697,12 +4697,12 @@
       </c>
       <c r="F21" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G21" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I21" s="14" t="inlineStr">
@@ -4742,12 +4742,12 @@
       </c>
       <c r="F22" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G22" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I22" s="14" t="inlineStr">
@@ -4756,7 +4756,7 @@
         </is>
       </c>
       <c r="J22" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" hidden="1" ht="11.25" customHeight="1">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="G23" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I23" s="14" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="G24" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I24" s="14" t="inlineStr">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="G25" s="14" t="inlineStr">
         <is>
-          <t>KSAFITCESANTIAS</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I25" s="14" t="inlineStr">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="G26" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>KSAFITCESANTIAS</t>
         </is>
       </c>
       <c r="I26" s="14" t="inlineStr">
@@ -4967,12 +4967,12 @@
       </c>
       <c r="F27" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G27" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I27" s="14" t="inlineStr">
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="J27" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" hidden="1" ht="11.25" customHeight="1">
@@ -5012,12 +5012,12 @@
       </c>
       <c r="F28" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G28" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I28" s="14" t="inlineStr">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="J28" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" hidden="1" ht="11.25" customHeight="1">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="G29" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I29" s="14" t="inlineStr">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="J29" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" hidden="1" ht="11.25" customHeight="1">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="G30" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I30" s="14" t="inlineStr">
@@ -5116,7 +5116,7 @@
         </is>
       </c>
       <c r="J30" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" hidden="1" ht="11.25" customHeight="1">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="G31" s="14" t="inlineStr">
         <is>
-          <t>KSAFITCESANTIAS</t>
+          <t>KSPCOTREGCIV</t>
         </is>
       </c>
       <c r="I31" s="14" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="G32" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTREGCIV</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I32" s="14" t="inlineStr">
@@ -5235,10 +5235,14 @@
           <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
-      <c r="G33" s="14" t="inlineStr"/>
+      <c r="G33" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
       <c r="H33" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I33" s="14" t="inlineStr">
@@ -5247,7 +5251,7 @@
         </is>
       </c>
       <c r="J33" s="15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" hidden="1" ht="11.25" customHeight="1">
@@ -5276,14 +5280,10 @@
           <t>CRE_EXCLUSIONESCES_P</t>
         </is>
       </c>
-      <c r="G34" s="14" t="inlineStr">
-        <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
+      <c r="G34" s="14" t="inlineStr"/>
       <c r="H34" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_ACTUALIZADEBIOSSAC_P</t>
         </is>
       </c>
       <c r="I34" s="14" t="inlineStr">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="J34" s="15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" hidden="1" ht="11.25" customHeight="1">
@@ -5587,10 +5587,14 @@
           <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
         </is>
       </c>
-      <c r="G41" s="14" t="inlineStr"/>
+      <c r="G41" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
       <c r="H41" s="14" t="inlineStr">
         <is>
-          <t>CRE_EXCLUSIONESDEB_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I41" s="14" t="inlineStr">
@@ -5599,7 +5603,7 @@
         </is>
       </c>
       <c r="J41" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" hidden="1" ht="11.25" customHeight="1">
@@ -5628,14 +5632,10 @@
           <t>CRE_VALIDAEXCLUSIONESDEB_P</t>
         </is>
       </c>
-      <c r="G42" s="14" t="inlineStr">
-        <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
+      <c r="G42" s="14" t="inlineStr"/>
       <c r="H42" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_EXCLUSIONESDEB_P</t>
         </is>
       </c>
       <c r="I42" s="14" t="inlineStr">
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="J42" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" hidden="1" ht="11.25" customHeight="1">
@@ -5675,12 +5675,12 @@
       </c>
       <c r="F43" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G43" s="14" t="inlineStr">
         <is>
-          <t>CES_BITCUENTAINDIVIDUAL_TBL</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I43" s="14" t="inlineStr">
@@ -5720,12 +5720,12 @@
       </c>
       <c r="F44" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G44" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CES_BITCUENTAINDIVIDUAL_TBL</t>
         </is>
       </c>
       <c r="I44" s="14" t="inlineStr">
@@ -6080,12 +6080,12 @@
       </c>
       <c r="F52" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G52" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I52" s="14" t="inlineStr">
@@ -6125,12 +6125,12 @@
       </c>
       <c r="F53" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G53" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I53" s="14" t="inlineStr">
@@ -6213,10 +6213,14 @@
           <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
-      <c r="G55" s="14" t="inlineStr"/>
+      <c r="G55" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
       <c r="H55" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERAACTUALIZA_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I55" s="14" t="inlineStr">
@@ -6225,7 +6229,7 @@
         </is>
       </c>
       <c r="J55" s="15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" hidden="1" ht="11.25" customHeight="1">
@@ -6254,14 +6258,10 @@
           <t>CRE_ACTUALIZACUENTACESANTIAS_P</t>
         </is>
       </c>
-      <c r="G56" s="14" t="inlineStr">
-        <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
+      <c r="G56" s="14" t="inlineStr"/>
       <c r="H56" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_GENERAACTUALIZA_P</t>
         </is>
       </c>
       <c r="I56" s="14" t="inlineStr">
@@ -6270,7 +6270,7 @@
         </is>
       </c>
       <c r="J56" s="15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" hidden="1" ht="11.25" customHeight="1">
@@ -6479,10 +6479,14 @@
           <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
-      <c r="G61" s="14" t="inlineStr"/>
+      <c r="G61" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
       <c r="H61" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVOCESANTIA_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I61" s="14" t="inlineStr">
@@ -6491,7 +6495,7 @@
         </is>
       </c>
       <c r="J61" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" hidden="1" ht="11.25" customHeight="1">
@@ -6563,12 +6567,12 @@
       </c>
       <c r="G63" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
+          <t>GEN_PROCESOSGENERICOS_PKG</t>
         </is>
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>GEN_DURACIONPROCESO_FUN</t>
         </is>
       </c>
       <c r="I63" s="14" t="inlineStr">
@@ -6577,7 +6581,7 @@
         </is>
       </c>
       <c r="J63" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" hidden="1" ht="11.25" customHeight="1">
@@ -6651,14 +6655,10 @@
           <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
-      <c r="G65" s="14" t="inlineStr">
-        <is>
-          <t>GEN_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
+      <c r="G65" s="14" t="inlineStr"/>
       <c r="H65" s="14" t="inlineStr">
         <is>
-          <t>GEN_DURACIONPROCESO_FUN</t>
+          <t>CRE_ARCHIVOCESANTIA_P</t>
         </is>
       </c>
       <c r="I65" s="14" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="G66" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I66" s="14" t="inlineStr">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="J66" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" hidden="1" ht="11.25" customHeight="1">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="G67" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I67" s="14" t="inlineStr">
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="J67" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" hidden="1" ht="11.25" customHeight="1">
@@ -6831,10 +6831,14 @@
           <t>CRE_VALIDAEJECUTACES_P</t>
         </is>
       </c>
-      <c r="G69" s="14" t="inlineStr"/>
+      <c r="G69" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
       <c r="H69" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTAACTUALIZACION_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I69" s="14" t="inlineStr">
@@ -6843,7 +6847,7 @@
         </is>
       </c>
       <c r="J69" s="15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" hidden="1" ht="11.25" customHeight="1">
@@ -6875,7 +6879,7 @@
       <c r="G70" s="14" t="inlineStr"/>
       <c r="H70" s="14" t="inlineStr">
         <is>
-          <t>CRE_CONSULTACATALOGO_P</t>
+          <t>CRE_EJECUTAACTUALIZACION_P</t>
         </is>
       </c>
       <c r="I70" s="14" t="inlineStr">
@@ -6913,14 +6917,10 @@
           <t>CRE_VALIDAEJECUTACES_P</t>
         </is>
       </c>
-      <c r="G71" s="14" t="inlineStr">
-        <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
+      <c r="G71" s="14" t="inlineStr"/>
       <c r="H71" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_CONSULTACATALOGO_P</t>
         </is>
       </c>
       <c r="I71" s="14" t="inlineStr">
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="J71" s="15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" hidden="1" ht="11.25" customHeight="1">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="G73" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I73" s="14" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="G74" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I74" s="14" t="inlineStr">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="G81" s="14" t="inlineStr">
         <is>
-          <t>HLPROTBITOPE</t>
+          <t>HLPROTTIPOPE</t>
         </is>
       </c>
       <c r="I81" s="14" t="inlineStr">
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="J81" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" hidden="1" ht="11.25" customHeight="1">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="G82" s="14" t="inlineStr">
         <is>
-          <t>HLPROTTIPOPE</t>
+          <t>HLPROTBITOPE</t>
         </is>
       </c>
       <c r="I82" s="14" t="inlineStr">
@@ -7424,7 +7424,7 @@
         </is>
       </c>
       <c r="J82" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" hidden="1" ht="11.25" customHeight="1">
@@ -7680,12 +7680,12 @@
       </c>
       <c r="F88" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G88" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I88" s="14" t="inlineStr">
@@ -7694,7 +7694,7 @@
         </is>
       </c>
       <c r="J88" s="15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" hidden="1" ht="11.25" customHeight="1">
@@ -7725,12 +7725,12 @@
       </c>
       <c r="F89" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G89" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I89" s="14" t="inlineStr">
@@ -7739,7 +7739,7 @@
         </is>
       </c>
       <c r="J89" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" hidden="1" ht="11.25" customHeight="1">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="G90" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I90" s="14" t="inlineStr">
@@ -7784,7 +7784,7 @@
         </is>
       </c>
       <c r="J90" s="15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" hidden="1" ht="11.25" customHeight="1">
@@ -7905,12 +7905,12 @@
       </c>
       <c r="F93" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G93" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>KSPCOTPOLCOR</t>
         </is>
       </c>
       <c r="I93" s="14" t="inlineStr">
@@ -7919,7 +7919,7 @@
         </is>
       </c>
       <c r="J93" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" hidden="1" ht="11.25" customHeight="1">
@@ -7950,12 +7950,12 @@
       </c>
       <c r="F94" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G94" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTPOLCOR</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I94" s="14" t="inlineStr">
@@ -7964,7 +7964,7 @@
         </is>
       </c>
       <c r="J94" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" hidden="1" ht="11.25" customHeight="1">
@@ -8220,12 +8220,12 @@
       </c>
       <c r="G100" s="14" t="inlineStr">
         <is>
-          <t>FRSAFIKCARGOSPROCESO</t>
+          <t>KSPCOKPOLCOR</t>
         </is>
       </c>
       <c r="H100" s="14" t="inlineStr">
         <is>
-          <t>CALCULARINTERESPORT2</t>
+          <t>OBTVALNUMPOLCOR</t>
         </is>
       </c>
       <c r="I100" s="14" t="inlineStr">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="J100" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" hidden="1" ht="11.25" customHeight="1">
@@ -8310,12 +8310,12 @@
       </c>
       <c r="G102" s="14" t="inlineStr">
         <is>
-          <t>KSPCOKPOLCOR</t>
+          <t>FRSAFIKCARGOSPROCESO</t>
         </is>
       </c>
       <c r="H102" s="14" t="inlineStr">
         <is>
-          <t>OBTVALNUMPOLCOR</t>
+          <t>CALCULARINTERESPORT2</t>
         </is>
       </c>
       <c r="I102" s="14" t="inlineStr">
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="J102" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" hidden="1" ht="11.25" customHeight="1">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="G112" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I112" s="14" t="inlineStr">
@@ -8810,7 +8810,7 @@
       </c>
       <c r="G113" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I113" s="14" t="inlineStr">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="G115" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I115" s="14" t="inlineStr">
@@ -8909,7 +8909,7 @@
         </is>
       </c>
       <c r="J115" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" hidden="1" ht="11.25" customHeight="1">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="G116" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I116" s="14" t="inlineStr">
@@ -8954,7 +8954,7 @@
         </is>
       </c>
       <c r="J116" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" hidden="1" ht="11.25" customHeight="1">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="G117" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I117" s="14" t="inlineStr">
@@ -9035,7 +9035,7 @@
       </c>
       <c r="G118" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I118" s="14" t="inlineStr">
@@ -9044,7 +9044,7 @@
         </is>
       </c>
       <c r="J118" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" hidden="1" ht="11.25" customHeight="1">
@@ -9080,7 +9080,7 @@
       </c>
       <c r="G119" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I119" s="14" t="inlineStr">
@@ -9089,7 +9089,7 @@
         </is>
       </c>
       <c r="J119" s="15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" hidden="1" ht="11.25" customHeight="1">
@@ -9170,7 +9170,7 @@
       </c>
       <c r="G121" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>THLCRT_GARANTIAS</t>
         </is>
       </c>
       <c r="I121" s="14" t="inlineStr">
@@ -9179,7 +9179,7 @@
         </is>
       </c>
       <c r="J121" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" hidden="1" ht="11.25" customHeight="1">
@@ -9215,7 +9215,7 @@
       </c>
       <c r="G122" s="14" t="inlineStr">
         <is>
-          <t>THLCRT_GARANTIAS</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I122" s="14" t="inlineStr">
@@ -9224,7 +9224,7 @@
         </is>
       </c>
       <c r="J122" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" hidden="1" ht="11.25" customHeight="1">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="G124" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I124" s="14" t="inlineStr">
@@ -9310,7 +9310,7 @@
         </is>
       </c>
       <c r="J124" s="15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" hidden="1" ht="11.25" customHeight="1">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="G125" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I125" s="14" t="inlineStr">
@@ -9355,7 +9355,7 @@
         </is>
       </c>
       <c r="J125" s="15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" hidden="1" ht="11.25" customHeight="1">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="G138" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I138" s="14" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="G139" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I139" s="14" t="inlineStr">
@@ -10066,7 +10066,7 @@
       </c>
       <c r="G141" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I141" s="14" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="G142" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I142" s="14" t="inlineStr">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="G146" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I146" s="14" t="inlineStr">
@@ -10300,7 +10300,7 @@
         </is>
       </c>
       <c r="J146" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" hidden="1" ht="11.25" customHeight="1">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="G147" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I147" s="14" t="inlineStr">
@@ -10345,7 +10345,7 @@
         </is>
       </c>
       <c r="J147" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" hidden="1" ht="11.25" customHeight="1">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="G148" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I148" s="14" t="inlineStr">
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="J148" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" hidden="1" ht="11.25" customHeight="1">
@@ -10421,12 +10421,12 @@
       </c>
       <c r="F149" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>FRO</t>
         </is>
       </c>
       <c r="G149" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I149" s="14" t="inlineStr">
@@ -10466,12 +10466,12 @@
       </c>
       <c r="F150" s="14" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G150" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I150" s="14" t="inlineStr">
@@ -10511,12 +10511,12 @@
       </c>
       <c r="F151" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G151" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I151" s="14" t="inlineStr">
@@ -10525,7 +10525,7 @@
         </is>
       </c>
       <c r="J151" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" hidden="1" ht="11.25" customHeight="1">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="G152" s="14" t="inlineStr">
         <is>
-          <t>KSCRETSOLICITUDES</t>
+          <t>KSPCOTDIVPOL</t>
         </is>
       </c>
       <c r="I152" s="14" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="G153" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>FRSAFITCRURESCTAIND</t>
         </is>
       </c>
       <c r="I153" s="14" t="inlineStr">
@@ -10615,7 +10615,7 @@
         </is>
       </c>
       <c r="J153" s="15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" hidden="1" ht="11.25" customHeight="1">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="G154" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTDIVPOL</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I154" s="14" t="inlineStr">
@@ -10660,7 +10660,7 @@
         </is>
       </c>
       <c r="J154" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" hidden="1" ht="11.25" customHeight="1">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="G155" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>KSCRETSOLICITUDES</t>
         </is>
       </c>
       <c r="I155" s="14" t="inlineStr">
@@ -10705,7 +10705,7 @@
         </is>
       </c>
       <c r="J155" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" hidden="1" ht="11.25" customHeight="1">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="G156" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I156" s="14" t="inlineStr">
@@ -10750,7 +10750,7 @@
         </is>
       </c>
       <c r="J156" s="15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" hidden="1" ht="11.25" customHeight="1">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="G157" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITCRURESCTAIND</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I157" s="14" t="inlineStr">
@@ -10795,7 +10795,7 @@
         </is>
       </c>
       <c r="J157" s="15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" hidden="1" ht="11.25" customHeight="1">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="G158" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I158" s="14" t="inlineStr">
@@ -10840,7 +10840,7 @@
         </is>
       </c>
       <c r="J158" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" hidden="1" ht="11.25" customHeight="1">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="G159" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I159" s="14" t="inlineStr">
@@ -10885,7 +10885,7 @@
         </is>
       </c>
       <c r="J159" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" hidden="1" ht="11.25" customHeight="1">
@@ -10917,7 +10917,7 @@
       <c r="G160" s="14" t="inlineStr"/>
       <c r="H160" s="14" t="inlineStr">
         <is>
-          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
+          <t>CRE_ACTUALIZADEBITOCAN_P</t>
         </is>
       </c>
       <c r="I160" s="14" t="inlineStr">
@@ -10955,10 +10955,14 @@
           <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
-      <c r="G161" s="14" t="inlineStr"/>
+      <c r="G161" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
       <c r="H161" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_GENAFECTCTAINDDEBAUT_PRC</t>
         </is>
       </c>
       <c r="I161" s="14" t="inlineStr">
@@ -10996,14 +11000,10 @@
           <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
-      <c r="G162" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
+      <c r="G162" s="14" t="inlineStr"/>
       <c r="H162" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENAFECTCTAINDDEBAUT_PRC</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="I162" s="14" t="inlineStr">
@@ -11044,7 +11044,7 @@
       <c r="G163" s="14" t="inlineStr"/>
       <c r="H163" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>CRE_LIBERATOTALFRS_P</t>
         </is>
       </c>
       <c r="I163" s="14" t="inlineStr">
@@ -11085,7 +11085,7 @@
       <c r="G164" s="14" t="inlineStr"/>
       <c r="H164" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERATOTALFRS_P</t>
+          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
         </is>
       </c>
       <c r="I164" s="14" t="inlineStr">
@@ -11126,7 +11126,7 @@
       <c r="G165" s="14" t="inlineStr"/>
       <c r="H165" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="I165" s="14" t="inlineStr">
@@ -11167,7 +11167,7 @@
       <c r="G166" s="14" t="inlineStr"/>
       <c r="H166" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOCAN_P</t>
+          <t>CRE_NETEOCUENTAINDIVIDUAL_P</t>
         </is>
       </c>
       <c r="I166" s="14" t="inlineStr">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="G167" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I167" s="14" t="inlineStr">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="J167" s="15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" hidden="1" ht="11.25" customHeight="1">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="G168" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I168" s="14" t="inlineStr">
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="J168" s="15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" hidden="1" ht="11.25" customHeight="1">
@@ -11302,7 +11302,7 @@
       </c>
       <c r="G169" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>KSCRETDOCJUSDEBQUIMORCES</t>
         </is>
       </c>
       <c r="I169" s="14" t="inlineStr">
@@ -11311,7 +11311,7 @@
         </is>
       </c>
       <c r="J169" s="15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" hidden="1" ht="11.25" customHeight="1">
@@ -11347,7 +11347,7 @@
       </c>
       <c r="G170" s="14" t="inlineStr">
         <is>
-          <t>KSCRETDOCJUSDEBQUIMORCES</t>
+          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
         </is>
       </c>
       <c r="I170" s="14" t="inlineStr">
@@ -11356,7 +11356,7 @@
         </is>
       </c>
       <c r="J170" s="15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" hidden="1" ht="11.25" customHeight="1">
@@ -11392,7 +11392,7 @@
       </c>
       <c r="G171" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>REC_TRANSACCION_TBL</t>
         </is>
       </c>
       <c r="I171" s="14" t="inlineStr">
@@ -11401,7 +11401,7 @@
         </is>
       </c>
       <c r="J171" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" hidden="1" ht="11.25" customHeight="1">
@@ -11437,7 +11437,7 @@
       </c>
       <c r="G172" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
+          <t>KSCESTSOLDEBQUIRO</t>
         </is>
       </c>
       <c r="I172" s="14" t="inlineStr">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="G173" s="14" t="inlineStr">
         <is>
-          <t>KSAFITDEBCUECES</t>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I173" s="14" t="inlineStr">
@@ -11491,7 +11491,7 @@
         </is>
       </c>
       <c r="J173" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" hidden="1" ht="11.25" customHeight="1">
@@ -11527,7 +11527,7 @@
       </c>
       <c r="G174" s="14" t="inlineStr">
         <is>
-          <t>REC_TRANSACCION_TBL</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I174" s="14" t="inlineStr">
@@ -11536,7 +11536,7 @@
         </is>
       </c>
       <c r="J174" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" hidden="1" ht="11.25" customHeight="1">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="G175" s="14" t="inlineStr">
         <is>
-          <t>KSCESTSOLDEBQUIRO</t>
+          <t>KSAFITDEBCUECES</t>
         </is>
       </c>
       <c r="I175" s="14" t="inlineStr">
@@ -11581,7 +11581,7 @@
         </is>
       </c>
       <c r="J175" s="15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" hidden="1" ht="11.25" customHeight="1">
@@ -11657,12 +11657,12 @@
       </c>
       <c r="F177" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G177" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
         </is>
       </c>
       <c r="I177" s="14" t="inlineStr">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="J177" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" hidden="1" ht="11.25" customHeight="1">
@@ -11747,12 +11747,12 @@
       </c>
       <c r="F179" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G179" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALDET_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I179" s="14" t="inlineStr">
@@ -11761,7 +11761,7 @@
         </is>
       </c>
       <c r="J179" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" hidden="1" ht="11.25" customHeight="1">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="G180" s="14" t="inlineStr">
         <is>
-          <t>KSAFITDEBCUECES</t>
+          <t>KSCRETDOCJUSDEBQUIMORCES</t>
         </is>
       </c>
       <c r="I180" s="14" t="inlineStr">
@@ -11842,7 +11842,7 @@
       </c>
       <c r="G181" s="14" t="inlineStr">
         <is>
-          <t>KSCRETDOCJUSDEBQUIMORCES</t>
+          <t>KSAFITDEBCUECES</t>
         </is>
       </c>
       <c r="I181" s="14" t="inlineStr">
@@ -11887,7 +11887,7 @@
       </c>
       <c r="G182" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>KSCESTSOLDEBQUIRO</t>
         </is>
       </c>
       <c r="I182" s="14" t="inlineStr">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="J182" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" hidden="1" ht="11.25" customHeight="1">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="G183" s="14" t="inlineStr">
         <is>
-          <t>KSCESTSOLDEBQUIRO</t>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I183" s="14" t="inlineStr">
@@ -11941,7 +11941,7 @@
         </is>
       </c>
       <c r="J183" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" hidden="1" ht="11.25" customHeight="1">
@@ -12015,10 +12015,14 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="G185" s="14" t="inlineStr"/>
+      <c r="G185" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
       <c r="H185" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAVALORESDEBITO_P</t>
+          <t>CRE_AFECTACTAINDIVIDUALCES_PRC</t>
         </is>
       </c>
       <c r="I185" s="14" t="inlineStr">
@@ -12027,7 +12031,7 @@
         </is>
       </c>
       <c r="J185" s="15" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" hidden="1" ht="11.25" customHeight="1">
@@ -12058,12 +12062,12 @@
       </c>
       <c r="G186" s="14" t="inlineStr">
         <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+          <t>CES_CUENTACESANTIAAPORTES_PKG</t>
         </is>
       </c>
       <c r="H186" s="14" t="inlineStr">
         <is>
-          <t>CRE_SOLICITUDDEBITOCES_PRC</t>
+          <t>PVALIDARBLOQUEOMP</t>
         </is>
       </c>
       <c r="I186" s="14" t="inlineStr">
@@ -12104,7 +12108,7 @@
       <c r="G187" s="14" t="inlineStr"/>
       <c r="H187" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>CRE_ACTUALIZADEBITOCAN_P</t>
         </is>
       </c>
       <c r="I187" s="14" t="inlineStr">
@@ -12142,14 +12146,10 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="G188" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
+      <c r="G188" s="14" t="inlineStr"/>
       <c r="H188" s="14" t="inlineStr">
         <is>
-          <t>CRE_MARCAAPORTESCESANTIAS_PRC</t>
+          <t>CRE_VALIDAVALORESDEBITO_P</t>
         </is>
       </c>
       <c r="I188" s="14" t="inlineStr">
@@ -12158,7 +12158,7 @@
         </is>
       </c>
       <c r="J188" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" hidden="1" ht="11.25" customHeight="1">
@@ -12187,10 +12187,14 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="G189" s="14" t="inlineStr"/>
+      <c r="G189" s="14" t="inlineStr">
+        <is>
+          <t>CES_CUENTACESANTIAAPORTES_PKG</t>
+        </is>
+      </c>
       <c r="H189" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAESTADOCRE_P</t>
+          <t>PINSCUENTAINDIVIDUALDET</t>
         </is>
       </c>
       <c r="I189" s="14" t="inlineStr">
@@ -12228,10 +12232,14 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="G190" s="14" t="inlineStr"/>
+      <c r="G190" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
       <c r="H190" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERATRANSACCION_P</t>
+          <t>CRE_SOLICITUDDEBITOCES_PRC</t>
         </is>
       </c>
       <c r="I190" s="14" t="inlineStr">
@@ -12240,7 +12248,7 @@
         </is>
       </c>
       <c r="J190" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" hidden="1" ht="11.25" customHeight="1">
@@ -12269,14 +12277,10 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="G191" s="14" t="inlineStr">
-        <is>
-          <t>CES_CUENTACESANTIAAPORTES_PKG</t>
-        </is>
-      </c>
+      <c r="G191" s="14" t="inlineStr"/>
       <c r="H191" s="14" t="inlineStr">
         <is>
-          <t>PINSCUENTAINDIVIDUALDET</t>
+          <t>CRE_ACTUALIZAESTADOCRE_P</t>
         </is>
       </c>
       <c r="I191" s="14" t="inlineStr">
@@ -12314,14 +12318,10 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="G192" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
+      <c r="G192" s="14" t="inlineStr"/>
       <c r="H192" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACTAINDIVIDUALCES_PRC</t>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="I192" s="14" t="inlineStr">
@@ -12330,7 +12330,7 @@
         </is>
       </c>
       <c r="J192" s="15" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" hidden="1" ht="11.25" customHeight="1">
@@ -12359,10 +12359,14 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="G193" s="14" t="inlineStr"/>
+      <c r="G193" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
       <c r="H193" s="14" t="inlineStr">
         <is>
-          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
+          <t>CRE_MARCAAPORTESCESANTIAS_PRC</t>
         </is>
       </c>
       <c r="I193" s="14" t="inlineStr">
@@ -12400,14 +12404,10 @@
           <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
-      <c r="G194" s="14" t="inlineStr">
-        <is>
-          <t>CES_CUENTACESANTIAAPORTES_PKG</t>
-        </is>
-      </c>
+      <c r="G194" s="14" t="inlineStr"/>
       <c r="H194" s="14" t="inlineStr">
         <is>
-          <t>PVALIDARBLOQUEOMP</t>
+          <t>CRE_LIBERADESBLOQUEATOTAL_P</t>
         </is>
       </c>
       <c r="I194" s="14" t="inlineStr">
@@ -12448,7 +12448,7 @@
       <c r="G195" s="14" t="inlineStr"/>
       <c r="H195" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOCAN_P</t>
+          <t>CRE_GENERATRANSACCION_P</t>
         </is>
       </c>
       <c r="I195" s="14" t="inlineStr">
@@ -12493,7 +12493,7 @@
       </c>
       <c r="G196" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I196" s="14" t="inlineStr">
@@ -12502,7 +12502,7 @@
         </is>
       </c>
       <c r="J196" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" hidden="1" ht="11.25" customHeight="1">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="G198" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I198" s="14" t="inlineStr">
@@ -12592,7 +12592,7 @@
         </is>
       </c>
       <c r="J198" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" hidden="1" ht="11.25" customHeight="1">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="G199" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I199" s="14" t="inlineStr">
@@ -12673,7 +12673,7 @@
       </c>
       <c r="G200" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I200" s="14" t="inlineStr">
@@ -12714,7 +12714,7 @@
       <c r="G201" s="14" t="inlineStr"/>
       <c r="H201" s="14" t="inlineStr">
         <is>
-          <t>CRE_INSERTABITACORAS_P</t>
+          <t>CRE_EJECUTADEBITOFCE_P</t>
         </is>
       </c>
       <c r="I201" s="14" t="inlineStr">
@@ -12723,7 +12723,7 @@
         </is>
       </c>
       <c r="J201" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" hidden="1" ht="11.25" customHeight="1">
@@ -12755,7 +12755,7 @@
       <c r="G202" s="14" t="inlineStr"/>
       <c r="H202" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITOFCE_P</t>
+          <t>CRE_ACTUALIZADEBITOREC_P</t>
         </is>
       </c>
       <c r="I202" s="14" t="inlineStr">
@@ -12764,7 +12764,7 @@
         </is>
       </c>
       <c r="J202" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" hidden="1" ht="11.25" customHeight="1">
@@ -12796,7 +12796,7 @@
       <c r="G203" s="14" t="inlineStr"/>
       <c r="H203" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOREC_P</t>
+          <t>CRE_INSERTABITACORAS_P</t>
         </is>
       </c>
       <c r="I203" s="14" t="inlineStr">
@@ -12805,7 +12805,7 @@
         </is>
       </c>
       <c r="J203" s="15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" hidden="1" ht="11.25" customHeight="1">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="G204" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I204" s="14" t="inlineStr">
@@ -12850,7 +12850,7 @@
         </is>
       </c>
       <c r="J204" s="15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" hidden="1" ht="11.25" customHeight="1">
@@ -12931,7 +12931,7 @@
       </c>
       <c r="G206" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I206" s="14" t="inlineStr">
@@ -12940,7 +12940,7 @@
         </is>
       </c>
       <c r="J206" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" hidden="1" ht="11.25" customHeight="1">
@@ -12976,7 +12976,7 @@
       </c>
       <c r="G207" s="14" t="inlineStr">
         <is>
-          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
+          <t>APORTES_PFR2</t>
         </is>
       </c>
       <c r="I207" s="14" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="G208" s="14" t="inlineStr">
         <is>
-          <t>FRSAFITSOLAFI</t>
+          <t>CRE_CREDITOSDEBITOSAC_T</t>
         </is>
       </c>
       <c r="I208" s="14" t="inlineStr">
@@ -13030,7 +13030,7 @@
         </is>
       </c>
       <c r="J208" s="15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" hidden="1" ht="11.25" customHeight="1">
@@ -13066,7 +13066,7 @@
       </c>
       <c r="G209" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREDITOSDEBITOSAC_T</t>
+          <t>FRSAFITSOLAFI</t>
         </is>
       </c>
       <c r="I209" s="14" t="inlineStr">
@@ -13075,7 +13075,7 @@
         </is>
       </c>
       <c r="J209" s="15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" hidden="1" ht="11.25" customHeight="1">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="G210" s="14" t="inlineStr">
         <is>
-          <t>APORTES_PFR2</t>
+          <t>CES_CUENTAINDIVIDUALCAB_TBL</t>
         </is>
       </c>
       <c r="I210" s="14" t="inlineStr">
@@ -13239,14 +13239,10 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="G213" s="14" t="inlineStr">
-        <is>
-          <t>FR_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
+      <c r="G213" s="14" t="inlineStr"/>
       <c r="H213" s="14" t="inlineStr">
         <is>
-          <t>FR_VALEXISTECARGOSREG_FUN</t>
+          <t>CRE_AFECTACUENTAFRS_P</t>
         </is>
       </c>
       <c r="I213" s="14" t="inlineStr">
@@ -13284,10 +13280,14 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="G214" s="14" t="inlineStr"/>
+      <c r="G214" s="14" t="inlineStr">
+        <is>
+          <t>FR_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
       <c r="H214" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALORAPROXIMADOFRS_P</t>
+          <t>FR_VALEXISTECARGOSREG_FUN</t>
         </is>
       </c>
       <c r="I214" s="14" t="inlineStr">
@@ -13328,7 +13328,7 @@
       <c r="G215" s="14" t="inlineStr"/>
       <c r="H215" s="14" t="inlineStr">
         <is>
-          <t>CRE_AFECTACUENTAFRS_P</t>
+          <t>CRE_ACTUALIZADEBITOOBS_P</t>
         </is>
       </c>
       <c r="I215" s="14" t="inlineStr">
@@ -13337,7 +13337,7 @@
         </is>
       </c>
       <c r="J215" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" hidden="1" ht="11.25" customHeight="1">
@@ -13366,14 +13366,10 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="G216" s="14" t="inlineStr">
-        <is>
-          <t>FR_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
+      <c r="G216" s="14" t="inlineStr"/>
       <c r="H216" s="14" t="inlineStr">
         <is>
-          <t>FR_VALEXISTRAMPENDAFIFALLE_FUN</t>
+          <t>CRE_VALORAPROXIMADOFRS_P</t>
         </is>
       </c>
       <c r="I216" s="14" t="inlineStr">
@@ -13411,14 +13407,10 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="G217" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
+      <c r="G217" s="14" t="inlineStr"/>
       <c r="H217" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDADATOSDEBAUT_FUN</t>
+          <t>CRE_ACTUALIZAESTADOCRE_P</t>
         </is>
       </c>
       <c r="I217" s="14" t="inlineStr">
@@ -13456,10 +13448,14 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="G218" s="14" t="inlineStr"/>
+      <c r="G218" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
       <c r="H218" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOREC_P</t>
+          <t>CRE_CREASOLICDEBITOAUTOM_PRC</t>
         </is>
       </c>
       <c r="I218" s="14" t="inlineStr">
@@ -13497,10 +13493,14 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="G219" s="14" t="inlineStr"/>
+      <c r="G219" s="14" t="inlineStr">
+        <is>
+          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
+        </is>
+      </c>
       <c r="H219" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_P</t>
+          <t>CRE_VALIDADATOSDEBAUT_FUN</t>
         </is>
       </c>
       <c r="I219" s="14" t="inlineStr">
@@ -13538,10 +13538,14 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="G220" s="14" t="inlineStr"/>
+      <c r="G220" s="14" t="inlineStr">
+        <is>
+          <t>FR_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
       <c r="H220" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOOBS_P</t>
+          <t>FR_VALEXISTEBLOQUEO_FUN</t>
         </is>
       </c>
       <c r="I220" s="14" t="inlineStr">
@@ -13550,7 +13554,7 @@
         </is>
       </c>
       <c r="J220" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" hidden="1" ht="11.25" customHeight="1">
@@ -13582,7 +13586,7 @@
       <c r="G221" s="14" t="inlineStr"/>
       <c r="H221" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAESTADOCRE_P</t>
+          <t>CRE_ACTUALIZACESANTIAS_P</t>
         </is>
       </c>
       <c r="I221" s="14" t="inlineStr">
@@ -13706,14 +13710,10 @@
           <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
-      <c r="G224" s="14" t="inlineStr">
-        <is>
-          <t>CRE_DEBITO_AUTOMATICO_PKG</t>
-        </is>
-      </c>
+      <c r="G224" s="14" t="inlineStr"/>
       <c r="H224" s="14" t="inlineStr">
         <is>
-          <t>CRE_CREASOLICDEBITOAUTOM_PRC</t>
+          <t>CRE_ACTUALIZADEBITOREC_P</t>
         </is>
       </c>
       <c r="I224" s="14" t="inlineStr">
@@ -13758,7 +13758,7 @@
       </c>
       <c r="H225" s="14" t="inlineStr">
         <is>
-          <t>FR_VALEXISTEBLOQUEO_FUN</t>
+          <t>FR_VALEXISTRAMPENDAFIFALLE_FUN</t>
         </is>
       </c>
       <c r="I225" s="14" t="inlineStr">
@@ -13938,7 +13938,7 @@
       </c>
       <c r="G229" s="14" t="inlineStr">
         <is>
-          <t>KSCRETCREDITOS</t>
+          <t>CRE_BITACORAS_TBL</t>
         </is>
       </c>
       <c r="I229" s="14" t="inlineStr">
@@ -14028,7 +14028,7 @@
       </c>
       <c r="G231" s="14" t="inlineStr">
         <is>
-          <t>CRE_BITACORAS_TBL</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I231" s="14" t="inlineStr">
@@ -14037,7 +14037,7 @@
         </is>
       </c>
       <c r="J231" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" hidden="1" ht="11.25" customHeight="1">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="G232" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>KSCRETCREDITOS</t>
         </is>
       </c>
       <c r="I232" s="14" t="inlineStr">
@@ -14082,7 +14082,7 @@
         </is>
       </c>
       <c r="J232" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" hidden="1" ht="11.25" customHeight="1">
@@ -14113,12 +14113,12 @@
       </c>
       <c r="F233" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G233" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
+          <t>KSPCOTAFILIADOS</t>
         </is>
       </c>
       <c r="I233" s="14" t="inlineStr">
@@ -14203,12 +14203,12 @@
       </c>
       <c r="F235" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G235" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTAFILIADOS</t>
+          <t>CRE_ACTUALIZACESANTIAS_TBL</t>
         </is>
       </c>
       <c r="I235" s="14" t="inlineStr">
@@ -14291,10 +14291,14 @@
           <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
-      <c r="G237" s="14" t="inlineStr"/>
+      <c r="G237" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
       <c r="H237" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDATIPODEBITO_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I237" s="14" t="inlineStr">
@@ -14303,7 +14307,7 @@
         </is>
       </c>
       <c r="J237" s="15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" hidden="1" ht="11.25" customHeight="1">
@@ -14335,7 +14339,7 @@
       <c r="G238" s="14" t="inlineStr"/>
       <c r="H238" s="14" t="inlineStr">
         <is>
-          <t>CRE_ARCHIVODEBITO_P</t>
+          <t>CRE_GENERADEBITOFCE_P</t>
         </is>
       </c>
       <c r="I238" s="14" t="inlineStr">
@@ -14344,7 +14348,7 @@
         </is>
       </c>
       <c r="J238" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" hidden="1" ht="11.25" customHeight="1">
@@ -14373,10 +14377,14 @@
           <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
-      <c r="G239" s="14" t="inlineStr"/>
+      <c r="G239" s="14" t="inlineStr">
+        <is>
+          <t>GEN_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
       <c r="H239" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZADEBITOREC_P</t>
+          <t>GEN_DURACIONPROCESO_FUN</t>
         </is>
       </c>
       <c r="I239" s="14" t="inlineStr">
@@ -14385,7 +14393,7 @@
         </is>
       </c>
       <c r="J239" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" hidden="1" ht="11.25" customHeight="1">
@@ -14414,10 +14422,14 @@
           <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
-      <c r="G240" s="14" t="inlineStr"/>
+      <c r="G240" s="14" t="inlineStr">
+        <is>
+          <t>CRE_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
       <c r="H240" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFCE_P</t>
+          <t>CRE_ENVIOMAILS_PRC</t>
         </is>
       </c>
       <c r="I240" s="14" t="inlineStr">
@@ -14426,7 +14438,7 @@
         </is>
       </c>
       <c r="J240" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" hidden="1" ht="11.25" customHeight="1">
@@ -14455,14 +14467,10 @@
           <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
-      <c r="G241" s="14" t="inlineStr">
-        <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
+      <c r="G241" s="14" t="inlineStr"/>
       <c r="H241" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_ARCHIVODEBITO_P</t>
         </is>
       </c>
       <c r="I241" s="14" t="inlineStr">
@@ -14471,7 +14479,7 @@
         </is>
       </c>
       <c r="J241" s="15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" hidden="1" ht="11.25" customHeight="1">
@@ -14503,7 +14511,7 @@
       <c r="G242" s="14" t="inlineStr"/>
       <c r="H242" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERADEBITOFRS_P</t>
+          <t>CRE_INSERTABITACORAS_P</t>
         </is>
       </c>
       <c r="I242" s="14" t="inlineStr">
@@ -14512,7 +14520,7 @@
         </is>
       </c>
       <c r="J242" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" hidden="1" ht="11.25" customHeight="1">
@@ -14541,14 +14549,10 @@
           <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
-      <c r="G243" s="14" t="inlineStr">
-        <is>
-          <t>CRE_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
+      <c r="G243" s="14" t="inlineStr"/>
       <c r="H243" s="14" t="inlineStr">
         <is>
-          <t>CRE_ENVIOMAILS_PRC</t>
+          <t>CRE_ACTUALIZADEBITOREC_P</t>
         </is>
       </c>
       <c r="I243" s="14" t="inlineStr">
@@ -14557,7 +14561,7 @@
         </is>
       </c>
       <c r="J243" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" hidden="1" ht="11.25" customHeight="1">
@@ -14586,14 +14590,10 @@
           <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
-      <c r="G244" s="14" t="inlineStr">
-        <is>
-          <t>GEN_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
+      <c r="G244" s="14" t="inlineStr"/>
       <c r="H244" s="14" t="inlineStr">
         <is>
-          <t>GEN_DURACIONPROCESO_FUN</t>
+          <t>CRE_VALIDATIPODEBITO_P</t>
         </is>
       </c>
       <c r="I244" s="14" t="inlineStr">
@@ -14634,7 +14634,7 @@
       <c r="G245" s="14" t="inlineStr"/>
       <c r="H245" s="14" t="inlineStr">
         <is>
-          <t>CRE_INSERTABITACORAS_P</t>
+          <t>CRE_GENERADEBITOFRS_P</t>
         </is>
       </c>
       <c r="I245" s="14" t="inlineStr">
@@ -14643,7 +14643,7 @@
         </is>
       </c>
       <c r="J245" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" hidden="1" ht="11.25" customHeight="1">
@@ -14679,7 +14679,7 @@
       </c>
       <c r="G246" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>HLPROTTIPOPE</t>
         </is>
       </c>
       <c r="I246" s="14" t="inlineStr">
@@ -14688,7 +14688,7 @@
         </is>
       </c>
       <c r="J246" s="15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" hidden="1" ht="11.25" customHeight="1">
@@ -14724,7 +14724,7 @@
       </c>
       <c r="G247" s="14" t="inlineStr">
         <is>
-          <t>HLPROTTIPOPE</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I247" s="14" t="inlineStr">
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="J247" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" hidden="1" ht="11.25" customHeight="1">
@@ -14769,7 +14769,7 @@
       </c>
       <c r="G248" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I248" s="14" t="inlineStr">
@@ -14778,7 +14778,7 @@
         </is>
       </c>
       <c r="J248" s="15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" hidden="1" ht="11.25" customHeight="1">
@@ -14809,12 +14809,12 @@
       </c>
       <c r="F249" s="14" t="inlineStr">
         <is>
-          <t>PQ_OWNER</t>
+          <t>IESS_OWNER</t>
         </is>
       </c>
       <c r="G249" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>KSPCOTPOLCOR</t>
         </is>
       </c>
       <c r="I249" s="14" t="inlineStr">
@@ -14823,7 +14823,7 @@
         </is>
       </c>
       <c r="J249" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" hidden="1" ht="11.25" customHeight="1">
@@ -14854,12 +14854,12 @@
       </c>
       <c r="F250" s="14" t="inlineStr">
         <is>
-          <t>IESS_OWNER</t>
+          <t>PQ_OWNER</t>
         </is>
       </c>
       <c r="G250" s="14" t="inlineStr">
         <is>
-          <t>KSPCOTPOLCOR</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I250" s="14" t="inlineStr">
@@ -14868,7 +14868,7 @@
         </is>
       </c>
       <c r="J250" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" hidden="1" ht="11.25" customHeight="1">
@@ -14897,10 +14897,14 @@
           <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
-      <c r="G251" s="14" t="inlineStr"/>
+      <c r="G251" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
       <c r="H251" s="14" t="inlineStr">
         <is>
-          <t>CRE_EJECUTADEBITO_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I251" s="14" t="inlineStr">
@@ -14909,7 +14913,7 @@
         </is>
       </c>
       <c r="J251" s="15" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252" hidden="1" ht="11.25" customHeight="1">
@@ -14938,14 +14942,10 @@
           <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
-      <c r="G252" s="14" t="inlineStr">
-        <is>
-          <t>CRE_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
+      <c r="G252" s="14" t="inlineStr"/>
       <c r="H252" s="14" t="inlineStr">
         <is>
-          <t>CRE_CODPROUSRENVMAIL_PRC</t>
+          <t>CRE_GENERACODIGOPROCESO_P</t>
         </is>
       </c>
       <c r="I252" s="14" t="inlineStr">
@@ -14985,12 +14985,12 @@
       </c>
       <c r="G253" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
+          <t>CRE_PROCESOSGENERICOS_PKG</t>
         </is>
       </c>
       <c r="H253" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_CODPROUSRENVMAIL_PRC</t>
         </is>
       </c>
       <c r="I253" s="14" t="inlineStr">
@@ -14999,7 +14999,7 @@
         </is>
       </c>
       <c r="J253" s="15" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" hidden="1" ht="11.25" customHeight="1">
@@ -15028,14 +15028,10 @@
           <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
-      <c r="G254" s="14" t="inlineStr">
-        <is>
-          <t>GEN_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
+      <c r="G254" s="14" t="inlineStr"/>
       <c r="H254" s="14" t="inlineStr">
         <is>
-          <t>GEN_OBT_CODIGOPROC_FUN</t>
+          <t>CRE_ACTUALIZACATALOGO_P</t>
         </is>
       </c>
       <c r="I254" s="14" t="inlineStr">
@@ -15073,10 +15069,14 @@
           <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
-      <c r="G255" s="14" t="inlineStr"/>
+      <c r="G255" s="14" t="inlineStr">
+        <is>
+          <t>GEN_PROCESOSGENERICOS_PKG</t>
+        </is>
+      </c>
       <c r="H255" s="14" t="inlineStr">
         <is>
-          <t>CRE_CONSULTACATALOGO_P</t>
+          <t>GEN_INSUPDHLPROTBITOPE_PRC</t>
         </is>
       </c>
       <c r="I255" s="14" t="inlineStr">
@@ -15085,7 +15085,7 @@
         </is>
       </c>
       <c r="J255" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" hidden="1" ht="11.25" customHeight="1">
@@ -15117,7 +15117,7 @@
       <c r="G256" s="14" t="inlineStr"/>
       <c r="H256" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZACATALOGO_P</t>
+          <t>CRE_EJECUTADEBITO_P</t>
         </is>
       </c>
       <c r="I256" s="14" t="inlineStr">
@@ -15162,7 +15162,7 @@
       </c>
       <c r="H257" s="14" t="inlineStr">
         <is>
-          <t>GEN_INSUPDHLPROTBITOPE_PRC</t>
+          <t>GEN_OBT_CODIGOPROC_FUN</t>
         </is>
       </c>
       <c r="I257" s="14" t="inlineStr">
@@ -15203,7 +15203,7 @@
       <c r="G258" s="14" t="inlineStr"/>
       <c r="H258" s="14" t="inlineStr">
         <is>
-          <t>CRE_GENERACODIGOPROCESO_P</t>
+          <t>CRE_CONSULTACATALOGO_P</t>
         </is>
       </c>
       <c r="I258" s="14" t="inlineStr">
@@ -15212,7 +15212,7 @@
         </is>
       </c>
       <c r="J258" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" hidden="1" ht="11.25" customHeight="1">
@@ -15383,7 +15383,7 @@
       </c>
       <c r="G262" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>KSCRETBITPRO</t>
         </is>
       </c>
       <c r="I262" s="14" t="inlineStr">
@@ -15392,7 +15392,7 @@
         </is>
       </c>
       <c r="J262" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" hidden="1" ht="11.25" customHeight="1">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="G263" s="14" t="inlineStr">
         <is>
-          <t>KSCRETBITPRO</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I263" s="14" t="inlineStr">
@@ -15437,7 +15437,7 @@
         </is>
       </c>
       <c r="J263" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" hidden="1" ht="11.25" customHeight="1">
@@ -15466,10 +15466,14 @@
           <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
-      <c r="G264" s="14" t="inlineStr"/>
+      <c r="G264" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
       <c r="H264" s="14" t="inlineStr">
         <is>
-          <t>CRE_CONSULTACATALOGO_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I264" s="14" t="inlineStr">
@@ -15507,14 +15511,10 @@
           <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
-      <c r="G265" s="14" t="inlineStr">
-        <is>
-          <t>CRE_PROCESOSGENERICOS_PKG</t>
-        </is>
-      </c>
+      <c r="G265" s="14" t="inlineStr"/>
       <c r="H265" s="14" t="inlineStr">
         <is>
-          <t>CRE_LEERTIPOERRORDEBITO_PRC</t>
+          <t>CRE_CONSULTACATALOGO_P</t>
         </is>
       </c>
       <c r="I265" s="14" t="inlineStr">
@@ -15523,7 +15523,7 @@
         </is>
       </c>
       <c r="J265" s="15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" hidden="1" ht="11.25" customHeight="1">
@@ -15595,12 +15595,12 @@
       </c>
       <c r="G267" s="14" t="inlineStr">
         <is>
-          <t>HLCREKPROGEN</t>
+          <t>CRE_PROCESOSGENERICOS_PKG</t>
         </is>
       </c>
       <c r="H267" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_LEERTIPOERRORDEBITO_PRC</t>
         </is>
       </c>
       <c r="I267" s="14" t="inlineStr">
@@ -15609,7 +15609,7 @@
         </is>
       </c>
       <c r="J267" s="15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268" hidden="1" ht="11.25" customHeight="1">
@@ -15690,7 +15690,7 @@
       </c>
       <c r="G269" s="14" t="inlineStr">
         <is>
-          <t>CRE_CATALOGOPQ_TBL</t>
+          <t>CRE_DETCATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I269" s="14" t="inlineStr">
@@ -15735,7 +15735,7 @@
       </c>
       <c r="G270" s="14" t="inlineStr">
         <is>
-          <t>CRE_DETCATALOGOPQ_TBL</t>
+          <t>CRE_CATALOGOPQ_TBL</t>
         </is>
       </c>
       <c r="I270" s="14" t="inlineStr">
@@ -15773,10 +15773,14 @@
           <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
-      <c r="G271" s="14" t="inlineStr"/>
+      <c r="G271" s="14" t="inlineStr">
+        <is>
+          <t>HLCREKPROGEN</t>
+        </is>
+      </c>
       <c r="H271" s="14" t="inlineStr">
         <is>
-          <t>CRE_ACTUALIZAPARAMETROS_P</t>
+          <t>PROREGBITPRO</t>
         </is>
       </c>
       <c r="I271" s="14" t="inlineStr">
@@ -15785,7 +15789,7 @@
         </is>
       </c>
       <c r="J271" s="15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" hidden="1" ht="11.25" customHeight="1">
@@ -15817,7 +15821,7 @@
       <c r="G272" s="14" t="inlineStr"/>
       <c r="H272" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEJECUTADEB_P</t>
+          <t>CRE_PARAMETRIZACIONES_P</t>
         </is>
       </c>
       <c r="I272" s="14" t="inlineStr">
@@ -15896,14 +15900,10 @@
           <t>CRE_DEBITOAUTOMATICO_P</t>
         </is>
       </c>
-      <c r="G274" s="14" t="inlineStr">
-        <is>
-          <t>HLCREKPROGEN</t>
-        </is>
-      </c>
+      <c r="G274" s="14" t="inlineStr"/>
       <c r="H274" s="14" t="inlineStr">
         <is>
-          <t>PROREGBITPRO</t>
+          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
         </is>
       </c>
       <c r="I274" s="14" t="inlineStr">
@@ -15912,7 +15912,7 @@
         </is>
       </c>
       <c r="J274" s="15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" hidden="1" ht="11.25" customHeight="1">
@@ -15985,7 +15985,7 @@
       <c r="G276" s="14" t="inlineStr"/>
       <c r="H276" s="14" t="inlineStr">
         <is>
-          <t>CRE_PARAMETRIZACIONES_P</t>
+          <t>CRE_VALIDAEJECUTADEB_P</t>
         </is>
       </c>
       <c r="I276" s="14" t="inlineStr">
@@ -16026,7 +16026,7 @@
       <c r="G277" s="14" t="inlineStr"/>
       <c r="H277" s="14" t="inlineStr">
         <is>
-          <t>CRE_VALIDAEXCLUSIONESCES_P</t>
+          <t>CRE_ACTUALIZAPARAMETROS_P</t>
         </is>
       </c>
       <c r="I277" s="14" t="inlineStr">
@@ -16161,7 +16161,7 @@
       </c>
       <c r="G280" s="14" t="inlineStr">
         <is>
-          <t>AUD_TRAZA_ACCIONES_T</t>
+          <t>AUD_TRAMITES_T</t>
         </is>
       </c>
       <c r="I280" s="14" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="G281" s="14" t="inlineStr">
         <is>
-          <t>AUD_SERVICIOS_T</t>
+          <t>AUD_TRAZA_ACCIONES_T</t>
         </is>
       </c>
       <c r="I281" s="14" t="inlineStr">
@@ -16244,19 +16244,15 @@
           <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
-      <c r="F282" s="14" t="inlineStr">
-        <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
+      <c r="F282" s="14" t="inlineStr"/>
       <c r="G282" s="14" t="inlineStr">
         <is>
-          <t>AUD_EXPEDIENTES_T</t>
+          <t>AUD_TRAMITES_T</t>
         </is>
       </c>
       <c r="I282" s="14" t="inlineStr">
         <is>
-          <t>SELECT-DBLINK</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J282" s="15" t="n">
@@ -16289,19 +16285,15 @@
           <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
-      <c r="F283" s="14" t="inlineStr">
-        <is>
-          <t>'@DBK_AUDIMED_DBREPLICA</t>
-        </is>
-      </c>
+      <c r="F283" s="14" t="inlineStr"/>
       <c r="G283" s="14" t="inlineStr">
         <is>
-          <t>AUD_TRAMITES_T</t>
+          <t>AUD_TRAZA_ACCIONES_T</t>
         </is>
       </c>
       <c r="I283" s="14" t="inlineStr">
         <is>
-          <t>SELECT-DBLINK</t>
+          <t>SELECT</t>
         </is>
       </c>
       <c r="J283" s="15" t="n">
@@ -16337,7 +16329,7 @@
       <c r="F284" s="14" t="inlineStr"/>
       <c r="G284" s="14" t="inlineStr">
         <is>
-          <t>AUD_TRAZA_ACCIONES_T</t>
+          <t>AUD_SERVICIOS_T</t>
         </is>
       </c>
       <c r="I284" s="14" t="inlineStr">
@@ -16378,7 +16370,7 @@
       <c r="F285" s="14" t="inlineStr"/>
       <c r="G285" s="14" t="inlineStr">
         <is>
-          <t>AUD_TRAMITES_T</t>
+          <t>AUD_EXPEDIENTES_T</t>
         </is>
       </c>
       <c r="I285" s="14" t="inlineStr">
@@ -16416,7 +16408,11 @@
           <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
-      <c r="F286" s="14" t="inlineStr"/>
+      <c r="F286" s="14" t="inlineStr">
+        <is>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
+        </is>
+      </c>
       <c r="G286" s="14" t="inlineStr">
         <is>
           <t>AUD_EXPEDIENTES_T</t>
@@ -16424,7 +16420,7 @@
       </c>
       <c r="I286" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>SELECT-DBLINK</t>
         </is>
       </c>
       <c r="J286" s="15" t="n">
@@ -16457,7 +16453,11 @@
           <t>SAL_REPLICAAUDIMED_P</t>
         </is>
       </c>
-      <c r="F287" s="14" t="inlineStr"/>
+      <c r="F287" s="14" t="inlineStr">
+        <is>
+          <t>'@DBK_AUDIMED_DBREPLICA</t>
+        </is>
+      </c>
       <c r="G287" s="14" t="inlineStr">
         <is>
           <t>AUD_SERVICIOS_T</t>
@@ -16465,7 +16465,7 @@
       </c>
       <c r="I287" s="14" t="inlineStr">
         <is>
-          <t>SELECT</t>
+          <t>SELECT-DBLINK</t>
         </is>
       </c>
       <c r="J287" s="15" t="n">
@@ -16505,7 +16505,7 @@
       </c>
       <c r="G288" s="14" t="inlineStr">
         <is>
-          <t>AUD_TRAZA_ACCIONES_T</t>
+          <t>AUD_VISOR_LOG_USUARIOS_T</t>
         </is>
       </c>
       <c r="I288" s="14" t="inlineStr">
@@ -16514,7 +16514,7 @@
         </is>
       </c>
       <c r="J288" s="15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289" hidden="1" ht="11.25" customHeight="1">
@@ -16550,7 +16550,7 @@
       </c>
       <c r="G289" s="14" t="inlineStr">
         <is>
-          <t>AUD_SERVICIOS_T</t>
+          <t>AUD_TRAMITES_T</t>
         </is>
       </c>
       <c r="I289" s="14" t="inlineStr">
@@ -16595,7 +16595,7 @@
       </c>
       <c r="G290" s="14" t="inlineStr">
         <is>
-          <t>AUD_EXPEDIENTES_T</t>
+          <t>AUD_TRAZA_ACCIONES_T</t>
         </is>
       </c>
       <c r="I290" s="14" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="G291" s="14" t="inlineStr">
         <is>
-          <t>AUD_TRAMITES_T</t>
+          <t>AUD_EXPEDIENTES_T</t>
         </is>
       </c>
       <c r="I291" s="14" t="inlineStr">
@@ -16685,7 +16685,7 @@
       </c>
       <c r="G292" s="14" t="inlineStr">
         <is>
-          <t>AUD_VISOR_LOG_USUARIOS_T</t>
+          <t>AUD_SERVICIOS_T</t>
         </is>
       </c>
       <c r="I292" s="14" t="inlineStr">
@@ -16694,7 +16694,7 @@
         </is>
       </c>
       <c r="J292" s="15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" hidden="1" ht="11.25" customHeight="1">
